--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772B3A30-E135-4415-946B-98AA5D62DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C67B9-9393-4735-86E1-140C967D51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidado!$A$1:$S$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="195">
   <si>
     <t>Liga</t>
   </si>
@@ -380,9 +381,6 @@
     <t>Cruz Azul</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>AP24</t>
   </si>
   <si>
@@ -558,6 +556,75 @@
   </si>
   <si>
     <t>Eduardo Dominguez</t>
+  </si>
+  <si>
+    <t>KRC Genk</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Union Saint-Gilloise</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Standard Liège</t>
+  </si>
+  <si>
+    <t>Sporting Charleroi</t>
+  </si>
+  <si>
+    <t>Sint-Truiden</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>Zulte Waregem</t>
+  </si>
+  <si>
+    <t>AS Eupen</t>
+  </si>
+  <si>
+    <t>KV Oostende</t>
+  </si>
+  <si>
+    <t>RFC Seraing</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>RWDM</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
   </si>
 </sst>
 </file>
@@ -929,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S320"/>
+  <dimension ref="A1:S354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="F1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340:D354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,10 +1024,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -975,13 +1042,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -993,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -1296,13 +1363,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" t="s">
         <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
       </c>
       <c r="E7">
         <v>23</v>
@@ -1352,13 +1419,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>23</v>
@@ -1467,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1526,7 +1593,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1641,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1700,7 +1767,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1924,10 +1991,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18">
         <v>2022</v>
@@ -1980,10 +2047,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19">
         <v>2023</v>
@@ -2036,10 +2103,10 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20">
         <v>2024</v>
@@ -2092,13 +2159,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
         <v>113</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -2148,13 +2215,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22">
         <v>17</v>
@@ -2431,7 +2498,7 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
@@ -2602,7 +2669,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -2658,13 +2725,13 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" t="s">
         <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
       </c>
       <c r="E31">
         <v>21</v>
@@ -2714,13 +2781,13 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32">
         <v>17</v>
@@ -3050,10 +3117,10 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -3106,10 +3173,10 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39">
         <v>2023</v>
@@ -3162,10 +3229,10 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40">
         <v>2024</v>
@@ -4674,13 +4741,13 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67">
         <v>2022</v>
@@ -4733,10 +4800,10 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68">
         <v>2023</v>
@@ -4789,10 +4856,10 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69">
         <v>2024</v>
@@ -4845,10 +4912,10 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D70">
         <v>2022</v>
@@ -4901,10 +4968,10 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71">
         <v>2023</v>
@@ -4957,10 +5024,10 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D72">
         <v>2024</v>
@@ -5013,10 +5080,10 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73">
         <v>2022</v>
@@ -5069,10 +5136,10 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74">
         <v>2023</v>
@@ -5125,10 +5192,10 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75">
         <v>2024</v>
@@ -5181,10 +5248,10 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76">
         <v>2022</v>
@@ -5237,10 +5304,10 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77">
         <v>2023</v>
@@ -5293,10 +5360,10 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D78">
         <v>2024</v>
@@ -5517,10 +5584,10 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82">
         <v>2022</v>
@@ -5573,10 +5640,10 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83">
         <v>2023</v>
@@ -5629,10 +5696,10 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84">
         <v>2024</v>
@@ -5685,10 +5752,10 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D85">
         <v>2022</v>
@@ -5741,13 +5808,13 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D86">
         <v>2023</v>
@@ -5800,13 +5867,13 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D87">
         <v>2024</v>
@@ -6086,13 +6153,13 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" t="s">
         <v>113</v>
-      </c>
-      <c r="D92" t="s">
-        <v>114</v>
       </c>
       <c r="E92">
         <v>21</v>
@@ -6145,13 +6212,13 @@
         <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93">
         <v>23</v>
@@ -6481,10 +6548,10 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D99">
         <v>2022</v>
@@ -6537,10 +6604,10 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D100">
         <v>2023</v>
@@ -6593,10 +6660,10 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D101">
         <v>2024</v>
@@ -8276,7 +8343,7 @@
         <v>25</v>
       </c>
       <c r="B131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
@@ -8335,7 +8402,7 @@
         <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
@@ -8391,10 +8458,10 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133">
         <v>2022</v>
@@ -8447,10 +8514,10 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D134">
         <v>2023</v>
@@ -8503,10 +8570,10 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135">
         <v>2024</v>
@@ -9119,13 +9186,13 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C146" t="s">
+        <v>192</v>
+      </c>
+      <c r="D146" t="s">
         <v>113</v>
-      </c>
-      <c r="D146" t="s">
-        <v>114</v>
       </c>
       <c r="E146">
         <v>18</v>
@@ -9175,13 +9242,13 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147">
         <v>21</v>
@@ -9455,10 +9522,10 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D152">
         <v>2022</v>
@@ -9511,10 +9578,10 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D153">
         <v>2023</v>
@@ -9567,10 +9634,10 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154">
         <v>2024</v>
@@ -9850,7 +9917,7 @@
         <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -9965,7 +10032,7 @@
         <v>99</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C161" t="s">
         <v>94</v>
@@ -10024,7 +10091,7 @@
         <v>99</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C162" t="s">
         <v>94</v>
@@ -10416,10 +10483,10 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D169">
         <v>2022</v>
@@ -10472,10 +10539,10 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D170">
         <v>2023</v>
@@ -10528,10 +10595,10 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D171">
         <v>2024</v>
@@ -10808,13 +10875,13 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C176" t="s">
+        <v>192</v>
+      </c>
+      <c r="D176" t="s">
         <v>113</v>
-      </c>
-      <c r="D176" t="s">
-        <v>114</v>
       </c>
       <c r="E176">
         <v>17</v>
@@ -10864,13 +10931,13 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C177" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D177" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E177">
         <v>17</v>
@@ -11256,10 +11323,10 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C184" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D184">
         <v>2022</v>
@@ -11312,10 +11379,10 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C185" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D185">
         <v>2023</v>
@@ -11368,10 +11435,10 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C186" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D186">
         <v>2024</v>
@@ -11424,10 +11491,10 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C187" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D187">
         <v>2022</v>
@@ -11480,10 +11547,10 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C188" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D188">
         <v>2023</v>
@@ -11536,10 +11603,10 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D189">
         <v>2024</v>
@@ -11872,13 +11939,13 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C195" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" t="s">
         <v>113</v>
-      </c>
-      <c r="D195" t="s">
-        <v>114</v>
       </c>
       <c r="E195">
         <v>17</v>
@@ -11928,13 +11995,13 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C196" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D196" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E196">
         <v>17</v>
@@ -12096,13 +12163,13 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C199" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" t="s">
         <v>113</v>
-      </c>
-      <c r="D199" t="s">
-        <v>114</v>
       </c>
       <c r="E199">
         <v>17</v>
@@ -12152,13 +12219,13 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C200" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E200">
         <v>17</v>
@@ -12376,10 +12443,10 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C204" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D204">
         <v>2022</v>
@@ -12432,10 +12499,10 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C205" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D205">
         <v>2023</v>
@@ -12488,10 +12555,10 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C206" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D206">
         <v>2024</v>
@@ -12544,13 +12611,13 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C207" t="s">
+        <v>192</v>
+      </c>
+      <c r="D207" t="s">
         <v>113</v>
-      </c>
-      <c r="D207" t="s">
-        <v>114</v>
       </c>
       <c r="E207">
         <v>22</v>
@@ -12600,13 +12667,13 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C208" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D208" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E208">
         <v>21</v>
@@ -12768,10 +12835,10 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C211" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D211">
         <v>2022</v>
@@ -12824,10 +12891,10 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C212" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D212">
         <v>2023</v>
@@ -12880,10 +12947,10 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D213">
         <v>2024</v>
@@ -12936,13 +13003,13 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C214" t="s">
+        <v>192</v>
+      </c>
+      <c r="D214" t="s">
         <v>113</v>
-      </c>
-      <c r="D214" t="s">
-        <v>114</v>
       </c>
       <c r="E214">
         <v>17</v>
@@ -12992,13 +13059,13 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C215" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D215" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E215">
         <v>19</v>
@@ -13048,10 +13115,10 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C216" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D216">
         <v>2022</v>
@@ -13104,10 +13171,10 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C217" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D217">
         <v>2023</v>
@@ -13160,10 +13227,10 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C218" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D218">
         <v>2024</v>
@@ -13216,10 +13283,10 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C219" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D219">
         <v>2022</v>
@@ -13272,10 +13339,10 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C220" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D220">
         <v>2023</v>
@@ -13328,10 +13395,10 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C221" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D221">
         <v>2024</v>
@@ -13384,10 +13451,10 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C222" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D222">
         <v>2022</v>
@@ -13440,10 +13507,10 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C223" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D223">
         <v>2023</v>
@@ -13496,10 +13563,10 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C224" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D224">
         <v>2024</v>
@@ -14000,10 +14067,10 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C233" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D233">
         <v>2022</v>
@@ -14056,10 +14123,10 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C234" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D234">
         <v>2023</v>
@@ -14112,10 +14179,10 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C235" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D235">
         <v>2024</v>
@@ -14168,13 +14235,13 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C236" t="s">
+        <v>192</v>
+      </c>
+      <c r="D236" t="s">
         <v>113</v>
-      </c>
-      <c r="D236" t="s">
-        <v>114</v>
       </c>
       <c r="E236">
         <v>17</v>
@@ -14224,13 +14291,13 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C237" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D237" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E237">
         <v>21</v>
@@ -14560,10 +14627,10 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>132</v>
+      </c>
+      <c r="C243" t="s">
         <v>133</v>
-      </c>
-      <c r="C243" t="s">
-        <v>134</v>
       </c>
       <c r="D243">
         <v>2022</v>
@@ -14616,10 +14683,10 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>132</v>
+      </c>
+      <c r="C244" t="s">
         <v>133</v>
-      </c>
-      <c r="C244" t="s">
-        <v>134</v>
       </c>
       <c r="D244">
         <v>2023</v>
@@ -14672,10 +14739,10 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>132</v>
+      </c>
+      <c r="C245" t="s">
         <v>133</v>
-      </c>
-      <c r="C245" t="s">
-        <v>134</v>
       </c>
       <c r="D245">
         <v>2024</v>
@@ -14728,10 +14795,10 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C246" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D246">
         <v>2022</v>
@@ -14784,10 +14851,10 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C247" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D247">
         <v>2023</v>
@@ -14840,10 +14907,10 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C248" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D248">
         <v>2024</v>
@@ -14896,13 +14963,13 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C249" t="s">
+        <v>192</v>
+      </c>
+      <c r="D249" t="s">
         <v>113</v>
-      </c>
-      <c r="D249" t="s">
-        <v>114</v>
       </c>
       <c r="E249">
         <v>17</v>
@@ -14952,13 +15019,13 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C250" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D250" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E250">
         <v>17</v>
@@ -15008,13 +15075,13 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C251" t="s">
+        <v>192</v>
+      </c>
+      <c r="D251" t="s">
         <v>113</v>
-      </c>
-      <c r="D251" t="s">
-        <v>114</v>
       </c>
       <c r="E251">
         <v>19</v>
@@ -15064,13 +15131,13 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C252" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D252" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E252">
         <v>20</v>
@@ -15120,13 +15187,13 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C253" t="s">
+        <v>192</v>
+      </c>
+      <c r="D253" t="s">
         <v>113</v>
-      </c>
-      <c r="D253" t="s">
-        <v>114</v>
       </c>
       <c r="E253">
         <v>17</v>
@@ -15176,13 +15243,13 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>130</v>
+      </c>
+      <c r="C254" t="s">
+        <v>192</v>
+      </c>
+      <c r="D254" t="s">
         <v>131</v>
-      </c>
-      <c r="C254" t="s">
-        <v>113</v>
-      </c>
-      <c r="D254" t="s">
-        <v>132</v>
       </c>
       <c r="E254">
         <v>18</v>
@@ -15400,10 +15467,10 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C258" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D258">
         <v>2022</v>
@@ -15456,10 +15523,10 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C259" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D259">
         <v>2023</v>
@@ -15512,10 +15579,10 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C260" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D260">
         <v>2024</v>
@@ -16128,10 +16195,10 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C271" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D271">
         <v>2022</v>
@@ -16184,10 +16251,10 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C272" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D272">
         <v>2023</v>
@@ -16240,10 +16307,10 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C273" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D273">
         <v>2024</v>
@@ -16632,13 +16699,13 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C280" t="s">
+        <v>192</v>
+      </c>
+      <c r="D280" t="s">
         <v>113</v>
-      </c>
-      <c r="D280" t="s">
-        <v>114</v>
       </c>
       <c r="E280">
         <v>17</v>
@@ -16688,13 +16755,13 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C281" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D281" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E281">
         <v>17</v>
@@ -16800,10 +16867,10 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C283" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D283">
         <v>2022</v>
@@ -16856,10 +16923,10 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C284" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D284">
         <v>2023</v>
@@ -16912,10 +16979,10 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C285" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D285">
         <v>2024</v>
@@ -16968,10 +17035,10 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C286" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D286">
         <v>2022</v>
@@ -17024,10 +17091,10 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C287" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D287">
         <v>2023</v>
@@ -17080,10 +17147,10 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C288" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D288">
         <v>2024</v>
@@ -17136,10 +17203,10 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C289" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D289">
         <v>2023</v>
@@ -17192,10 +17259,10 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C290" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D290">
         <v>2024</v>
@@ -17696,13 +17763,13 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C299" t="s">
+        <v>192</v>
+      </c>
+      <c r="D299" t="s">
         <v>113</v>
-      </c>
-      <c r="D299" t="s">
-        <v>114</v>
       </c>
       <c r="E299">
         <v>19</v>
@@ -17752,13 +17819,13 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C300" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D300" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E300">
         <v>19</v>
@@ -17808,16 +17875,16 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B301" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C301" t="s">
+        <v>192</v>
+      </c>
+      <c r="D301" t="s">
         <v>113</v>
-      </c>
-      <c r="D301" t="s">
-        <v>114</v>
       </c>
       <c r="E301">
         <v>21</v>
@@ -17867,13 +17934,13 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C302" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D302" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E302">
         <v>17</v>
@@ -17923,13 +17990,13 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C303" t="s">
+        <v>192</v>
+      </c>
+      <c r="D303" t="s">
         <v>113</v>
-      </c>
-      <c r="D303" t="s">
-        <v>114</v>
       </c>
       <c r="E303">
         <v>19</v>
@@ -17979,13 +18046,13 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C304" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D304" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E304">
         <v>19</v>
@@ -18035,10 +18102,10 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C305" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D305">
         <v>2022</v>
@@ -18091,10 +18158,10 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C306" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D306">
         <v>2023</v>
@@ -18147,10 +18214,10 @@
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C307" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D307">
         <v>2024</v>
@@ -18539,10 +18606,10 @@
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C314" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D314">
         <v>2022</v>
@@ -18595,10 +18662,10 @@
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C315" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D315">
         <v>2023</v>
@@ -18651,10 +18718,10 @@
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C316" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D316">
         <v>2024</v>
@@ -18927,6 +18994,1910 @@
       </c>
       <c r="S320">
         <v>1.83</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>172</v>
+      </c>
+      <c r="C321" t="s">
+        <v>190</v>
+      </c>
+      <c r="D321" t="s">
+        <v>191</v>
+      </c>
+      <c r="E321">
+        <v>40</v>
+      </c>
+      <c r="F321">
+        <v>1.52</v>
+      </c>
+      <c r="G321">
+        <v>1.06</v>
+      </c>
+      <c r="H321">
+        <v>13.13</v>
+      </c>
+      <c r="I321">
+        <v>11.85</v>
+      </c>
+      <c r="J321">
+        <v>20</v>
+      </c>
+      <c r="K321">
+        <v>0.89</v>
+      </c>
+      <c r="L321">
+        <v>47.52</v>
+      </c>
+      <c r="M321">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="N321">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="O321">
+        <v>44.79</v>
+      </c>
+      <c r="P321">
+        <v>47</v>
+      </c>
+      <c r="Q321">
+        <v>68</v>
+      </c>
+      <c r="R321">
+        <v>53</v>
+      </c>
+      <c r="S321">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>173</v>
+      </c>
+      <c r="C322" t="s">
+        <v>190</v>
+      </c>
+      <c r="D322" t="s">
+        <v>191</v>
+      </c>
+      <c r="E322">
+        <v>40</v>
+      </c>
+      <c r="F322">
+        <v>1.52</v>
+      </c>
+      <c r="G322">
+        <v>0.83</v>
+      </c>
+      <c r="H322">
+        <v>13.9</v>
+      </c>
+      <c r="I322">
+        <v>9.32</v>
+      </c>
+      <c r="J322">
+        <v>23</v>
+      </c>
+      <c r="K322">
+        <v>0.88</v>
+      </c>
+      <c r="L322">
+        <v>45.85</v>
+      </c>
+      <c r="M322">
+        <v>35.92</v>
+      </c>
+      <c r="N322">
+        <v>7.96</v>
+      </c>
+      <c r="O322">
+        <v>45.35</v>
+      </c>
+      <c r="P322">
+        <v>49</v>
+      </c>
+      <c r="Q322">
+        <v>68</v>
+      </c>
+      <c r="R322">
+        <v>56</v>
+      </c>
+      <c r="S322">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>174</v>
+      </c>
+      <c r="C323" t="s">
+        <v>190</v>
+      </c>
+      <c r="D323" t="s">
+        <v>191</v>
+      </c>
+      <c r="E323">
+        <v>40</v>
+      </c>
+      <c r="F323">
+        <v>1.29</v>
+      </c>
+      <c r="G323">
+        <v>0.76</v>
+      </c>
+      <c r="H323">
+        <v>13</v>
+      </c>
+      <c r="I323">
+        <v>9.32</v>
+      </c>
+      <c r="J323">
+        <v>20</v>
+      </c>
+      <c r="K323">
+        <v>0.87</v>
+      </c>
+      <c r="L323">
+        <v>41</v>
+      </c>
+      <c r="M323">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="N323">
+        <v>7.49</v>
+      </c>
+      <c r="O323">
+        <v>45.14</v>
+      </c>
+      <c r="P323">
+        <v>49</v>
+      </c>
+      <c r="Q323">
+        <v>70</v>
+      </c>
+      <c r="R323">
+        <v>55</v>
+      </c>
+      <c r="S323">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>175</v>
+      </c>
+      <c r="C324" t="s">
+        <v>190</v>
+      </c>
+      <c r="D324" t="s">
+        <v>191</v>
+      </c>
+      <c r="E324">
+        <v>40</v>
+      </c>
+      <c r="F324">
+        <v>1.28</v>
+      </c>
+      <c r="G324">
+        <v>0.85</v>
+      </c>
+      <c r="H324">
+        <v>13.28</v>
+      </c>
+      <c r="I324">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J324">
+        <v>23</v>
+      </c>
+      <c r="K324">
+        <v>0.86</v>
+      </c>
+      <c r="L324">
+        <v>44.02</v>
+      </c>
+      <c r="M324">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="N324">
+        <v>9.39</v>
+      </c>
+      <c r="O324">
+        <v>43.98</v>
+      </c>
+      <c r="P324">
+        <v>44</v>
+      </c>
+      <c r="Q324">
+        <v>71</v>
+      </c>
+      <c r="R324">
+        <v>51</v>
+      </c>
+      <c r="S324">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>176</v>
+      </c>
+      <c r="C325" t="s">
+        <v>190</v>
+      </c>
+      <c r="D325" t="s">
+        <v>191</v>
+      </c>
+      <c r="E325">
+        <v>40</v>
+      </c>
+      <c r="F325">
+        <v>1.45</v>
+      </c>
+      <c r="G325">
+        <v>1.02</v>
+      </c>
+      <c r="H325">
+        <v>14.63</v>
+      </c>
+      <c r="I325">
+        <v>10.68</v>
+      </c>
+      <c r="J325">
+        <v>23</v>
+      </c>
+      <c r="K325">
+        <v>0.88</v>
+      </c>
+      <c r="L325">
+        <v>47.17</v>
+      </c>
+      <c r="M325">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="N325">
+        <v>8.58</v>
+      </c>
+      <c r="O325">
+        <v>45.87</v>
+      </c>
+      <c r="P325">
+        <v>50</v>
+      </c>
+      <c r="Q325">
+        <v>70</v>
+      </c>
+      <c r="R325">
+        <v>58</v>
+      </c>
+      <c r="S325">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>177</v>
+      </c>
+      <c r="C326" t="s">
+        <v>190</v>
+      </c>
+      <c r="D326" t="s">
+        <v>191</v>
+      </c>
+      <c r="E326">
+        <v>34</v>
+      </c>
+      <c r="F326">
+        <v>1.22</v>
+      </c>
+      <c r="G326">
+        <v>1.19</v>
+      </c>
+      <c r="H326">
+        <v>12.47</v>
+      </c>
+      <c r="I326">
+        <v>14.09</v>
+      </c>
+      <c r="J326">
+        <v>18</v>
+      </c>
+      <c r="K326">
+        <v>0.85</v>
+      </c>
+      <c r="L326">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="M326">
+        <v>48.29</v>
+      </c>
+      <c r="N326">
+        <v>9.48</v>
+      </c>
+      <c r="O326">
+        <v>41.07</v>
+      </c>
+      <c r="P326">
+        <v>40</v>
+      </c>
+      <c r="Q326">
+        <v>66</v>
+      </c>
+      <c r="R326">
+        <v>51</v>
+      </c>
+      <c r="S326">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>178</v>
+      </c>
+      <c r="C327" t="s">
+        <v>190</v>
+      </c>
+      <c r="D327" t="s">
+        <v>191</v>
+      </c>
+      <c r="E327">
+        <v>40</v>
+      </c>
+      <c r="F327">
+        <v>1.38</v>
+      </c>
+      <c r="G327">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H327">
+        <v>13.55</v>
+      </c>
+      <c r="I327">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="J327">
+        <v>21</v>
+      </c>
+      <c r="K327">
+        <v>0.87</v>
+      </c>
+      <c r="L327">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="M327">
+        <v>31.05</v>
+      </c>
+      <c r="N327">
+        <v>6.43</v>
+      </c>
+      <c r="O327">
+        <v>49.05</v>
+      </c>
+      <c r="P327">
+        <v>59</v>
+      </c>
+      <c r="Q327">
+        <v>79</v>
+      </c>
+      <c r="R327">
+        <v>44</v>
+      </c>
+      <c r="S327">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>179</v>
+      </c>
+      <c r="C328" t="s">
+        <v>190</v>
+      </c>
+      <c r="D328" t="s">
+        <v>191</v>
+      </c>
+      <c r="E328">
+        <v>34</v>
+      </c>
+      <c r="F328">
+        <v>1.19</v>
+      </c>
+      <c r="G328">
+        <v>1.23</v>
+      </c>
+      <c r="H328">
+        <v>12.38</v>
+      </c>
+      <c r="I328">
+        <v>11.47</v>
+      </c>
+      <c r="J328">
+        <v>18</v>
+      </c>
+      <c r="K328">
+        <v>0.89</v>
+      </c>
+      <c r="L328">
+        <v>44.88</v>
+      </c>
+      <c r="M328">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="N328">
+        <v>8.93</v>
+      </c>
+      <c r="O328">
+        <v>44.5</v>
+      </c>
+      <c r="P328">
+        <v>48</v>
+      </c>
+      <c r="Q328">
+        <v>70</v>
+      </c>
+      <c r="R328">
+        <v>54</v>
+      </c>
+      <c r="S328">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>180</v>
+      </c>
+      <c r="C329" t="s">
+        <v>190</v>
+      </c>
+      <c r="D329" t="s">
+        <v>191</v>
+      </c>
+      <c r="E329">
+        <v>40</v>
+      </c>
+      <c r="F329">
+        <v>1.24</v>
+      </c>
+      <c r="G329">
+        <v>1.3</v>
+      </c>
+      <c r="H329">
+        <v>11.38</v>
+      </c>
+      <c r="I329">
+        <v>13.68</v>
+      </c>
+      <c r="J329">
+        <v>29</v>
+      </c>
+      <c r="K329">
+        <v>0.89</v>
+      </c>
+      <c r="L329">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="M329">
+        <v>47.52</v>
+      </c>
+      <c r="N329">
+        <v>11.56</v>
+      </c>
+      <c r="O329">
+        <v>40.35</v>
+      </c>
+      <c r="P329">
+        <v>41</v>
+      </c>
+      <c r="Q329">
+        <v>61</v>
+      </c>
+      <c r="R329">
+        <v>50</v>
+      </c>
+      <c r="S329">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>181</v>
+      </c>
+      <c r="C330" t="s">
+        <v>190</v>
+      </c>
+      <c r="D330" t="s">
+        <v>191</v>
+      </c>
+      <c r="E330">
+        <v>40</v>
+      </c>
+      <c r="F330">
+        <v>1.25</v>
+      </c>
+      <c r="G330">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H330">
+        <v>11.28</v>
+      </c>
+      <c r="I330">
+        <v>12.2</v>
+      </c>
+      <c r="J330">
+        <v>25</v>
+      </c>
+      <c r="K330">
+        <v>0.88</v>
+      </c>
+      <c r="L330">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="M330">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="N330">
+        <v>10.09</v>
+      </c>
+      <c r="O330">
+        <v>42.06</v>
+      </c>
+      <c r="P330">
+        <v>43</v>
+      </c>
+      <c r="Q330">
+        <v>61</v>
+      </c>
+      <c r="R330">
+        <v>51</v>
+      </c>
+      <c r="S330">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>182</v>
+      </c>
+      <c r="C331" t="s">
+        <v>190</v>
+      </c>
+      <c r="D331" t="s">
+        <v>191</v>
+      </c>
+      <c r="E331">
+        <v>33</v>
+      </c>
+      <c r="F331">
+        <v>1.17</v>
+      </c>
+      <c r="G331">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H331">
+        <v>11.91</v>
+      </c>
+      <c r="I331">
+        <v>11.73</v>
+      </c>
+      <c r="J331">
+        <v>26</v>
+      </c>
+      <c r="K331">
+        <v>0.88</v>
+      </c>
+      <c r="L331">
+        <v>47.06</v>
+      </c>
+      <c r="M331">
+        <v>42.58</v>
+      </c>
+      <c r="N331">
+        <v>10.76</v>
+      </c>
+      <c r="O331">
+        <v>41.35</v>
+      </c>
+      <c r="P331">
+        <v>44</v>
+      </c>
+      <c r="Q331">
+        <v>67</v>
+      </c>
+      <c r="R331">
+        <v>52</v>
+      </c>
+      <c r="S331">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>183</v>
+      </c>
+      <c r="C332" t="s">
+        <v>190</v>
+      </c>
+      <c r="D332" t="s">
+        <v>191</v>
+      </c>
+      <c r="E332">
+        <v>34</v>
+      </c>
+      <c r="F332">
+        <v>0.91</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>10.62</v>
+      </c>
+      <c r="I332">
+        <v>10.53</v>
+      </c>
+      <c r="J332">
+        <v>24</v>
+      </c>
+      <c r="K332">
+        <v>0.84</v>
+      </c>
+      <c r="L332">
+        <v>37.71</v>
+      </c>
+      <c r="M332">
+        <v>41.09</v>
+      </c>
+      <c r="N332">
+        <v>11.3</v>
+      </c>
+      <c r="O332">
+        <v>42.77</v>
+      </c>
+      <c r="P332">
+        <v>44</v>
+      </c>
+      <c r="Q332">
+        <v>72</v>
+      </c>
+      <c r="R332">
+        <v>44</v>
+      </c>
+      <c r="S332">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>184</v>
+      </c>
+      <c r="C333" t="s">
+        <v>190</v>
+      </c>
+      <c r="D333" t="s">
+        <v>191</v>
+      </c>
+      <c r="E333">
+        <v>33</v>
+      </c>
+      <c r="F333">
+        <v>0.94</v>
+      </c>
+      <c r="G333">
+        <v>1.33</v>
+      </c>
+      <c r="H333">
+        <v>11.48</v>
+      </c>
+      <c r="I333">
+        <v>13.03</v>
+      </c>
+      <c r="J333">
+        <v>24</v>
+      </c>
+      <c r="K333">
+        <v>0.88</v>
+      </c>
+      <c r="L333">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M333">
+        <v>43.48</v>
+      </c>
+      <c r="N333">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="O333">
+        <v>42.74</v>
+      </c>
+      <c r="P333">
+        <v>42</v>
+      </c>
+      <c r="Q333">
+        <v>65</v>
+      </c>
+      <c r="R333">
+        <v>52</v>
+      </c>
+      <c r="S333">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>185</v>
+      </c>
+      <c r="C334" t="s">
+        <v>190</v>
+      </c>
+      <c r="D334" t="s">
+        <v>191</v>
+      </c>
+      <c r="E334">
+        <v>34</v>
+      </c>
+      <c r="F334">
+        <v>1.01</v>
+      </c>
+      <c r="G334">
+        <v>1.55</v>
+      </c>
+      <c r="H334">
+        <v>11.12</v>
+      </c>
+      <c r="I334">
+        <v>15.94</v>
+      </c>
+      <c r="J334">
+        <v>28</v>
+      </c>
+      <c r="K334">
+        <v>0.87</v>
+      </c>
+      <c r="L334">
+        <v>35.97</v>
+      </c>
+      <c r="M334">
+        <v>44.12</v>
+      </c>
+      <c r="N334">
+        <v>8.73</v>
+      </c>
+      <c r="O334">
+        <v>41.37</v>
+      </c>
+      <c r="P334">
+        <v>40</v>
+      </c>
+      <c r="Q334">
+        <v>62</v>
+      </c>
+      <c r="R334">
+        <v>49</v>
+      </c>
+      <c r="S334">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>186</v>
+      </c>
+      <c r="C335" t="s">
+        <v>190</v>
+      </c>
+      <c r="D335" t="s">
+        <v>191</v>
+      </c>
+      <c r="E335">
+        <v>34</v>
+      </c>
+      <c r="F335">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G335">
+        <v>1.59</v>
+      </c>
+      <c r="H335">
+        <v>10.68</v>
+      </c>
+      <c r="I335">
+        <v>13.68</v>
+      </c>
+      <c r="J335">
+        <v>27</v>
+      </c>
+      <c r="K335">
+        <v>0.84</v>
+      </c>
+      <c r="L335">
+        <v>37.03</v>
+      </c>
+      <c r="M335">
+        <v>44.32</v>
+      </c>
+      <c r="N335">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O335">
+        <v>42.26</v>
+      </c>
+      <c r="P335">
+        <v>45</v>
+      </c>
+      <c r="Q335">
+        <v>70</v>
+      </c>
+      <c r="R335">
+        <v>47</v>
+      </c>
+      <c r="S335">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>187</v>
+      </c>
+      <c r="C336" t="s">
+        <v>190</v>
+      </c>
+      <c r="D336" t="s">
+        <v>191</v>
+      </c>
+      <c r="E336">
+        <v>34</v>
+      </c>
+      <c r="F336">
+        <v>0.93</v>
+      </c>
+      <c r="G336">
+        <v>1.54</v>
+      </c>
+      <c r="H336">
+        <v>11.03</v>
+      </c>
+      <c r="I336">
+        <v>15.15</v>
+      </c>
+      <c r="J336">
+        <v>22</v>
+      </c>
+      <c r="K336">
+        <v>0.84</v>
+      </c>
+      <c r="L336">
+        <v>36.76</v>
+      </c>
+      <c r="M336">
+        <v>44.03</v>
+      </c>
+      <c r="N336">
+        <v>9.73</v>
+      </c>
+      <c r="O336">
+        <v>42.3</v>
+      </c>
+      <c r="P336">
+        <v>42</v>
+      </c>
+      <c r="Q336">
+        <v>68</v>
+      </c>
+      <c r="R336">
+        <v>47</v>
+      </c>
+      <c r="S336">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>188</v>
+      </c>
+      <c r="C337" t="s">
+        <v>190</v>
+      </c>
+      <c r="D337" t="s">
+        <v>191</v>
+      </c>
+      <c r="E337">
+        <v>34</v>
+      </c>
+      <c r="F337">
+        <v>1.08</v>
+      </c>
+      <c r="G337">
+        <v>1.49</v>
+      </c>
+      <c r="H337">
+        <v>12.12</v>
+      </c>
+      <c r="I337">
+        <v>13.26</v>
+      </c>
+      <c r="J337">
+        <v>26</v>
+      </c>
+      <c r="K337">
+        <v>0.85</v>
+      </c>
+      <c r="L337">
+        <v>38.44</v>
+      </c>
+      <c r="M337">
+        <v>42.82</v>
+      </c>
+      <c r="N337">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O337">
+        <v>44.06</v>
+      </c>
+      <c r="P337">
+        <v>49</v>
+      </c>
+      <c r="Q337">
+        <v>75</v>
+      </c>
+      <c r="R337">
+        <v>44</v>
+      </c>
+      <c r="S337">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>189</v>
+      </c>
+      <c r="C338" t="s">
+        <v>190</v>
+      </c>
+      <c r="D338" t="s">
+        <v>191</v>
+      </c>
+      <c r="E338">
+        <v>34</v>
+      </c>
+      <c r="F338">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G338">
+        <v>1.44</v>
+      </c>
+      <c r="H338">
+        <v>7.71</v>
+      </c>
+      <c r="I338">
+        <v>14.41</v>
+      </c>
+      <c r="J338">
+        <v>27</v>
+      </c>
+      <c r="K338">
+        <v>0.89</v>
+      </c>
+      <c r="L338">
+        <v>31.09</v>
+      </c>
+      <c r="M338">
+        <v>46.29</v>
+      </c>
+      <c r="N338">
+        <v>13.48</v>
+      </c>
+      <c r="O338">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="P338">
+        <v>37</v>
+      </c>
+      <c r="Q338">
+        <v>62</v>
+      </c>
+      <c r="R338">
+        <v>41</v>
+      </c>
+      <c r="S338">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>176</v>
+      </c>
+      <c r="C339" t="s">
+        <v>190</v>
+      </c>
+      <c r="D339" t="s">
+        <v>194</v>
+      </c>
+      <c r="E339">
+        <v>40</v>
+      </c>
+      <c r="F339">
+        <v>1.6</v>
+      </c>
+      <c r="G339">
+        <v>0.82</v>
+      </c>
+      <c r="H339">
+        <v>15.72</v>
+      </c>
+      <c r="I339">
+        <v>10.47</v>
+      </c>
+      <c r="J339">
+        <v>21</v>
+      </c>
+      <c r="K339">
+        <v>0.87</v>
+      </c>
+      <c r="L339">
+        <v>46.1</v>
+      </c>
+      <c r="M339">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="N339">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="O339">
+        <v>46.45</v>
+      </c>
+      <c r="P339">
+        <v>51</v>
+      </c>
+      <c r="Q339">
+        <v>68</v>
+      </c>
+      <c r="R339">
+        <v>56</v>
+      </c>
+      <c r="S339">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>175</v>
+      </c>
+      <c r="C340" t="s">
+        <v>190</v>
+      </c>
+      <c r="D340" t="s">
+        <v>194</v>
+      </c>
+      <c r="E340">
+        <v>40</v>
+      </c>
+      <c r="F340">
+        <v>1.5</v>
+      </c>
+      <c r="G340">
+        <v>0.85</v>
+      </c>
+      <c r="H340">
+        <v>15.88</v>
+      </c>
+      <c r="I340">
+        <v>8.65</v>
+      </c>
+      <c r="J340">
+        <v>19</v>
+      </c>
+      <c r="K340">
+        <v>0.88</v>
+      </c>
+      <c r="L340">
+        <v>46.85</v>
+      </c>
+      <c r="M340">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="N340">
+        <v>8.52</v>
+      </c>
+      <c r="O340">
+        <v>45.93</v>
+      </c>
+      <c r="P340">
+        <v>49</v>
+      </c>
+      <c r="Q340">
+        <v>75</v>
+      </c>
+      <c r="R340">
+        <v>49</v>
+      </c>
+      <c r="S340">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" t="s">
+        <v>190</v>
+      </c>
+      <c r="D341" t="s">
+        <v>194</v>
+      </c>
+      <c r="E341">
+        <v>41</v>
+      </c>
+      <c r="F341">
+        <v>1.51</v>
+      </c>
+      <c r="G341">
+        <v>1.05</v>
+      </c>
+      <c r="H341">
+        <v>14.59</v>
+      </c>
+      <c r="I341">
+        <v>11.78</v>
+      </c>
+      <c r="J341">
+        <v>23</v>
+      </c>
+      <c r="K341">
+        <v>0.86</v>
+      </c>
+      <c r="L341">
+        <v>49.22</v>
+      </c>
+      <c r="M341">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="N341">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="O341">
+        <v>45.59</v>
+      </c>
+      <c r="P341">
+        <v>50</v>
+      </c>
+      <c r="Q341">
+        <v>72</v>
+      </c>
+      <c r="R341">
+        <v>54</v>
+      </c>
+      <c r="S341">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>179</v>
+      </c>
+      <c r="C342" t="s">
+        <v>190</v>
+      </c>
+      <c r="D342" t="s">
+        <v>194</v>
+      </c>
+      <c r="E342">
+        <v>40</v>
+      </c>
+      <c r="F342">
+        <v>1.31</v>
+      </c>
+      <c r="G342">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H342">
+        <v>13.13</v>
+      </c>
+      <c r="I342">
+        <v>14.03</v>
+      </c>
+      <c r="J342">
+        <v>22</v>
+      </c>
+      <c r="K342">
+        <v>0.88</v>
+      </c>
+      <c r="L342">
+        <v>42.42</v>
+      </c>
+      <c r="M342">
+        <v>47.83</v>
+      </c>
+      <c r="N342">
+        <v>9.66</v>
+      </c>
+      <c r="O342">
+        <v>44.23</v>
+      </c>
+      <c r="P342">
+        <v>45</v>
+      </c>
+      <c r="Q342">
+        <v>69</v>
+      </c>
+      <c r="R342">
+        <v>52</v>
+      </c>
+      <c r="S342">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>174</v>
+      </c>
+      <c r="C343" t="s">
+        <v>190</v>
+      </c>
+      <c r="D343" t="s">
+        <v>194</v>
+      </c>
+      <c r="E343">
+        <v>40</v>
+      </c>
+      <c r="F343">
+        <v>1.29</v>
+      </c>
+      <c r="G343">
+        <v>0.97</v>
+      </c>
+      <c r="H343">
+        <v>12.95</v>
+      </c>
+      <c r="I343">
+        <v>10.97</v>
+      </c>
+      <c r="J343">
+        <v>20</v>
+      </c>
+      <c r="K343">
+        <v>0.86</v>
+      </c>
+      <c r="L343">
+        <v>48.45</v>
+      </c>
+      <c r="M343">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="N343">
+        <v>9.24</v>
+      </c>
+      <c r="O343">
+        <v>44.65</v>
+      </c>
+      <c r="P343">
+        <v>49</v>
+      </c>
+      <c r="Q343">
+        <v>69</v>
+      </c>
+      <c r="R343">
+        <v>58</v>
+      </c>
+      <c r="S343">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>178</v>
+      </c>
+      <c r="C344" t="s">
+        <v>190</v>
+      </c>
+      <c r="D344" t="s">
+        <v>194</v>
+      </c>
+      <c r="E344">
+        <v>40</v>
+      </c>
+      <c r="F344">
+        <v>1.51</v>
+      </c>
+      <c r="G344">
+        <v>1.29</v>
+      </c>
+      <c r="H344">
+        <v>15</v>
+      </c>
+      <c r="I344">
+        <v>11.38</v>
+      </c>
+      <c r="J344">
+        <v>14</v>
+      </c>
+      <c r="K344">
+        <v>0.84</v>
+      </c>
+      <c r="L344">
+        <v>41.95</v>
+      </c>
+      <c r="M344">
+        <v>33.1</v>
+      </c>
+      <c r="N344">
+        <v>7.03</v>
+      </c>
+      <c r="O344">
+        <v>47.3</v>
+      </c>
+      <c r="P344">
+        <v>59</v>
+      </c>
+      <c r="Q344">
+        <v>82</v>
+      </c>
+      <c r="R344">
+        <v>45</v>
+      </c>
+      <c r="S344">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>172</v>
+      </c>
+      <c r="C345" t="s">
+        <v>190</v>
+      </c>
+      <c r="D345" t="s">
+        <v>194</v>
+      </c>
+      <c r="E345">
+        <v>41</v>
+      </c>
+      <c r="F345">
+        <v>1.59</v>
+      </c>
+      <c r="G345">
+        <v>1.06</v>
+      </c>
+      <c r="H345">
+        <v>15.66</v>
+      </c>
+      <c r="I345">
+        <v>12</v>
+      </c>
+      <c r="J345">
+        <v>22</v>
+      </c>
+      <c r="K345">
+        <v>0.86</v>
+      </c>
+      <c r="L345">
+        <v>47.61</v>
+      </c>
+      <c r="M345">
+        <v>37.32</v>
+      </c>
+      <c r="N345">
+        <v>8.76</v>
+      </c>
+      <c r="O345">
+        <v>45.67</v>
+      </c>
+      <c r="P345">
+        <v>51</v>
+      </c>
+      <c r="Q345">
+        <v>71</v>
+      </c>
+      <c r="R345">
+        <v>53</v>
+      </c>
+      <c r="S345">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>184</v>
+      </c>
+      <c r="C346" t="s">
+        <v>190</v>
+      </c>
+      <c r="D346" t="s">
+        <v>194</v>
+      </c>
+      <c r="E346">
+        <v>40</v>
+      </c>
+      <c r="F346">
+        <v>1.27</v>
+      </c>
+      <c r="G346">
+        <v>1.22</v>
+      </c>
+      <c r="H346">
+        <v>13.03</v>
+      </c>
+      <c r="I346">
+        <v>15</v>
+      </c>
+      <c r="J346">
+        <v>27</v>
+      </c>
+      <c r="K346">
+        <v>0.89</v>
+      </c>
+      <c r="L346">
+        <v>44.6</v>
+      </c>
+      <c r="M346">
+        <v>44.45</v>
+      </c>
+      <c r="N346">
+        <v>13.25</v>
+      </c>
+      <c r="O346">
+        <v>41.82</v>
+      </c>
+      <c r="P346">
+        <v>41</v>
+      </c>
+      <c r="Q346">
+        <v>64</v>
+      </c>
+      <c r="R346">
+        <v>51</v>
+      </c>
+      <c r="S346">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>183</v>
+      </c>
+      <c r="C347" t="s">
+        <v>190</v>
+      </c>
+      <c r="D347" t="s">
+        <v>194</v>
+      </c>
+      <c r="E347">
+        <v>40</v>
+      </c>
+      <c r="F347">
+        <v>1.07</v>
+      </c>
+      <c r="G347">
+        <v>1.32</v>
+      </c>
+      <c r="H347">
+        <v>12.93</v>
+      </c>
+      <c r="I347">
+        <v>12.6</v>
+      </c>
+      <c r="J347">
+        <v>24</v>
+      </c>
+      <c r="K347">
+        <v>0.87</v>
+      </c>
+      <c r="L347">
+        <v>46.38</v>
+      </c>
+      <c r="M347">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="N347">
+        <v>11.22</v>
+      </c>
+      <c r="O347">
+        <v>44.61</v>
+      </c>
+      <c r="P347">
+        <v>49</v>
+      </c>
+      <c r="Q347">
+        <v>64</v>
+      </c>
+      <c r="R347">
+        <v>57</v>
+      </c>
+      <c r="S347">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" t="s">
+        <v>190</v>
+      </c>
+      <c r="D348" t="s">
+        <v>194</v>
+      </c>
+      <c r="E348">
+        <v>40</v>
+      </c>
+      <c r="F348">
+        <v>0.99</v>
+      </c>
+      <c r="G348">
+        <v>1.23</v>
+      </c>
+      <c r="H348">
+        <v>11.85</v>
+      </c>
+      <c r="I348">
+        <v>13.9</v>
+      </c>
+      <c r="J348">
+        <v>25</v>
+      </c>
+      <c r="K348">
+        <v>0.88</v>
+      </c>
+      <c r="L348">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="M348">
+        <v>53.33</v>
+      </c>
+      <c r="N348">
+        <v>12.11</v>
+      </c>
+      <c r="O348">
+        <v>42.44</v>
+      </c>
+      <c r="P348">
+        <v>42</v>
+      </c>
+      <c r="Q348">
+        <v>70</v>
+      </c>
+      <c r="R348">
+        <v>44</v>
+      </c>
+      <c r="S348">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>182</v>
+      </c>
+      <c r="C349" t="s">
+        <v>190</v>
+      </c>
+      <c r="D349" t="s">
+        <v>194</v>
+      </c>
+      <c r="E349">
+        <v>36</v>
+      </c>
+      <c r="F349">
+        <v>1.01</v>
+      </c>
+      <c r="G349">
+        <v>1.22</v>
+      </c>
+      <c r="H349">
+        <v>11.25</v>
+      </c>
+      <c r="I349">
+        <v>13.14</v>
+      </c>
+      <c r="J349">
+        <v>23</v>
+      </c>
+      <c r="K349">
+        <v>0.86</v>
+      </c>
+      <c r="L349">
+        <v>42</v>
+      </c>
+      <c r="M349">
+        <v>44.11</v>
+      </c>
+      <c r="N349">
+        <v>10.68</v>
+      </c>
+      <c r="O349">
+        <v>42.85</v>
+      </c>
+      <c r="P349">
+        <v>45</v>
+      </c>
+      <c r="Q349">
+        <v>69</v>
+      </c>
+      <c r="R349">
+        <v>49</v>
+      </c>
+      <c r="S349">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>181</v>
+      </c>
+      <c r="C350" t="s">
+        <v>190</v>
+      </c>
+      <c r="D350" t="s">
+        <v>194</v>
+      </c>
+      <c r="E350">
+        <v>39</v>
+      </c>
+      <c r="F350">
+        <v>1.01</v>
+      </c>
+      <c r="G350">
+        <v>1.26</v>
+      </c>
+      <c r="H350">
+        <v>11.9</v>
+      </c>
+      <c r="I350">
+        <v>13.26</v>
+      </c>
+      <c r="J350">
+        <v>29</v>
+      </c>
+      <c r="K350">
+        <v>0.87</v>
+      </c>
+      <c r="L350">
+        <v>40.18</v>
+      </c>
+      <c r="M350">
+        <v>42.46</v>
+      </c>
+      <c r="N350">
+        <v>10.99</v>
+      </c>
+      <c r="O350">
+        <v>43.82</v>
+      </c>
+      <c r="P350">
+        <v>46</v>
+      </c>
+      <c r="Q350">
+        <v>68</v>
+      </c>
+      <c r="R350">
+        <v>50</v>
+      </c>
+      <c r="S350">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>180</v>
+      </c>
+      <c r="C351" t="s">
+        <v>190</v>
+      </c>
+      <c r="D351" t="s">
+        <v>194</v>
+      </c>
+      <c r="E351">
+        <v>39</v>
+      </c>
+      <c r="F351">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G351">
+        <v>1.56</v>
+      </c>
+      <c r="H351">
+        <v>12.69</v>
+      </c>
+      <c r="I351">
+        <v>15.05</v>
+      </c>
+      <c r="J351">
+        <v>28</v>
+      </c>
+      <c r="K351">
+        <v>0.89</v>
+      </c>
+      <c r="L351">
+        <v>38.9</v>
+      </c>
+      <c r="M351">
+        <v>45.54</v>
+      </c>
+      <c r="N351">
+        <v>11.86</v>
+      </c>
+      <c r="O351">
+        <v>42.88</v>
+      </c>
+      <c r="P351">
+        <v>45</v>
+      </c>
+      <c r="Q351">
+        <v>63</v>
+      </c>
+      <c r="R351">
+        <v>47</v>
+      </c>
+      <c r="S351">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>193</v>
+      </c>
+      <c r="C352" t="s">
+        <v>190</v>
+      </c>
+      <c r="D352" t="s">
+        <v>194</v>
+      </c>
+      <c r="E352">
+        <v>36</v>
+      </c>
+      <c r="F352">
+        <v>0.98</v>
+      </c>
+      <c r="G352">
+        <v>1.51</v>
+      </c>
+      <c r="H352">
+        <v>10.06</v>
+      </c>
+      <c r="I352">
+        <v>14.58</v>
+      </c>
+      <c r="J352">
+        <v>18</v>
+      </c>
+      <c r="K352">
+        <v>0.87</v>
+      </c>
+      <c r="L352">
+        <v>34.03</v>
+      </c>
+      <c r="M352">
+        <v>48.19</v>
+      </c>
+      <c r="N352">
+        <v>12.01</v>
+      </c>
+      <c r="O352">
+        <v>40.75</v>
+      </c>
+      <c r="P352">
+        <v>40</v>
+      </c>
+      <c r="Q352">
+        <v>64</v>
+      </c>
+      <c r="R352">
+        <v>45</v>
+      </c>
+      <c r="S352">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>187</v>
+      </c>
+      <c r="C353" t="s">
+        <v>190</v>
+      </c>
+      <c r="D353" t="s">
+        <v>194</v>
+      </c>
+      <c r="E353">
+        <v>36</v>
+      </c>
+      <c r="F353">
+        <v>0.83</v>
+      </c>
+      <c r="G353">
+        <v>1.58</v>
+      </c>
+      <c r="H353">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="I353">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="J353">
+        <v>25</v>
+      </c>
+      <c r="K353">
+        <v>0.86</v>
+      </c>
+      <c r="L353">
+        <v>32.83</v>
+      </c>
+      <c r="M353">
+        <v>47.69</v>
+      </c>
+      <c r="N353">
+        <v>12.07</v>
+      </c>
+      <c r="O353">
+        <v>42.34</v>
+      </c>
+      <c r="P353">
+        <v>40</v>
+      </c>
+      <c r="Q353">
+        <v>64</v>
+      </c>
+      <c r="R353">
+        <v>44</v>
+      </c>
+      <c r="S353">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>185</v>
+      </c>
+      <c r="C354" t="s">
+        <v>190</v>
+      </c>
+      <c r="D354" t="s">
+        <v>194</v>
+      </c>
+      <c r="E354">
+        <v>36</v>
+      </c>
+      <c r="F354">
+        <v>0.83</v>
+      </c>
+      <c r="G354">
+        <v>1.61</v>
+      </c>
+      <c r="H354">
+        <v>10.39</v>
+      </c>
+      <c r="I354">
+        <v>15.39</v>
+      </c>
+      <c r="J354">
+        <v>27</v>
+      </c>
+      <c r="K354">
+        <v>0.88</v>
+      </c>
+      <c r="L354">
+        <v>37.39</v>
+      </c>
+      <c r="M354">
+        <v>49</v>
+      </c>
+      <c r="N354">
+        <v>12.34</v>
+      </c>
+      <c r="O354">
+        <v>41.81</v>
+      </c>
+      <c r="P354">
+        <v>42</v>
+      </c>
+      <c r="Q354">
+        <v>66</v>
+      </c>
+      <c r="R354">
+        <v>44</v>
+      </c>
+      <c r="S354">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
@@ -18937,4 +20908,92 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87BCB13-25A8-4571-B0A2-46DD57E386B9}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C67B9-9393-4735-86E1-140C967D51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA1805A-8F73-4FFD-9186-B71FC8B97433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidado!$A$1:$S$1</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="195">
   <si>
     <t>Liga</t>
   </si>
@@ -20908,92 +20907,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87BCB13-25A8-4571-B0A2-46DD57E386B9}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA1805A-8F73-4FFD-9186-B71FC8B97433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72FEF35-1D8F-4F44-9666-EBE5CD92B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="218">
   <si>
     <t>Liga</t>
   </si>
@@ -625,6 +625,75 @@
   <si>
     <t>2023/2024</t>
   </si>
+  <si>
+    <t>Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OGC Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Stade de Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Stade Brestois</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AC Ajaccio</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
 </sst>
 </file>
 
@@ -995,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S354"/>
+  <dimension ref="A1:S392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340:D354"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="D376" sqref="D376:D392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20899,6 +20968,2134 @@
         <v>1.42</v>
       </c>
     </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>195</v>
+      </c>
+      <c r="C355" t="s">
+        <v>215</v>
+      </c>
+      <c r="D355" t="s">
+        <v>191</v>
+      </c>
+      <c r="E355">
+        <v>38</v>
+      </c>
+      <c r="F355">
+        <v>1.84</v>
+      </c>
+      <c r="G355">
+        <v>1.06</v>
+      </c>
+      <c r="H355">
+        <v>14.87</v>
+      </c>
+      <c r="I355">
+        <v>11.71</v>
+      </c>
+      <c r="J355">
+        <v>11</v>
+      </c>
+      <c r="K355">
+        <v>0.88</v>
+      </c>
+      <c r="L355">
+        <v>62.58</v>
+      </c>
+      <c r="M355">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="N355">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="O355">
+        <v>47.26</v>
+      </c>
+      <c r="P355">
+        <v>50</v>
+      </c>
+      <c r="Q355">
+        <v>75</v>
+      </c>
+      <c r="R355">
+        <v>61</v>
+      </c>
+      <c r="S355">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>196</v>
+      </c>
+      <c r="C356" t="s">
+        <v>215</v>
+      </c>
+      <c r="D356" t="s">
+        <v>191</v>
+      </c>
+      <c r="E356">
+        <v>38</v>
+      </c>
+      <c r="F356">
+        <v>1.51</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>13.74</v>
+      </c>
+      <c r="I356">
+        <v>10.18</v>
+      </c>
+      <c r="J356">
+        <v>26</v>
+      </c>
+      <c r="K356">
+        <v>0.87</v>
+      </c>
+      <c r="L356">
+        <v>51.87</v>
+      </c>
+      <c r="M356">
+        <v>33.79</v>
+      </c>
+      <c r="N356">
+        <v>9.94</v>
+      </c>
+      <c r="O356">
+        <v>46.88</v>
+      </c>
+      <c r="P356">
+        <v>51</v>
+      </c>
+      <c r="Q356">
+        <v>73</v>
+      </c>
+      <c r="R356">
+        <v>56</v>
+      </c>
+      <c r="S356">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>197</v>
+      </c>
+      <c r="C357" t="s">
+        <v>215</v>
+      </c>
+      <c r="D357" t="s">
+        <v>191</v>
+      </c>
+      <c r="E357">
+        <v>38</v>
+      </c>
+      <c r="F357">
+        <v>1.48</v>
+      </c>
+      <c r="G357">
+        <v>0.98</v>
+      </c>
+      <c r="H357">
+        <v>13.87</v>
+      </c>
+      <c r="I357">
+        <v>9.82</v>
+      </c>
+      <c r="J357">
+        <v>19</v>
+      </c>
+      <c r="K357">
+        <v>0.87</v>
+      </c>
+      <c r="L357">
+        <v>50.18</v>
+      </c>
+      <c r="M357">
+        <v>35.39</v>
+      </c>
+      <c r="N357">
+        <v>8.75</v>
+      </c>
+      <c r="O357">
+        <v>47.71</v>
+      </c>
+      <c r="P357">
+        <v>53</v>
+      </c>
+      <c r="Q357">
+        <v>71</v>
+      </c>
+      <c r="R357">
+        <v>56</v>
+      </c>
+      <c r="S357">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>198</v>
+      </c>
+      <c r="C358" t="s">
+        <v>215</v>
+      </c>
+      <c r="D358" t="s">
+        <v>191</v>
+      </c>
+      <c r="E358">
+        <v>38</v>
+      </c>
+      <c r="F358">
+        <v>1.41</v>
+      </c>
+      <c r="G358">
+        <v>0.94</v>
+      </c>
+      <c r="H358">
+        <v>14.47</v>
+      </c>
+      <c r="I358">
+        <v>11.13</v>
+      </c>
+      <c r="J358">
+        <v>22</v>
+      </c>
+      <c r="K358">
+        <v>0.88</v>
+      </c>
+      <c r="L358">
+        <v>51.58</v>
+      </c>
+      <c r="M358">
+        <v>34.92</v>
+      </c>
+      <c r="N358">
+        <v>7.09</v>
+      </c>
+      <c r="O358">
+        <v>47.92</v>
+      </c>
+      <c r="P358">
+        <v>51</v>
+      </c>
+      <c r="Q358">
+        <v>73</v>
+      </c>
+      <c r="R358">
+        <v>57</v>
+      </c>
+      <c r="S358">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>199</v>
+      </c>
+      <c r="C359" t="s">
+        <v>215</v>
+      </c>
+      <c r="D359" t="s">
+        <v>191</v>
+      </c>
+      <c r="E359">
+        <v>38</v>
+      </c>
+      <c r="F359">
+        <v>1.55</v>
+      </c>
+      <c r="G359">
+        <v>0.91</v>
+      </c>
+      <c r="H359">
+        <v>14.37</v>
+      </c>
+      <c r="I359">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J359">
+        <v>19</v>
+      </c>
+      <c r="K359">
+        <v>0.87</v>
+      </c>
+      <c r="L359">
+        <v>53.61</v>
+      </c>
+      <c r="M359">
+        <v>28.45</v>
+      </c>
+      <c r="N359">
+        <v>7.83</v>
+      </c>
+      <c r="O359">
+        <v>47.84</v>
+      </c>
+      <c r="P359">
+        <v>55</v>
+      </c>
+      <c r="Q359">
+        <v>71</v>
+      </c>
+      <c r="R359">
+        <v>60</v>
+      </c>
+      <c r="S359">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>200</v>
+      </c>
+      <c r="C360" t="s">
+        <v>215</v>
+      </c>
+      <c r="D360" t="s">
+        <v>191</v>
+      </c>
+      <c r="E360">
+        <v>38</v>
+      </c>
+      <c r="F360">
+        <v>1.44</v>
+      </c>
+      <c r="G360">
+        <v>1.01</v>
+      </c>
+      <c r="H360">
+        <v>13.47</v>
+      </c>
+      <c r="I360">
+        <v>10.95</v>
+      </c>
+      <c r="J360">
+        <v>19</v>
+      </c>
+      <c r="K360">
+        <v>0.89</v>
+      </c>
+      <c r="L360">
+        <v>51.74</v>
+      </c>
+      <c r="M360">
+        <v>37.79</v>
+      </c>
+      <c r="N360">
+        <v>7.21</v>
+      </c>
+      <c r="O360">
+        <v>46.5</v>
+      </c>
+      <c r="P360">
+        <v>48</v>
+      </c>
+      <c r="Q360">
+        <v>73</v>
+      </c>
+      <c r="R360">
+        <v>58</v>
+      </c>
+      <c r="S360">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>201</v>
+      </c>
+      <c r="C361" t="s">
+        <v>215</v>
+      </c>
+      <c r="D361" t="s">
+        <v>191</v>
+      </c>
+      <c r="E361">
+        <v>38</v>
+      </c>
+      <c r="F361">
+        <v>1.37</v>
+      </c>
+      <c r="G361">
+        <v>1.28</v>
+      </c>
+      <c r="H361">
+        <v>12.45</v>
+      </c>
+      <c r="I361">
+        <v>13.37</v>
+      </c>
+      <c r="J361">
+        <v>15</v>
+      </c>
+      <c r="K361">
+        <v>0.86</v>
+      </c>
+      <c r="L361">
+        <v>47.11</v>
+      </c>
+      <c r="M361">
+        <v>39.92</v>
+      </c>
+      <c r="N361">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="O361">
+        <v>46.23</v>
+      </c>
+      <c r="P361">
+        <v>50</v>
+      </c>
+      <c r="Q361">
+        <v>75</v>
+      </c>
+      <c r="R361">
+        <v>48</v>
+      </c>
+      <c r="S361">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>202</v>
+      </c>
+      <c r="C362" t="s">
+        <v>215</v>
+      </c>
+      <c r="D362" t="s">
+        <v>191</v>
+      </c>
+      <c r="E362">
+        <v>38</v>
+      </c>
+      <c r="F362">
+        <v>1.2</v>
+      </c>
+      <c r="G362">
+        <v>0.95</v>
+      </c>
+      <c r="H362">
+        <v>13.42</v>
+      </c>
+      <c r="I362">
+        <v>11.66</v>
+      </c>
+      <c r="J362">
+        <v>25</v>
+      </c>
+      <c r="K362">
+        <v>0.87</v>
+      </c>
+      <c r="L362">
+        <v>44.08</v>
+      </c>
+      <c r="M362">
+        <v>46.71</v>
+      </c>
+      <c r="N362">
+        <v>11.56</v>
+      </c>
+      <c r="O362">
+        <v>42.15</v>
+      </c>
+      <c r="P362">
+        <v>47</v>
+      </c>
+      <c r="Q362">
+        <v>66</v>
+      </c>
+      <c r="R362">
+        <v>52</v>
+      </c>
+      <c r="S362">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>203</v>
+      </c>
+      <c r="C363" t="s">
+        <v>215</v>
+      </c>
+      <c r="D363" t="s">
+        <v>191</v>
+      </c>
+      <c r="E363">
+        <v>38</v>
+      </c>
+      <c r="F363">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G363">
+        <v>1.33</v>
+      </c>
+      <c r="H363">
+        <v>11.58</v>
+      </c>
+      <c r="I363">
+        <v>13.47</v>
+      </c>
+      <c r="J363">
+        <v>23</v>
+      </c>
+      <c r="K363">
+        <v>0.87</v>
+      </c>
+      <c r="L363">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="M363">
+        <v>49.53</v>
+      </c>
+      <c r="N363">
+        <v>10.5</v>
+      </c>
+      <c r="O363">
+        <v>42.26</v>
+      </c>
+      <c r="P363">
+        <v>41</v>
+      </c>
+      <c r="Q363">
+        <v>69</v>
+      </c>
+      <c r="R363">
+        <v>46</v>
+      </c>
+      <c r="S363">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>204</v>
+      </c>
+      <c r="C364" t="s">
+        <v>215</v>
+      </c>
+      <c r="D364" t="s">
+        <v>191</v>
+      </c>
+      <c r="E364">
+        <v>38</v>
+      </c>
+      <c r="F364">
+        <v>1.34</v>
+      </c>
+      <c r="G364">
+        <v>1.18</v>
+      </c>
+      <c r="H364">
+        <v>13.66</v>
+      </c>
+      <c r="I364">
+        <v>12.76</v>
+      </c>
+      <c r="J364">
+        <v>23</v>
+      </c>
+      <c r="K364">
+        <v>0.85</v>
+      </c>
+      <c r="L364">
+        <v>42.29</v>
+      </c>
+      <c r="M364">
+        <v>43.58</v>
+      </c>
+      <c r="N364">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="O364">
+        <v>44.39</v>
+      </c>
+      <c r="P364">
+        <v>47</v>
+      </c>
+      <c r="Q364">
+        <v>70</v>
+      </c>
+      <c r="R364">
+        <v>49</v>
+      </c>
+      <c r="S364">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>205</v>
+      </c>
+      <c r="C365" t="s">
+        <v>215</v>
+      </c>
+      <c r="D365" t="s">
+        <v>191</v>
+      </c>
+      <c r="E365">
+        <v>38</v>
+      </c>
+      <c r="F365">
+        <v>0.99</v>
+      </c>
+      <c r="G365">
+        <v>1.43</v>
+      </c>
+      <c r="H365">
+        <v>10.53</v>
+      </c>
+      <c r="I365">
+        <v>14.97</v>
+      </c>
+      <c r="J365">
+        <v>14</v>
+      </c>
+      <c r="K365">
+        <v>0.87</v>
+      </c>
+      <c r="L365">
+        <v>35.68</v>
+      </c>
+      <c r="M365">
+        <v>55.68</v>
+      </c>
+      <c r="N365">
+        <v>13.08</v>
+      </c>
+      <c r="O365">
+        <v>40.89</v>
+      </c>
+      <c r="P365">
+        <v>37</v>
+      </c>
+      <c r="Q365">
+        <v>65</v>
+      </c>
+      <c r="R365">
+        <v>47</v>
+      </c>
+      <c r="S365">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>206</v>
+      </c>
+      <c r="C366" t="s">
+        <v>215</v>
+      </c>
+      <c r="D366" t="s">
+        <v>191</v>
+      </c>
+      <c r="E366">
+        <v>38</v>
+      </c>
+      <c r="F366">
+        <v>0.99</v>
+      </c>
+      <c r="G366">
+        <v>1.18</v>
+      </c>
+      <c r="H366">
+        <v>10.39</v>
+      </c>
+      <c r="I366">
+        <v>12.58</v>
+      </c>
+      <c r="J366">
+        <v>23</v>
+      </c>
+      <c r="K366">
+        <v>0.89</v>
+      </c>
+      <c r="L366">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="M366">
+        <v>48.76</v>
+      </c>
+      <c r="N366">
+        <v>10.72</v>
+      </c>
+      <c r="O366">
+        <v>42.01</v>
+      </c>
+      <c r="P366">
+        <v>42</v>
+      </c>
+      <c r="Q366">
+        <v>62</v>
+      </c>
+      <c r="R366">
+        <v>48</v>
+      </c>
+      <c r="S366">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>207</v>
+      </c>
+      <c r="C367" t="s">
+        <v>215</v>
+      </c>
+      <c r="D367" t="s">
+        <v>191</v>
+      </c>
+      <c r="E367">
+        <v>38</v>
+      </c>
+      <c r="F367">
+        <v>1.19</v>
+      </c>
+      <c r="G367">
+        <v>1.34</v>
+      </c>
+      <c r="H367">
+        <v>11.92</v>
+      </c>
+      <c r="I367">
+        <v>14.13</v>
+      </c>
+      <c r="J367">
+        <v>17</v>
+      </c>
+      <c r="K367">
+        <v>0.87</v>
+      </c>
+      <c r="L367">
+        <v>41.61</v>
+      </c>
+      <c r="M367">
+        <v>44.39</v>
+      </c>
+      <c r="N367">
+        <v>9.17</v>
+      </c>
+      <c r="O367">
+        <v>43.81</v>
+      </c>
+      <c r="P367">
+        <v>44</v>
+      </c>
+      <c r="Q367">
+        <v>69</v>
+      </c>
+      <c r="R367">
+        <v>51</v>
+      </c>
+      <c r="S367">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>208</v>
+      </c>
+      <c r="C368" t="s">
+        <v>215</v>
+      </c>
+      <c r="D368" t="s">
+        <v>191</v>
+      </c>
+      <c r="E368">
+        <v>38</v>
+      </c>
+      <c r="F368">
+        <v>1.06</v>
+      </c>
+      <c r="G368">
+        <v>1.18</v>
+      </c>
+      <c r="H368">
+        <v>11.63</v>
+      </c>
+      <c r="I368">
+        <v>10.97</v>
+      </c>
+      <c r="J368">
+        <v>26</v>
+      </c>
+      <c r="K368">
+        <v>0.88</v>
+      </c>
+      <c r="L368">
+        <v>41.05</v>
+      </c>
+      <c r="M368">
+        <v>42.29</v>
+      </c>
+      <c r="N368">
+        <v>10.71</v>
+      </c>
+      <c r="O368">
+        <v>44.53</v>
+      </c>
+      <c r="P368">
+        <v>47</v>
+      </c>
+      <c r="Q368">
+        <v>74</v>
+      </c>
+      <c r="R368">
+        <v>46</v>
+      </c>
+      <c r="S368">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>209</v>
+      </c>
+      <c r="C369" t="s">
+        <v>215</v>
+      </c>
+      <c r="D369" t="s">
+        <v>191</v>
+      </c>
+      <c r="E369">
+        <v>38</v>
+      </c>
+      <c r="F369">
+        <v>0.9</v>
+      </c>
+      <c r="G369">
+        <v>1.21</v>
+      </c>
+      <c r="H369">
+        <v>11.08</v>
+      </c>
+      <c r="I369">
+        <v>12.71</v>
+      </c>
+      <c r="J369">
+        <v>31</v>
+      </c>
+      <c r="K369">
+        <v>0.86</v>
+      </c>
+      <c r="L369">
+        <v>36.89</v>
+      </c>
+      <c r="M369">
+        <v>47.47</v>
+      </c>
+      <c r="N369">
+        <v>11.11</v>
+      </c>
+      <c r="O369">
+        <v>42.75</v>
+      </c>
+      <c r="P369">
+        <v>41</v>
+      </c>
+      <c r="Q369">
+        <v>70</v>
+      </c>
+      <c r="R369">
+        <v>45</v>
+      </c>
+      <c r="S369">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>210</v>
+      </c>
+      <c r="C370" t="s">
+        <v>215</v>
+      </c>
+      <c r="D370" t="s">
+        <v>191</v>
+      </c>
+      <c r="E370">
+        <v>38</v>
+      </c>
+      <c r="F370">
+        <v>0.97</v>
+      </c>
+      <c r="G370">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H370">
+        <v>11.74</v>
+      </c>
+      <c r="I370">
+        <v>11.87</v>
+      </c>
+      <c r="J370">
+        <v>31</v>
+      </c>
+      <c r="K370">
+        <v>0.87</v>
+      </c>
+      <c r="L370">
+        <v>41.26</v>
+      </c>
+      <c r="M370">
+        <v>46.61</v>
+      </c>
+      <c r="N370">
+        <v>11.04</v>
+      </c>
+      <c r="O370">
+        <v>42.92</v>
+      </c>
+      <c r="P370">
+        <v>42</v>
+      </c>
+      <c r="Q370">
+        <v>75</v>
+      </c>
+      <c r="R370">
+        <v>46</v>
+      </c>
+      <c r="S370">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>211</v>
+      </c>
+      <c r="C371" t="s">
+        <v>215</v>
+      </c>
+      <c r="D371" t="s">
+        <v>191</v>
+      </c>
+      <c r="E371">
+        <v>38</v>
+      </c>
+      <c r="F371">
+        <v>0.87</v>
+      </c>
+      <c r="G371">
+        <v>1.39</v>
+      </c>
+      <c r="H371">
+        <v>11.05</v>
+      </c>
+      <c r="I371">
+        <v>12.45</v>
+      </c>
+      <c r="J371">
+        <v>24</v>
+      </c>
+      <c r="K371">
+        <v>0.89</v>
+      </c>
+      <c r="L371">
+        <v>36.71</v>
+      </c>
+      <c r="M371">
+        <v>47.42</v>
+      </c>
+      <c r="N371">
+        <v>11.97</v>
+      </c>
+      <c r="O371">
+        <v>42.46</v>
+      </c>
+      <c r="P371">
+        <v>42</v>
+      </c>
+      <c r="Q371">
+        <v>65</v>
+      </c>
+      <c r="R371">
+        <v>44</v>
+      </c>
+      <c r="S371">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>212</v>
+      </c>
+      <c r="C372" t="s">
+        <v>215</v>
+      </c>
+      <c r="D372" t="s">
+        <v>191</v>
+      </c>
+      <c r="E372">
+        <v>38</v>
+      </c>
+      <c r="F372">
+        <v>0.9</v>
+      </c>
+      <c r="G372">
+        <v>1.79</v>
+      </c>
+      <c r="H372">
+        <v>10.34</v>
+      </c>
+      <c r="I372">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="J372">
+        <v>28</v>
+      </c>
+      <c r="K372">
+        <v>0.88</v>
+      </c>
+      <c r="L372">
+        <v>33.18</v>
+      </c>
+      <c r="M372">
+        <v>53.79</v>
+      </c>
+      <c r="N372">
+        <v>14.59</v>
+      </c>
+      <c r="O372">
+        <v>40.64</v>
+      </c>
+      <c r="P372">
+        <v>38</v>
+      </c>
+      <c r="Q372">
+        <v>65</v>
+      </c>
+      <c r="R372">
+        <v>42</v>
+      </c>
+      <c r="S372">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>213</v>
+      </c>
+      <c r="C373" t="s">
+        <v>215</v>
+      </c>
+      <c r="D373" t="s">
+        <v>191</v>
+      </c>
+      <c r="E373">
+        <v>38</v>
+      </c>
+      <c r="F373">
+        <v>0.92</v>
+      </c>
+      <c r="G373">
+        <v>1.27</v>
+      </c>
+      <c r="H373">
+        <v>9.68</v>
+      </c>
+      <c r="I373">
+        <v>12.03</v>
+      </c>
+      <c r="J373">
+        <v>28</v>
+      </c>
+      <c r="K373">
+        <v>0.88</v>
+      </c>
+      <c r="L373">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="M373">
+        <v>44.32</v>
+      </c>
+      <c r="N373">
+        <v>12.66</v>
+      </c>
+      <c r="O373">
+        <v>43.52</v>
+      </c>
+      <c r="P373">
+        <v>44</v>
+      </c>
+      <c r="Q373">
+        <v>68</v>
+      </c>
+      <c r="R373">
+        <v>47</v>
+      </c>
+      <c r="S373">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>214</v>
+      </c>
+      <c r="C374" t="s">
+        <v>215</v>
+      </c>
+      <c r="D374" t="s">
+        <v>191</v>
+      </c>
+      <c r="E374">
+        <v>38</v>
+      </c>
+      <c r="F374">
+        <v>0.65</v>
+      </c>
+      <c r="G374">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H374">
+        <v>8.18</v>
+      </c>
+      <c r="I374">
+        <v>10.87</v>
+      </c>
+      <c r="J374">
+        <v>30</v>
+      </c>
+      <c r="K374">
+        <v>0.86</v>
+      </c>
+      <c r="L374">
+        <v>32.11</v>
+      </c>
+      <c r="M374">
+        <v>43.79</v>
+      </c>
+      <c r="N374">
+        <v>11.31</v>
+      </c>
+      <c r="O374">
+        <v>42.94</v>
+      </c>
+      <c r="P374">
+        <v>44</v>
+      </c>
+      <c r="Q374">
+        <v>72</v>
+      </c>
+      <c r="R374">
+        <v>43</v>
+      </c>
+      <c r="S374">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>195</v>
+      </c>
+      <c r="C375" t="s">
+        <v>215</v>
+      </c>
+      <c r="D375" t="s">
+        <v>194</v>
+      </c>
+      <c r="E375">
+        <v>34</v>
+      </c>
+      <c r="F375">
+        <v>1.71</v>
+      </c>
+      <c r="G375">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H375">
+        <v>14.88</v>
+      </c>
+      <c r="I375">
+        <v>12.15</v>
+      </c>
+      <c r="J375">
+        <v>18</v>
+      </c>
+      <c r="K375">
+        <v>0.88</v>
+      </c>
+      <c r="L375">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="M375">
+        <v>34.18</v>
+      </c>
+      <c r="N375">
+        <v>7.32</v>
+      </c>
+      <c r="O375">
+        <v>47.08</v>
+      </c>
+      <c r="P375">
+        <v>52</v>
+      </c>
+      <c r="Q375">
+        <v>73</v>
+      </c>
+      <c r="R375">
+        <v>65</v>
+      </c>
+      <c r="S375">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>201</v>
+      </c>
+      <c r="C376" t="s">
+        <v>215</v>
+      </c>
+      <c r="D376" t="s">
+        <v>194</v>
+      </c>
+      <c r="E376">
+        <v>34</v>
+      </c>
+      <c r="F376">
+        <v>1.49</v>
+      </c>
+      <c r="G376">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H376">
+        <v>15.12</v>
+      </c>
+      <c r="I376">
+        <v>11.47</v>
+      </c>
+      <c r="J376">
+        <v>14</v>
+      </c>
+      <c r="K376">
+        <v>0.86</v>
+      </c>
+      <c r="L376">
+        <v>50.82</v>
+      </c>
+      <c r="M376">
+        <v>37.71</v>
+      </c>
+      <c r="N376">
+        <v>7.74</v>
+      </c>
+      <c r="O376">
+        <v>46.27</v>
+      </c>
+      <c r="P376">
+        <v>51</v>
+      </c>
+      <c r="Q376">
+        <v>72</v>
+      </c>
+      <c r="R376">
+        <v>54</v>
+      </c>
+      <c r="S376">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>209</v>
+      </c>
+      <c r="C377" t="s">
+        <v>215</v>
+      </c>
+      <c r="D377" t="s">
+        <v>194</v>
+      </c>
+      <c r="E377">
+        <v>34</v>
+      </c>
+      <c r="F377">
+        <v>1.25</v>
+      </c>
+      <c r="G377">
+        <v>1.01</v>
+      </c>
+      <c r="H377">
+        <v>14.26</v>
+      </c>
+      <c r="I377">
+        <v>10.41</v>
+      </c>
+      <c r="J377">
+        <v>35</v>
+      </c>
+      <c r="K377">
+        <v>0.87</v>
+      </c>
+      <c r="L377">
+        <v>45.24</v>
+      </c>
+      <c r="M377">
+        <v>37.65</v>
+      </c>
+      <c r="N377">
+        <v>8.15</v>
+      </c>
+      <c r="O377">
+        <v>44.91</v>
+      </c>
+      <c r="P377">
+        <v>47</v>
+      </c>
+      <c r="Q377">
+        <v>72</v>
+      </c>
+      <c r="R377">
+        <v>54</v>
+      </c>
+      <c r="S377">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>199</v>
+      </c>
+      <c r="C378" t="s">
+        <v>215</v>
+      </c>
+      <c r="D378" t="s">
+        <v>194</v>
+      </c>
+      <c r="E378">
+        <v>34</v>
+      </c>
+      <c r="F378">
+        <v>1.28</v>
+      </c>
+      <c r="G378">
+        <v>0.92</v>
+      </c>
+      <c r="H378">
+        <v>13</v>
+      </c>
+      <c r="I378">
+        <v>9.59</v>
+      </c>
+      <c r="J378">
+        <v>20</v>
+      </c>
+      <c r="K378">
+        <v>0.86</v>
+      </c>
+      <c r="L378">
+        <v>44.97</v>
+      </c>
+      <c r="M378">
+        <v>32.71</v>
+      </c>
+      <c r="N378">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="O378">
+        <v>46.46</v>
+      </c>
+      <c r="P378">
+        <v>54</v>
+      </c>
+      <c r="Q378">
+        <v>70</v>
+      </c>
+      <c r="R378">
+        <v>57</v>
+      </c>
+      <c r="S378">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>202</v>
+      </c>
+      <c r="C379" t="s">
+        <v>215</v>
+      </c>
+      <c r="D379" t="s">
+        <v>194</v>
+      </c>
+      <c r="E379">
+        <v>34</v>
+      </c>
+      <c r="F379">
+        <v>1.26</v>
+      </c>
+      <c r="G379">
+        <v>0.81</v>
+      </c>
+      <c r="H379">
+        <v>13.32</v>
+      </c>
+      <c r="I379">
+        <v>10.5</v>
+      </c>
+      <c r="J379">
+        <v>21</v>
+      </c>
+      <c r="K379">
+        <v>0.87</v>
+      </c>
+      <c r="L379">
+        <v>41.12</v>
+      </c>
+      <c r="M379">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="N379">
+        <v>11.04</v>
+      </c>
+      <c r="O379">
+        <v>46.17</v>
+      </c>
+      <c r="P379">
+        <v>51</v>
+      </c>
+      <c r="Q379">
+        <v>68</v>
+      </c>
+      <c r="R379">
+        <v>52</v>
+      </c>
+      <c r="S379">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>198</v>
+      </c>
+      <c r="C380" t="s">
+        <v>215</v>
+      </c>
+      <c r="D380" t="s">
+        <v>194</v>
+      </c>
+      <c r="E380">
+        <v>34</v>
+      </c>
+      <c r="F380">
+        <v>1.46</v>
+      </c>
+      <c r="G380">
+        <v>0.94</v>
+      </c>
+      <c r="H380">
+        <v>14.12</v>
+      </c>
+      <c r="I380">
+        <v>11.06</v>
+      </c>
+      <c r="J380">
+        <v>22</v>
+      </c>
+      <c r="K380">
+        <v>0.88</v>
+      </c>
+      <c r="L380">
+        <v>48.32</v>
+      </c>
+      <c r="M380">
+        <v>38.74</v>
+      </c>
+      <c r="N380">
+        <v>9.91</v>
+      </c>
+      <c r="O380">
+        <v>45.4</v>
+      </c>
+      <c r="P380">
+        <v>49</v>
+      </c>
+      <c r="Q380">
+        <v>74</v>
+      </c>
+      <c r="R380">
+        <v>54</v>
+      </c>
+      <c r="S380">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>196</v>
+      </c>
+      <c r="C381" t="s">
+        <v>215</v>
+      </c>
+      <c r="D381" t="s">
+        <v>194</v>
+      </c>
+      <c r="E381">
+        <v>34</v>
+      </c>
+      <c r="F381">
+        <v>1.41</v>
+      </c>
+      <c r="G381">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H381">
+        <v>14.44</v>
+      </c>
+      <c r="I381">
+        <v>11.5</v>
+      </c>
+      <c r="J381">
+        <v>24</v>
+      </c>
+      <c r="K381">
+        <v>0.87</v>
+      </c>
+      <c r="L381">
+        <v>49.79</v>
+      </c>
+      <c r="M381">
+        <v>34.71</v>
+      </c>
+      <c r="N381">
+        <v>9.84</v>
+      </c>
+      <c r="O381">
+        <v>46.64</v>
+      </c>
+      <c r="P381">
+        <v>52</v>
+      </c>
+      <c r="Q381">
+        <v>68</v>
+      </c>
+      <c r="R381">
+        <v>53</v>
+      </c>
+      <c r="S381">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>197</v>
+      </c>
+      <c r="C382" t="s">
+        <v>215</v>
+      </c>
+      <c r="D382" t="s">
+        <v>194</v>
+      </c>
+      <c r="E382">
+        <v>34</v>
+      </c>
+      <c r="F382">
+        <v>1.21</v>
+      </c>
+      <c r="G382">
+        <v>1.08</v>
+      </c>
+      <c r="H382">
+        <v>13.94</v>
+      </c>
+      <c r="I382">
+        <v>11.38</v>
+      </c>
+      <c r="J382">
+        <v>18</v>
+      </c>
+      <c r="K382">
+        <v>0.86</v>
+      </c>
+      <c r="L382">
+        <v>48.65</v>
+      </c>
+      <c r="M382">
+        <v>40.79</v>
+      </c>
+      <c r="N382">
+        <v>10.69</v>
+      </c>
+      <c r="O382">
+        <v>45.78</v>
+      </c>
+      <c r="P382">
+        <v>49</v>
+      </c>
+      <c r="Q382">
+        <v>72</v>
+      </c>
+      <c r="R382">
+        <v>52</v>
+      </c>
+      <c r="S382">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>207</v>
+      </c>
+      <c r="C383" t="s">
+        <v>215</v>
+      </c>
+      <c r="D383" t="s">
+        <v>194</v>
+      </c>
+      <c r="E383">
+        <v>34</v>
+      </c>
+      <c r="F383">
+        <v>0.96</v>
+      </c>
+      <c r="G383">
+        <v>1.23</v>
+      </c>
+      <c r="H383">
+        <v>11.71</v>
+      </c>
+      <c r="I383">
+        <v>13.68</v>
+      </c>
+      <c r="J383">
+        <v>20</v>
+      </c>
+      <c r="K383">
+        <v>0.86</v>
+      </c>
+      <c r="L383">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="M383">
+        <v>42.53</v>
+      </c>
+      <c r="N383">
+        <v>10.07</v>
+      </c>
+      <c r="O383">
+        <v>44.93</v>
+      </c>
+      <c r="P383">
+        <v>48</v>
+      </c>
+      <c r="Q383">
+        <v>71</v>
+      </c>
+      <c r="R383">
+        <v>48</v>
+      </c>
+      <c r="S383">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>204</v>
+      </c>
+      <c r="C384" t="s">
+        <v>215</v>
+      </c>
+      <c r="D384" t="s">
+        <v>194</v>
+      </c>
+      <c r="E384">
+        <v>34</v>
+      </c>
+      <c r="F384">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G384">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H384">
+        <v>12.18</v>
+      </c>
+      <c r="I384">
+        <v>12.71</v>
+      </c>
+      <c r="J384">
+        <v>23</v>
+      </c>
+      <c r="K384">
+        <v>0.86</v>
+      </c>
+      <c r="L384">
+        <v>41.38</v>
+      </c>
+      <c r="M384">
+        <v>40.35</v>
+      </c>
+      <c r="N384">
+        <v>9.49</v>
+      </c>
+      <c r="O384">
+        <v>44.72</v>
+      </c>
+      <c r="P384">
+        <v>48</v>
+      </c>
+      <c r="Q384">
+        <v>73</v>
+      </c>
+      <c r="R384">
+        <v>50</v>
+      </c>
+      <c r="S384">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>203</v>
+      </c>
+      <c r="C385" t="s">
+        <v>215</v>
+      </c>
+      <c r="D385" t="s">
+        <v>194</v>
+      </c>
+      <c r="E385">
+        <v>34</v>
+      </c>
+      <c r="F385">
+        <v>1.17</v>
+      </c>
+      <c r="G385">
+        <v>1.37</v>
+      </c>
+      <c r="H385">
+        <v>13.09</v>
+      </c>
+      <c r="I385">
+        <v>15.79</v>
+      </c>
+      <c r="J385">
+        <v>27</v>
+      </c>
+      <c r="K385">
+        <v>0.87</v>
+      </c>
+      <c r="L385">
+        <v>36.47</v>
+      </c>
+      <c r="M385">
+        <v>51.24</v>
+      </c>
+      <c r="N385">
+        <v>11.58</v>
+      </c>
+      <c r="O385">
+        <v>41.94</v>
+      </c>
+      <c r="P385">
+        <v>40</v>
+      </c>
+      <c r="Q385">
+        <v>68</v>
+      </c>
+      <c r="R385">
+        <v>45</v>
+      </c>
+      <c r="S385">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>200</v>
+      </c>
+      <c r="C386" t="s">
+        <v>215</v>
+      </c>
+      <c r="D386" t="s">
+        <v>194</v>
+      </c>
+      <c r="E386">
+        <v>34</v>
+      </c>
+      <c r="F386">
+        <v>1.35</v>
+      </c>
+      <c r="G386">
+        <v>1.27</v>
+      </c>
+      <c r="H386">
+        <v>13</v>
+      </c>
+      <c r="I386">
+        <v>13.44</v>
+      </c>
+      <c r="J386">
+        <v>18</v>
+      </c>
+      <c r="K386">
+        <v>0.9</v>
+      </c>
+      <c r="L386">
+        <v>45.44</v>
+      </c>
+      <c r="M386">
+        <v>45.94</v>
+      </c>
+      <c r="N386">
+        <v>9.98</v>
+      </c>
+      <c r="O386">
+        <v>45.91</v>
+      </c>
+      <c r="P386">
+        <v>46</v>
+      </c>
+      <c r="Q386">
+        <v>69</v>
+      </c>
+      <c r="R386">
+        <v>52</v>
+      </c>
+      <c r="S386">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>216</v>
+      </c>
+      <c r="C387" t="s">
+        <v>215</v>
+      </c>
+      <c r="D387" t="s">
+        <v>194</v>
+      </c>
+      <c r="E387">
+        <v>34</v>
+      </c>
+      <c r="F387">
+        <v>0.9</v>
+      </c>
+      <c r="G387">
+        <v>1.31</v>
+      </c>
+      <c r="H387">
+        <v>11.29</v>
+      </c>
+      <c r="I387">
+        <v>13.35</v>
+      </c>
+      <c r="J387">
+        <v>28</v>
+      </c>
+      <c r="K387">
+        <v>0.85</v>
+      </c>
+      <c r="L387">
+        <v>37.5</v>
+      </c>
+      <c r="M387">
+        <v>47.76</v>
+      </c>
+      <c r="N387">
+        <v>12.69</v>
+      </c>
+      <c r="O387">
+        <v>43.21</v>
+      </c>
+      <c r="P387">
+        <v>44</v>
+      </c>
+      <c r="Q387">
+        <v>67</v>
+      </c>
+      <c r="R387">
+        <v>45</v>
+      </c>
+      <c r="S387">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>208</v>
+      </c>
+      <c r="C388" t="s">
+        <v>215</v>
+      </c>
+      <c r="D388" t="s">
+        <v>194</v>
+      </c>
+      <c r="E388">
+        <v>34</v>
+      </c>
+      <c r="F388">
+        <v>1.03</v>
+      </c>
+      <c r="G388">
+        <v>1.21</v>
+      </c>
+      <c r="H388">
+        <v>10.74</v>
+      </c>
+      <c r="I388">
+        <v>12.18</v>
+      </c>
+      <c r="J388">
+        <v>27</v>
+      </c>
+      <c r="K388">
+        <v>0.89</v>
+      </c>
+      <c r="L388">
+        <v>36.47</v>
+      </c>
+      <c r="M388">
+        <v>41.74</v>
+      </c>
+      <c r="N388">
+        <v>13.11</v>
+      </c>
+      <c r="O388">
+        <v>43.17</v>
+      </c>
+      <c r="P388">
+        <v>44</v>
+      </c>
+      <c r="Q388">
+        <v>71</v>
+      </c>
+      <c r="R388">
+        <v>44</v>
+      </c>
+      <c r="S388">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>217</v>
+      </c>
+      <c r="C389" t="s">
+        <v>215</v>
+      </c>
+      <c r="D389" t="s">
+        <v>194</v>
+      </c>
+      <c r="E389">
+        <v>34</v>
+      </c>
+      <c r="F389">
+        <v>0.83</v>
+      </c>
+      <c r="G389">
+        <v>1.38</v>
+      </c>
+      <c r="H389">
+        <v>9.56</v>
+      </c>
+      <c r="I389">
+        <v>15.18</v>
+      </c>
+      <c r="J389">
+        <v>34</v>
+      </c>
+      <c r="K389">
+        <v>0.83</v>
+      </c>
+      <c r="L389">
+        <v>29.97</v>
+      </c>
+      <c r="M389">
+        <v>61.82</v>
+      </c>
+      <c r="N389">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O389">
+        <v>40.6</v>
+      </c>
+      <c r="P389">
+        <v>40</v>
+      </c>
+      <c r="Q389">
+        <v>69</v>
+      </c>
+      <c r="R389">
+        <v>36</v>
+      </c>
+      <c r="S389">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>205</v>
+      </c>
+      <c r="C390" t="s">
+        <v>215</v>
+      </c>
+      <c r="D390" t="s">
+        <v>194</v>
+      </c>
+      <c r="E390">
+        <v>34</v>
+      </c>
+      <c r="F390">
+        <v>0.98</v>
+      </c>
+      <c r="G390">
+        <v>1.49</v>
+      </c>
+      <c r="H390">
+        <v>10.91</v>
+      </c>
+      <c r="I390">
+        <v>15.53</v>
+      </c>
+      <c r="J390">
+        <v>22</v>
+      </c>
+      <c r="K390">
+        <v>0.88</v>
+      </c>
+      <c r="L390">
+        <v>39.82</v>
+      </c>
+      <c r="M390">
+        <v>54.91</v>
+      </c>
+      <c r="N390">
+        <v>12.81</v>
+      </c>
+      <c r="O390">
+        <v>42.15</v>
+      </c>
+      <c r="P390">
+        <v>40</v>
+      </c>
+      <c r="Q390">
+        <v>64</v>
+      </c>
+      <c r="R390">
+        <v>46</v>
+      </c>
+      <c r="S390">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>210</v>
+      </c>
+      <c r="C391" t="s">
+        <v>215</v>
+      </c>
+      <c r="D391" t="s">
+        <v>194</v>
+      </c>
+      <c r="E391">
+        <v>34</v>
+      </c>
+      <c r="F391">
+        <v>0.94</v>
+      </c>
+      <c r="G391">
+        <v>1.22</v>
+      </c>
+      <c r="H391">
+        <v>11.15</v>
+      </c>
+      <c r="I391">
+        <v>12.44</v>
+      </c>
+      <c r="J391">
+        <v>29</v>
+      </c>
+      <c r="K391">
+        <v>0.87</v>
+      </c>
+      <c r="L391">
+        <v>37.15</v>
+      </c>
+      <c r="M391">
+        <v>47.32</v>
+      </c>
+      <c r="N391">
+        <v>12.26</v>
+      </c>
+      <c r="O391">
+        <v>42.29</v>
+      </c>
+      <c r="P391">
+        <v>42</v>
+      </c>
+      <c r="Q391">
+        <v>73</v>
+      </c>
+      <c r="R391">
+        <v>45</v>
+      </c>
+      <c r="S391">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>206</v>
+      </c>
+      <c r="C392" t="s">
+        <v>215</v>
+      </c>
+      <c r="D392" t="s">
+        <v>194</v>
+      </c>
+      <c r="E392">
+        <v>34</v>
+      </c>
+      <c r="F392">
+        <v>0.87</v>
+      </c>
+      <c r="G392">
+        <v>1.5</v>
+      </c>
+      <c r="H392">
+        <v>11.29</v>
+      </c>
+      <c r="I392">
+        <v>15.65</v>
+      </c>
+      <c r="J392">
+        <v>23</v>
+      </c>
+      <c r="K392">
+        <v>0.88</v>
+      </c>
+      <c r="L392">
+        <v>38.26</v>
+      </c>
+      <c r="M392">
+        <v>47.74</v>
+      </c>
+      <c r="N392">
+        <v>11.08</v>
+      </c>
+      <c r="O392">
+        <v>43.38</v>
+      </c>
+      <c r="P392">
+        <v>44</v>
+      </c>
+      <c r="Q392">
+        <v>67</v>
+      </c>
+      <c r="R392">
+        <v>49</v>
+      </c>
+      <c r="S392">
+        <v>1.4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S320">

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72FEF35-1D8F-4F44-9666-EBE5CD92B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B3A58-3506-4919-9BD7-5DBA7FF4746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="241">
   <si>
     <t>Liga</t>
   </si>
@@ -694,6 +694,75 @@
   <si>
     <t>Metz</t>
   </si>
+  <si>
+    <t>AD Alcorcón</t>
+  </si>
+  <si>
+    <t>Albacete</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>CD Eldense</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t>FC Andorra</t>
+  </si>
+  <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Leganés</t>
+  </si>
+  <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Mirandés</t>
+  </si>
+  <si>
+    <t>Racing Ferrol</t>
+  </si>
+  <si>
+    <t>Racing Santander</t>
+  </si>
+  <si>
+    <t>Real Oviedo</t>
+  </si>
+  <si>
+    <t>Real Valladolid</t>
+  </si>
+  <si>
+    <t>Real Zaragoza</t>
+  </si>
+  <si>
+    <t>SD Amorebieta</t>
+  </si>
+  <si>
+    <t>Sporting Gijón</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Villarreal II</t>
+  </si>
+  <si>
+    <t>España 2</t>
+  </si>
 </sst>
 </file>
 
@@ -1064,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S392"/>
+  <dimension ref="A1:S414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="D376" sqref="D376:D392"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="D393" sqref="D393:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23096,6 +23165,1238 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>218</v>
+      </c>
+      <c r="C393" t="s">
+        <v>240</v>
+      </c>
+      <c r="D393" t="s">
+        <v>194</v>
+      </c>
+      <c r="E393">
+        <v>42</v>
+      </c>
+      <c r="F393">
+        <v>0.76</v>
+      </c>
+      <c r="G393">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H393">
+        <v>12.12</v>
+      </c>
+      <c r="I393">
+        <v>14.33</v>
+      </c>
+      <c r="J393">
+        <v>31</v>
+      </c>
+      <c r="K393">
+        <v>0.85</v>
+      </c>
+      <c r="L393">
+        <v>34.43</v>
+      </c>
+      <c r="M393">
+        <v>46.6</v>
+      </c>
+      <c r="N393">
+        <v>11.62</v>
+      </c>
+      <c r="O393">
+        <v>43.52</v>
+      </c>
+      <c r="P393">
+        <v>41</v>
+      </c>
+      <c r="Q393">
+        <v>68</v>
+      </c>
+      <c r="R393">
+        <v>43</v>
+      </c>
+      <c r="S393">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>219</v>
+      </c>
+      <c r="C394" t="s">
+        <v>240</v>
+      </c>
+      <c r="D394" t="s">
+        <v>194</v>
+      </c>
+      <c r="E394">
+        <v>42</v>
+      </c>
+      <c r="F394">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G394">
+        <v>1.02</v>
+      </c>
+      <c r="H394">
+        <v>12.62</v>
+      </c>
+      <c r="I394">
+        <v>12.38</v>
+      </c>
+      <c r="J394">
+        <v>20</v>
+      </c>
+      <c r="K394">
+        <v>0.86</v>
+      </c>
+      <c r="L394">
+        <v>41.5</v>
+      </c>
+      <c r="M394">
+        <v>39.07</v>
+      </c>
+      <c r="N394">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="O394">
+        <v>45.39</v>
+      </c>
+      <c r="P394">
+        <v>48</v>
+      </c>
+      <c r="Q394">
+        <v>73</v>
+      </c>
+      <c r="R394">
+        <v>49</v>
+      </c>
+      <c r="S394">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>220</v>
+      </c>
+      <c r="C395" t="s">
+        <v>240</v>
+      </c>
+      <c r="D395" t="s">
+        <v>194</v>
+      </c>
+      <c r="E395">
+        <v>42</v>
+      </c>
+      <c r="F395">
+        <v>0.98</v>
+      </c>
+      <c r="G395">
+        <v>0.91</v>
+      </c>
+      <c r="H395">
+        <v>12.19</v>
+      </c>
+      <c r="I395">
+        <v>12.29</v>
+      </c>
+      <c r="J395">
+        <v>27</v>
+      </c>
+      <c r="K395">
+        <v>0.84</v>
+      </c>
+      <c r="L395">
+        <v>39.76</v>
+      </c>
+      <c r="M395">
+        <v>45.02</v>
+      </c>
+      <c r="N395">
+        <v>11.79</v>
+      </c>
+      <c r="O395">
+        <v>44.16</v>
+      </c>
+      <c r="P395">
+        <v>46</v>
+      </c>
+      <c r="Q395">
+        <v>76</v>
+      </c>
+      <c r="R395">
+        <v>47</v>
+      </c>
+      <c r="S395">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>221</v>
+      </c>
+      <c r="C396" t="s">
+        <v>240</v>
+      </c>
+      <c r="D396" t="s">
+        <v>194</v>
+      </c>
+      <c r="E396">
+        <v>42</v>
+      </c>
+      <c r="F396">
+        <v>0.82</v>
+      </c>
+      <c r="G396">
+        <v>0.88</v>
+      </c>
+      <c r="H396">
+        <v>10.98</v>
+      </c>
+      <c r="I396">
+        <v>12.17</v>
+      </c>
+      <c r="J396">
+        <v>28</v>
+      </c>
+      <c r="K396">
+        <v>0.85</v>
+      </c>
+      <c r="L396">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="M396">
+        <v>40.26</v>
+      </c>
+      <c r="N396">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="O396">
+        <v>48.18</v>
+      </c>
+      <c r="P396">
+        <v>47</v>
+      </c>
+      <c r="Q396">
+        <v>76</v>
+      </c>
+      <c r="R396">
+        <v>46</v>
+      </c>
+      <c r="S396">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>222</v>
+      </c>
+      <c r="C397" t="s">
+        <v>240</v>
+      </c>
+      <c r="D397" t="s">
+        <v>194</v>
+      </c>
+      <c r="E397">
+        <v>44</v>
+      </c>
+      <c r="F397">
+        <v>1.04</v>
+      </c>
+      <c r="G397">
+        <v>0.96</v>
+      </c>
+      <c r="H397">
+        <v>13.02</v>
+      </c>
+      <c r="I397">
+        <v>11.82</v>
+      </c>
+      <c r="J397">
+        <v>31</v>
+      </c>
+      <c r="K397">
+        <v>0.84</v>
+      </c>
+      <c r="L397">
+        <v>46.07</v>
+      </c>
+      <c r="M397">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="N397">
+        <v>9.84</v>
+      </c>
+      <c r="O397">
+        <v>46.41</v>
+      </c>
+      <c r="P397">
+        <v>47</v>
+      </c>
+      <c r="Q397">
+        <v>73</v>
+      </c>
+      <c r="R397">
+        <v>54</v>
+      </c>
+      <c r="S397">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>223</v>
+      </c>
+      <c r="C398" t="s">
+        <v>240</v>
+      </c>
+      <c r="D398" t="s">
+        <v>194</v>
+      </c>
+      <c r="E398">
+        <v>42</v>
+      </c>
+      <c r="F398">
+        <v>1.04</v>
+      </c>
+      <c r="G398">
+        <v>0.86</v>
+      </c>
+      <c r="H398">
+        <v>15.52</v>
+      </c>
+      <c r="I398">
+        <v>9.9</v>
+      </c>
+      <c r="J398">
+        <v>34</v>
+      </c>
+      <c r="K398">
+        <v>0.85</v>
+      </c>
+      <c r="L398">
+        <v>46.5</v>
+      </c>
+      <c r="M398">
+        <v>32.17</v>
+      </c>
+      <c r="N398">
+        <v>8.41</v>
+      </c>
+      <c r="O398">
+        <v>46.59</v>
+      </c>
+      <c r="P398">
+        <v>48</v>
+      </c>
+      <c r="Q398">
+        <v>69</v>
+      </c>
+      <c r="R398">
+        <v>58</v>
+      </c>
+      <c r="S398">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>224</v>
+      </c>
+      <c r="C399" t="s">
+        <v>240</v>
+      </c>
+      <c r="D399" t="s">
+        <v>194</v>
+      </c>
+      <c r="E399">
+        <v>46</v>
+      </c>
+      <c r="F399">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G399">
+        <v>0.83</v>
+      </c>
+      <c r="H399">
+        <v>12.07</v>
+      </c>
+      <c r="I399">
+        <v>10.96</v>
+      </c>
+      <c r="J399">
+        <v>34</v>
+      </c>
+      <c r="K399">
+        <v>0.87</v>
+      </c>
+      <c r="L399">
+        <v>41.37</v>
+      </c>
+      <c r="M399">
+        <v>34.74</v>
+      </c>
+      <c r="N399">
+        <v>9.08</v>
+      </c>
+      <c r="O399">
+        <v>47.23</v>
+      </c>
+      <c r="P399">
+        <v>48</v>
+      </c>
+      <c r="Q399">
+        <v>70</v>
+      </c>
+      <c r="R399">
+        <v>51</v>
+      </c>
+      <c r="S399">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>225</v>
+      </c>
+      <c r="C400" t="s">
+        <v>240</v>
+      </c>
+      <c r="D400" t="s">
+        <v>194</v>
+      </c>
+      <c r="E400">
+        <v>42</v>
+      </c>
+      <c r="F400">
+        <v>0.89</v>
+      </c>
+      <c r="G400">
+        <v>1.02</v>
+      </c>
+      <c r="H400">
+        <v>13.21</v>
+      </c>
+      <c r="I400">
+        <v>10.45</v>
+      </c>
+      <c r="J400">
+        <v>27</v>
+      </c>
+      <c r="K400">
+        <v>0.89</v>
+      </c>
+      <c r="L400">
+        <v>52.71</v>
+      </c>
+      <c r="M400">
+        <v>30.95</v>
+      </c>
+      <c r="N400">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="O400">
+        <v>46.11</v>
+      </c>
+      <c r="P400">
+        <v>47</v>
+      </c>
+      <c r="Q400">
+        <v>69</v>
+      </c>
+      <c r="R400">
+        <v>62</v>
+      </c>
+      <c r="S400">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>226</v>
+      </c>
+      <c r="C401" t="s">
+        <v>240</v>
+      </c>
+      <c r="D401" t="s">
+        <v>194</v>
+      </c>
+      <c r="E401">
+        <v>42</v>
+      </c>
+      <c r="F401">
+        <v>0.82</v>
+      </c>
+      <c r="G401">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H401">
+        <v>10.17</v>
+      </c>
+      <c r="I401">
+        <v>13.07</v>
+      </c>
+      <c r="J401">
+        <v>27</v>
+      </c>
+      <c r="K401">
+        <v>0.88</v>
+      </c>
+      <c r="L401">
+        <v>34.67</v>
+      </c>
+      <c r="M401">
+        <v>46.33</v>
+      </c>
+      <c r="N401">
+        <v>12.99</v>
+      </c>
+      <c r="O401">
+        <v>43.63</v>
+      </c>
+      <c r="P401">
+        <v>44</v>
+      </c>
+      <c r="Q401">
+        <v>71</v>
+      </c>
+      <c r="R401">
+        <v>44</v>
+      </c>
+      <c r="S401">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>227</v>
+      </c>
+      <c r="C402" t="s">
+        <v>240</v>
+      </c>
+      <c r="D402" t="s">
+        <v>194</v>
+      </c>
+      <c r="E402">
+        <v>42</v>
+      </c>
+      <c r="F402">
+        <v>0.76</v>
+      </c>
+      <c r="G402">
+        <v>0.78</v>
+      </c>
+      <c r="H402">
+        <v>9.6</v>
+      </c>
+      <c r="I402">
+        <v>11.4</v>
+      </c>
+      <c r="J402">
+        <v>27</v>
+      </c>
+      <c r="K402">
+        <v>0.8</v>
+      </c>
+      <c r="L402">
+        <v>31.62</v>
+      </c>
+      <c r="M402">
+        <v>42.24</v>
+      </c>
+      <c r="N402">
+        <v>12.01</v>
+      </c>
+      <c r="O402">
+        <v>44.1</v>
+      </c>
+      <c r="P402">
+        <v>45</v>
+      </c>
+      <c r="Q402">
+        <v>72</v>
+      </c>
+      <c r="R402">
+        <v>45</v>
+      </c>
+      <c r="S402">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>228</v>
+      </c>
+      <c r="C403" t="s">
+        <v>240</v>
+      </c>
+      <c r="D403" t="s">
+        <v>194</v>
+      </c>
+      <c r="E403">
+        <v>42</v>
+      </c>
+      <c r="F403">
+        <v>0.92</v>
+      </c>
+      <c r="G403">
+        <v>0.66</v>
+      </c>
+      <c r="H403">
+        <v>10.14</v>
+      </c>
+      <c r="I403">
+        <v>10.67</v>
+      </c>
+      <c r="J403">
+        <v>22</v>
+      </c>
+      <c r="K403">
+        <v>0.86</v>
+      </c>
+      <c r="L403">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="M403">
+        <v>43.14</v>
+      </c>
+      <c r="N403">
+        <v>12.04</v>
+      </c>
+      <c r="O403">
+        <v>44.96</v>
+      </c>
+      <c r="P403">
+        <v>43</v>
+      </c>
+      <c r="Q403">
+        <v>73</v>
+      </c>
+      <c r="R403">
+        <v>46</v>
+      </c>
+      <c r="S403">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>229</v>
+      </c>
+      <c r="C404" t="s">
+        <v>240</v>
+      </c>
+      <c r="D404" t="s">
+        <v>194</v>
+      </c>
+      <c r="E404">
+        <v>42</v>
+      </c>
+      <c r="F404">
+        <v>1.07</v>
+      </c>
+      <c r="G404">
+        <v>1.03</v>
+      </c>
+      <c r="H404">
+        <v>13.05</v>
+      </c>
+      <c r="I404">
+        <v>13.12</v>
+      </c>
+      <c r="J404">
+        <v>26</v>
+      </c>
+      <c r="K404">
+        <v>0.87</v>
+      </c>
+      <c r="L404">
+        <v>42.33</v>
+      </c>
+      <c r="M404">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="N404">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="O404">
+        <v>44.8</v>
+      </c>
+      <c r="P404">
+        <v>46</v>
+      </c>
+      <c r="Q404">
+        <v>70</v>
+      </c>
+      <c r="R404">
+        <v>52</v>
+      </c>
+      <c r="S404">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>230</v>
+      </c>
+      <c r="C405" t="s">
+        <v>240</v>
+      </c>
+      <c r="D405" t="s">
+        <v>194</v>
+      </c>
+      <c r="E405">
+        <v>42</v>
+      </c>
+      <c r="F405">
+        <v>0.89</v>
+      </c>
+      <c r="G405">
+        <v>1.04</v>
+      </c>
+      <c r="H405">
+        <v>10.19</v>
+      </c>
+      <c r="I405">
+        <v>13.62</v>
+      </c>
+      <c r="J405">
+        <v>26</v>
+      </c>
+      <c r="K405">
+        <v>0.83</v>
+      </c>
+      <c r="L405">
+        <v>32.36</v>
+      </c>
+      <c r="M405">
+        <v>44.86</v>
+      </c>
+      <c r="N405">
+        <v>12.21</v>
+      </c>
+      <c r="O405">
+        <v>43.61</v>
+      </c>
+      <c r="P405">
+        <v>42</v>
+      </c>
+      <c r="Q405">
+        <v>70</v>
+      </c>
+      <c r="R405">
+        <v>45</v>
+      </c>
+      <c r="S405">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>231</v>
+      </c>
+      <c r="C406" t="s">
+        <v>240</v>
+      </c>
+      <c r="D406" t="s">
+        <v>194</v>
+      </c>
+      <c r="E406">
+        <v>42</v>
+      </c>
+      <c r="F406">
+        <v>0.87</v>
+      </c>
+      <c r="G406">
+        <v>0.89</v>
+      </c>
+      <c r="H406">
+        <v>11.83</v>
+      </c>
+      <c r="I406">
+        <v>10.48</v>
+      </c>
+      <c r="J406">
+        <v>36</v>
+      </c>
+      <c r="K406">
+        <v>0.86</v>
+      </c>
+      <c r="L406">
+        <v>40.24</v>
+      </c>
+      <c r="M406">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="N406">
+        <v>9.43</v>
+      </c>
+      <c r="O406">
+        <v>45.45</v>
+      </c>
+      <c r="P406">
+        <v>45</v>
+      </c>
+      <c r="Q406">
+        <v>72</v>
+      </c>
+      <c r="R406">
+        <v>52</v>
+      </c>
+      <c r="S406">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>232</v>
+      </c>
+      <c r="C407" t="s">
+        <v>240</v>
+      </c>
+      <c r="D407" t="s">
+        <v>194</v>
+      </c>
+      <c r="E407">
+        <v>42</v>
+      </c>
+      <c r="F407">
+        <v>1.17</v>
+      </c>
+      <c r="G407">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H407">
+        <v>12.36</v>
+      </c>
+      <c r="I407">
+        <v>14.62</v>
+      </c>
+      <c r="J407">
+        <v>17</v>
+      </c>
+      <c r="K407">
+        <v>0.88</v>
+      </c>
+      <c r="L407">
+        <v>34.57</v>
+      </c>
+      <c r="M407">
+        <v>43.21</v>
+      </c>
+      <c r="N407">
+        <v>8.76</v>
+      </c>
+      <c r="O407">
+        <v>46.18</v>
+      </c>
+      <c r="P407">
+        <v>45</v>
+      </c>
+      <c r="Q407">
+        <v>72</v>
+      </c>
+      <c r="R407">
+        <v>47</v>
+      </c>
+      <c r="S407">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>233</v>
+      </c>
+      <c r="C408" t="s">
+        <v>240</v>
+      </c>
+      <c r="D408" t="s">
+        <v>194</v>
+      </c>
+      <c r="E408">
+        <v>46</v>
+      </c>
+      <c r="F408">
+        <v>1.02</v>
+      </c>
+      <c r="G408">
+        <v>0.81</v>
+      </c>
+      <c r="H408">
+        <v>12.48</v>
+      </c>
+      <c r="I408">
+        <v>11.07</v>
+      </c>
+      <c r="J408">
+        <v>32</v>
+      </c>
+      <c r="K408">
+        <v>0.87</v>
+      </c>
+      <c r="L408">
+        <v>44.15</v>
+      </c>
+      <c r="M408">
+        <v>35.85</v>
+      </c>
+      <c r="N408">
+        <v>8.75</v>
+      </c>
+      <c r="O408">
+        <v>45.37</v>
+      </c>
+      <c r="P408">
+        <v>45</v>
+      </c>
+      <c r="Q408">
+        <v>69</v>
+      </c>
+      <c r="R408">
+        <v>54</v>
+      </c>
+      <c r="S408">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>234</v>
+      </c>
+      <c r="C409" t="s">
+        <v>240</v>
+      </c>
+      <c r="D409" t="s">
+        <v>194</v>
+      </c>
+      <c r="E409">
+        <v>42</v>
+      </c>
+      <c r="F409">
+        <v>0.99</v>
+      </c>
+      <c r="G409">
+        <v>0.78</v>
+      </c>
+      <c r="H409">
+        <v>13.86</v>
+      </c>
+      <c r="I409">
+        <v>10.43</v>
+      </c>
+      <c r="J409">
+        <v>37</v>
+      </c>
+      <c r="K409">
+        <v>0.85</v>
+      </c>
+      <c r="L409">
+        <v>43.69</v>
+      </c>
+      <c r="M409">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="N409">
+        <v>8.73</v>
+      </c>
+      <c r="O409">
+        <v>46.34</v>
+      </c>
+      <c r="P409">
+        <v>49</v>
+      </c>
+      <c r="Q409">
+        <v>66</v>
+      </c>
+      <c r="R409">
+        <v>55</v>
+      </c>
+      <c r="S409">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>235</v>
+      </c>
+      <c r="C410" t="s">
+        <v>240</v>
+      </c>
+      <c r="D410" t="s">
+        <v>194</v>
+      </c>
+      <c r="E410">
+        <v>42</v>
+      </c>
+      <c r="F410">
+        <v>0.89</v>
+      </c>
+      <c r="G410">
+        <v>0.77</v>
+      </c>
+      <c r="H410">
+        <v>11.14</v>
+      </c>
+      <c r="I410">
+        <v>10.33</v>
+      </c>
+      <c r="J410">
+        <v>27</v>
+      </c>
+      <c r="K410">
+        <v>0.89</v>
+      </c>
+      <c r="L410">
+        <v>39.67</v>
+      </c>
+      <c r="M410">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="N410">
+        <v>8.98</v>
+      </c>
+      <c r="O410">
+        <v>45.24</v>
+      </c>
+      <c r="P410">
+        <v>47</v>
+      </c>
+      <c r="Q410">
+        <v>73</v>
+      </c>
+      <c r="R410">
+        <v>51</v>
+      </c>
+      <c r="S410">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>236</v>
+      </c>
+      <c r="C411" t="s">
+        <v>240</v>
+      </c>
+      <c r="D411" t="s">
+        <v>194</v>
+      </c>
+      <c r="E411">
+        <v>42</v>
+      </c>
+      <c r="F411">
+        <v>0.79</v>
+      </c>
+      <c r="G411">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H411">
+        <v>9.98</v>
+      </c>
+      <c r="I411">
+        <v>13.07</v>
+      </c>
+      <c r="J411">
+        <v>33</v>
+      </c>
+      <c r="K411">
+        <v>0.85</v>
+      </c>
+      <c r="L411">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="M411">
+        <v>44.52</v>
+      </c>
+      <c r="N411">
+        <v>12.31</v>
+      </c>
+      <c r="O411">
+        <v>43.13</v>
+      </c>
+      <c r="P411">
+        <v>42</v>
+      </c>
+      <c r="Q411">
+        <v>71</v>
+      </c>
+      <c r="R411">
+        <v>46</v>
+      </c>
+      <c r="S411">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>237</v>
+      </c>
+      <c r="C412" t="s">
+        <v>240</v>
+      </c>
+      <c r="D412" t="s">
+        <v>194</v>
+      </c>
+      <c r="E412">
+        <v>44</v>
+      </c>
+      <c r="F412">
+        <v>0.89</v>
+      </c>
+      <c r="G412">
+        <v>1.02</v>
+      </c>
+      <c r="H412">
+        <v>11.7</v>
+      </c>
+      <c r="I412">
+        <v>12.93</v>
+      </c>
+      <c r="J412">
+        <v>25</v>
+      </c>
+      <c r="K412">
+        <v>0.86</v>
+      </c>
+      <c r="L412">
+        <v>40.39</v>
+      </c>
+      <c r="M412">
+        <v>41.25</v>
+      </c>
+      <c r="N412">
+        <v>10.47</v>
+      </c>
+      <c r="O412">
+        <v>41.95</v>
+      </c>
+      <c r="P412">
+        <v>41</v>
+      </c>
+      <c r="Q412">
+        <v>65</v>
+      </c>
+      <c r="R412">
+        <v>54</v>
+      </c>
+      <c r="S412">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>238</v>
+      </c>
+      <c r="C413" t="s">
+        <v>240</v>
+      </c>
+      <c r="D413" t="s">
+        <v>194</v>
+      </c>
+      <c r="E413">
+        <v>42</v>
+      </c>
+      <c r="F413">
+        <v>0.96</v>
+      </c>
+      <c r="G413">
+        <v>0.83</v>
+      </c>
+      <c r="H413">
+        <v>11</v>
+      </c>
+      <c r="I413">
+        <v>11.21</v>
+      </c>
+      <c r="J413">
+        <v>29</v>
+      </c>
+      <c r="K413">
+        <v>0.87</v>
+      </c>
+      <c r="L413">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="M413">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="N413">
+        <v>9.39</v>
+      </c>
+      <c r="O413">
+        <v>45.78</v>
+      </c>
+      <c r="P413">
+        <v>47</v>
+      </c>
+      <c r="Q413">
+        <v>76</v>
+      </c>
+      <c r="R413">
+        <v>49</v>
+      </c>
+      <c r="S413">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>239</v>
+      </c>
+      <c r="C414" t="s">
+        <v>240</v>
+      </c>
+      <c r="D414" t="s">
+        <v>194</v>
+      </c>
+      <c r="E414">
+        <v>42</v>
+      </c>
+      <c r="F414">
+        <v>0.96</v>
+      </c>
+      <c r="G414">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H414">
+        <v>13.24</v>
+      </c>
+      <c r="I414">
+        <v>12.38</v>
+      </c>
+      <c r="J414">
+        <v>26</v>
+      </c>
+      <c r="K414">
+        <v>0.85</v>
+      </c>
+      <c r="L414">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="M414">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="N414">
+        <v>11.13</v>
+      </c>
+      <c r="O414">
+        <v>43.65</v>
+      </c>
+      <c r="P414">
+        <v>44</v>
+      </c>
+      <c r="Q414">
+        <v>67</v>
+      </c>
+      <c r="R414">
+        <v>50</v>
+      </c>
+      <c r="S414">
+        <v>1.22</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S320">

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B3A58-3506-4919-9BD7-5DBA7FF4746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73327B5B-EA37-42AF-AA46-40F4B5C76A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="246">
   <si>
     <t>Liga</t>
   </si>
@@ -763,6 +763,21 @@
   <si>
     <t>España 2</t>
   </si>
+  <si>
+    <t>América FC (Minas Gerais)</t>
+  </si>
+  <si>
+    <t>Sc Do Recife</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
 </sst>
 </file>
 
@@ -1133,16 +1148,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S414"/>
+  <dimension ref="A1:S434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="D393" sqref="D393:D414"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -24397,6 +24415,1126 @@
         <v>1.22</v>
       </c>
     </row>
+    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>241</v>
+      </c>
+      <c r="C415" t="s">
+        <v>48</v>
+      </c>
+      <c r="D415">
+        <v>2021</v>
+      </c>
+      <c r="E415">
+        <v>38</v>
+      </c>
+      <c r="F415">
+        <v>1.17</v>
+      </c>
+      <c r="G415">
+        <v>1.06</v>
+      </c>
+      <c r="H415">
+        <v>15.08</v>
+      </c>
+      <c r="I415">
+        <v>12.37</v>
+      </c>
+      <c r="J415">
+        <v>27</v>
+      </c>
+      <c r="K415">
+        <v>0.84</v>
+      </c>
+      <c r="L415">
+        <v>46.5</v>
+      </c>
+      <c r="M415">
+        <v>43.68</v>
+      </c>
+      <c r="N415">
+        <v>7.83</v>
+      </c>
+      <c r="O415">
+        <v>44.84</v>
+      </c>
+      <c r="P415">
+        <v>45</v>
+      </c>
+      <c r="Q415">
+        <v>21.76</v>
+      </c>
+      <c r="R415">
+        <v>47</v>
+      </c>
+      <c r="S415">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>52</v>
+      </c>
+      <c r="C416" t="s">
+        <v>48</v>
+      </c>
+      <c r="D416">
+        <v>2021</v>
+      </c>
+      <c r="E416">
+        <v>38</v>
+      </c>
+      <c r="F416">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G416">
+        <v>0.99</v>
+      </c>
+      <c r="H416">
+        <v>14.21</v>
+      </c>
+      <c r="I416">
+        <v>11.84</v>
+      </c>
+      <c r="J416">
+        <v>25</v>
+      </c>
+      <c r="K416">
+        <v>0.86</v>
+      </c>
+      <c r="L416">
+        <v>47.47</v>
+      </c>
+      <c r="M416">
+        <v>40.74</v>
+      </c>
+      <c r="N416">
+        <v>7.57</v>
+      </c>
+      <c r="O416">
+        <v>44.51</v>
+      </c>
+      <c r="P416">
+        <v>43</v>
+      </c>
+      <c r="Q416">
+        <v>19.53</v>
+      </c>
+      <c r="R416">
+        <v>50</v>
+      </c>
+      <c r="S416">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>58</v>
+      </c>
+      <c r="C417" t="s">
+        <v>48</v>
+      </c>
+      <c r="D417">
+        <v>2021</v>
+      </c>
+      <c r="E417">
+        <v>38</v>
+      </c>
+      <c r="F417">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G417">
+        <v>0.94</v>
+      </c>
+      <c r="H417">
+        <v>14.47</v>
+      </c>
+      <c r="I417">
+        <v>10.92</v>
+      </c>
+      <c r="J417">
+        <v>26</v>
+      </c>
+      <c r="K417">
+        <v>0.85</v>
+      </c>
+      <c r="L417">
+        <v>54.71</v>
+      </c>
+      <c r="M417">
+        <v>40.39</v>
+      </c>
+      <c r="N417">
+        <v>7.33</v>
+      </c>
+      <c r="O417">
+        <v>45.38</v>
+      </c>
+      <c r="P417">
+        <v>43</v>
+      </c>
+      <c r="Q417">
+        <v>23.03</v>
+      </c>
+      <c r="R417">
+        <v>52</v>
+      </c>
+      <c r="S417">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>57</v>
+      </c>
+      <c r="C418" t="s">
+        <v>48</v>
+      </c>
+      <c r="D418">
+        <v>2021</v>
+      </c>
+      <c r="E418">
+        <v>38</v>
+      </c>
+      <c r="F418">
+        <v>1.06</v>
+      </c>
+      <c r="G418">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H418">
+        <v>13.26</v>
+      </c>
+      <c r="I418">
+        <v>13.68</v>
+      </c>
+      <c r="J418">
+        <v>29</v>
+      </c>
+      <c r="K418">
+        <v>0.86</v>
+      </c>
+      <c r="L418">
+        <v>47.08</v>
+      </c>
+      <c r="M418">
+        <v>44.08</v>
+      </c>
+      <c r="N418">
+        <v>7.91</v>
+      </c>
+      <c r="O418">
+        <v>43.24</v>
+      </c>
+      <c r="P418">
+        <v>45</v>
+      </c>
+      <c r="Q418">
+        <v>20.68</v>
+      </c>
+      <c r="R418">
+        <v>49</v>
+      </c>
+      <c r="S418">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>50</v>
+      </c>
+      <c r="C419" t="s">
+        <v>48</v>
+      </c>
+      <c r="D419">
+        <v>2021</v>
+      </c>
+      <c r="E419">
+        <v>38</v>
+      </c>
+      <c r="F419">
+        <v>1.55</v>
+      </c>
+      <c r="G419">
+        <v>0.94</v>
+      </c>
+      <c r="H419">
+        <v>15.39</v>
+      </c>
+      <c r="I419">
+        <v>10.97</v>
+      </c>
+      <c r="J419">
+        <v>22</v>
+      </c>
+      <c r="K419">
+        <v>0.85</v>
+      </c>
+      <c r="L419">
+        <v>63.05</v>
+      </c>
+      <c r="M419">
+        <v>33.47</v>
+      </c>
+      <c r="N419">
+        <v>5.96</v>
+      </c>
+      <c r="O419">
+        <v>47.53</v>
+      </c>
+      <c r="P419">
+        <v>51</v>
+      </c>
+      <c r="Q419">
+        <v>24.16</v>
+      </c>
+      <c r="R419">
+        <v>59</v>
+      </c>
+      <c r="S419">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>60</v>
+      </c>
+      <c r="C420" t="s">
+        <v>48</v>
+      </c>
+      <c r="D420">
+        <v>2021</v>
+      </c>
+      <c r="E420">
+        <v>38</v>
+      </c>
+      <c r="F420">
+        <v>0.97</v>
+      </c>
+      <c r="G420">
+        <v>0.99</v>
+      </c>
+      <c r="H420">
+        <v>13.26</v>
+      </c>
+      <c r="I420">
+        <v>13.39</v>
+      </c>
+      <c r="J420">
+        <v>32</v>
+      </c>
+      <c r="K420">
+        <v>0.82</v>
+      </c>
+      <c r="L420">
+        <v>47.13</v>
+      </c>
+      <c r="M420">
+        <v>43.68</v>
+      </c>
+      <c r="N420">
+        <v>9.57</v>
+      </c>
+      <c r="O420">
+        <v>44.85</v>
+      </c>
+      <c r="P420">
+        <v>45</v>
+      </c>
+      <c r="Q420">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="R420">
+        <v>49</v>
+      </c>
+      <c r="S420">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>62</v>
+      </c>
+      <c r="C421" t="s">
+        <v>48</v>
+      </c>
+      <c r="D421">
+        <v>2021</v>
+      </c>
+      <c r="E421">
+        <v>38</v>
+      </c>
+      <c r="F421">
+        <v>1.19</v>
+      </c>
+      <c r="G421">
+        <v>0.74</v>
+      </c>
+      <c r="H421">
+        <v>14</v>
+      </c>
+      <c r="I421">
+        <v>9.5</v>
+      </c>
+      <c r="J421">
+        <v>22</v>
+      </c>
+      <c r="K421">
+        <v>0.86</v>
+      </c>
+      <c r="L421">
+        <v>51.13</v>
+      </c>
+      <c r="M421">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="N421">
+        <v>7.54</v>
+      </c>
+      <c r="O421">
+        <v>45.34</v>
+      </c>
+      <c r="P421">
+        <v>45</v>
+      </c>
+      <c r="Q421">
+        <v>21.84</v>
+      </c>
+      <c r="R421">
+        <v>56</v>
+      </c>
+      <c r="S421">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>242</v>
+      </c>
+      <c r="C422" t="s">
+        <v>48</v>
+      </c>
+      <c r="D422">
+        <v>2021</v>
+      </c>
+      <c r="E422">
+        <v>38</v>
+      </c>
+      <c r="F422">
+        <v>0.84</v>
+      </c>
+      <c r="G422">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H422">
+        <v>12.18</v>
+      </c>
+      <c r="I422">
+        <v>14.95</v>
+      </c>
+      <c r="J422">
+        <v>32</v>
+      </c>
+      <c r="K422">
+        <v>0.86</v>
+      </c>
+      <c r="L422">
+        <v>38.97</v>
+      </c>
+      <c r="M422">
+        <v>52.42</v>
+      </c>
+      <c r="N422">
+        <v>9.44</v>
+      </c>
+      <c r="O422">
+        <v>42.56</v>
+      </c>
+      <c r="P422">
+        <v>38</v>
+      </c>
+      <c r="Q422">
+        <v>19.89</v>
+      </c>
+      <c r="R422">
+        <v>46</v>
+      </c>
+      <c r="S422">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>49</v>
+      </c>
+      <c r="C423" t="s">
+        <v>48</v>
+      </c>
+      <c r="D423">
+        <v>2021</v>
+      </c>
+      <c r="E423">
+        <v>38</v>
+      </c>
+      <c r="F423">
+        <v>1.36</v>
+      </c>
+      <c r="G423">
+        <v>1</v>
+      </c>
+      <c r="H423">
+        <v>14.42</v>
+      </c>
+      <c r="I423">
+        <v>13.32</v>
+      </c>
+      <c r="J423">
+        <v>30</v>
+      </c>
+      <c r="K423">
+        <v>0.85</v>
+      </c>
+      <c r="L423">
+        <v>47.03</v>
+      </c>
+      <c r="M423">
+        <v>45.82</v>
+      </c>
+      <c r="N423">
+        <v>8.49</v>
+      </c>
+      <c r="O423">
+        <v>42.86</v>
+      </c>
+      <c r="P423">
+        <v>40</v>
+      </c>
+      <c r="Q423">
+        <v>18.5</v>
+      </c>
+      <c r="R423">
+        <v>50</v>
+      </c>
+      <c r="S423">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>66</v>
+      </c>
+      <c r="C424" t="s">
+        <v>48</v>
+      </c>
+      <c r="D424">
+        <v>2021</v>
+      </c>
+      <c r="E424">
+        <v>38</v>
+      </c>
+      <c r="F424">
+        <v>0.79</v>
+      </c>
+      <c r="G424">
+        <v>1.08</v>
+      </c>
+      <c r="H424">
+        <v>10.87</v>
+      </c>
+      <c r="I424">
+        <v>13.34</v>
+      </c>
+      <c r="J424">
+        <v>25</v>
+      </c>
+      <c r="K424">
+        <v>0.85</v>
+      </c>
+      <c r="L424">
+        <v>39.68</v>
+      </c>
+      <c r="M424">
+        <v>54.08</v>
+      </c>
+      <c r="N424">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="O424">
+        <v>42.65</v>
+      </c>
+      <c r="P424">
+        <v>40</v>
+      </c>
+      <c r="Q424">
+        <v>18.11</v>
+      </c>
+      <c r="R424">
+        <v>46</v>
+      </c>
+      <c r="S424">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>243</v>
+      </c>
+      <c r="C425" t="s">
+        <v>48</v>
+      </c>
+      <c r="D425">
+        <v>2021</v>
+      </c>
+      <c r="E425">
+        <v>38</v>
+      </c>
+      <c r="F425">
+        <v>0.89</v>
+      </c>
+      <c r="G425">
+        <v>1.06</v>
+      </c>
+      <c r="H425">
+        <v>12.24</v>
+      </c>
+      <c r="I425">
+        <v>12</v>
+      </c>
+      <c r="J425">
+        <v>28</v>
+      </c>
+      <c r="K425">
+        <v>0.86</v>
+      </c>
+      <c r="L425">
+        <v>51.47</v>
+      </c>
+      <c r="M425">
+        <v>42.71</v>
+      </c>
+      <c r="N425">
+        <v>7.23</v>
+      </c>
+      <c r="O425">
+        <v>44.59</v>
+      </c>
+      <c r="P425">
+        <v>45</v>
+      </c>
+      <c r="Q425">
+        <v>22.87</v>
+      </c>
+      <c r="R425">
+        <v>53</v>
+      </c>
+      <c r="S425">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>244</v>
+      </c>
+      <c r="C426" t="s">
+        <v>48</v>
+      </c>
+      <c r="D426">
+        <v>2021</v>
+      </c>
+      <c r="E426">
+        <v>38</v>
+      </c>
+      <c r="F426">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G426">
+        <v>1.04</v>
+      </c>
+      <c r="H426">
+        <v>13.34</v>
+      </c>
+      <c r="I426">
+        <v>13.55</v>
+      </c>
+      <c r="J426">
+        <v>22</v>
+      </c>
+      <c r="K426">
+        <v>0.86</v>
+      </c>
+      <c r="L426">
+        <v>42.95</v>
+      </c>
+      <c r="M426">
+        <v>43.47</v>
+      </c>
+      <c r="N426">
+        <v>7.95</v>
+      </c>
+      <c r="O426">
+        <v>44.25</v>
+      </c>
+      <c r="P426">
+        <v>44</v>
+      </c>
+      <c r="Q426">
+        <v>20.03</v>
+      </c>
+      <c r="R426">
+        <v>47</v>
+      </c>
+      <c r="S426">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>56</v>
+      </c>
+      <c r="C427" t="s">
+        <v>48</v>
+      </c>
+      <c r="D427">
+        <v>2021</v>
+      </c>
+      <c r="E427">
+        <v>38</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427">
+        <v>0.95</v>
+      </c>
+      <c r="H427">
+        <v>12.29</v>
+      </c>
+      <c r="I427">
+        <v>12.82</v>
+      </c>
+      <c r="J427">
+        <v>30</v>
+      </c>
+      <c r="K427">
+        <v>0.85</v>
+      </c>
+      <c r="L427">
+        <v>41.95</v>
+      </c>
+      <c r="M427">
+        <v>53.76</v>
+      </c>
+      <c r="N427">
+        <v>7.99</v>
+      </c>
+      <c r="O427">
+        <v>43.06</v>
+      </c>
+      <c r="P427">
+        <v>42</v>
+      </c>
+      <c r="Q427">
+        <v>22.05</v>
+      </c>
+      <c r="R427">
+        <v>47</v>
+      </c>
+      <c r="S427">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>63</v>
+      </c>
+      <c r="C428" t="s">
+        <v>48</v>
+      </c>
+      <c r="D428">
+        <v>2021</v>
+      </c>
+      <c r="E428">
+        <v>38</v>
+      </c>
+      <c r="F428">
+        <v>0.78</v>
+      </c>
+      <c r="G428">
+        <v>0.93</v>
+      </c>
+      <c r="H428">
+        <v>10.82</v>
+      </c>
+      <c r="I428">
+        <v>12.05</v>
+      </c>
+      <c r="J428">
+        <v>37</v>
+      </c>
+      <c r="K428">
+        <v>0.83</v>
+      </c>
+      <c r="L428">
+        <v>36.92</v>
+      </c>
+      <c r="M428">
+        <v>52.29</v>
+      </c>
+      <c r="N428">
+        <v>10.36</v>
+      </c>
+      <c r="O428">
+        <v>43.03</v>
+      </c>
+      <c r="P428">
+        <v>38</v>
+      </c>
+      <c r="Q428">
+        <v>18.34</v>
+      </c>
+      <c r="R428">
+        <v>45</v>
+      </c>
+      <c r="S428">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>53</v>
+      </c>
+      <c r="C429" t="s">
+        <v>48</v>
+      </c>
+      <c r="D429">
+        <v>2021</v>
+      </c>
+      <c r="E429">
+        <v>38</v>
+      </c>
+      <c r="F429">
+        <v>0.99</v>
+      </c>
+      <c r="G429">
+        <v>1.02</v>
+      </c>
+      <c r="H429">
+        <v>11.87</v>
+      </c>
+      <c r="I429">
+        <v>11.03</v>
+      </c>
+      <c r="J429">
+        <v>27</v>
+      </c>
+      <c r="K429">
+        <v>0.87</v>
+      </c>
+      <c r="L429">
+        <v>50.24</v>
+      </c>
+      <c r="M429">
+        <v>38.47</v>
+      </c>
+      <c r="N429">
+        <v>6.25</v>
+      </c>
+      <c r="O429">
+        <v>46.11</v>
+      </c>
+      <c r="P429">
+        <v>45</v>
+      </c>
+      <c r="Q429">
+        <v>20.5</v>
+      </c>
+      <c r="R429">
+        <v>56</v>
+      </c>
+      <c r="S429">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>67</v>
+      </c>
+      <c r="C430" t="s">
+        <v>48</v>
+      </c>
+      <c r="D430">
+        <v>2021</v>
+      </c>
+      <c r="E430">
+        <v>38</v>
+      </c>
+      <c r="F430">
+        <v>0.81</v>
+      </c>
+      <c r="G430">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H430">
+        <v>10.34</v>
+      </c>
+      <c r="I430">
+        <v>14.03</v>
+      </c>
+      <c r="J430">
+        <v>25</v>
+      </c>
+      <c r="K430">
+        <v>0.87</v>
+      </c>
+      <c r="L430">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="M430">
+        <v>52.68</v>
+      </c>
+      <c r="N430">
+        <v>8.5</v>
+      </c>
+      <c r="O430">
+        <v>42.54</v>
+      </c>
+      <c r="P430">
+        <v>42</v>
+      </c>
+      <c r="Q430">
+        <v>21.82</v>
+      </c>
+      <c r="R430">
+        <v>49</v>
+      </c>
+      <c r="S430">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>59</v>
+      </c>
+      <c r="C431" t="s">
+        <v>48</v>
+      </c>
+      <c r="D431">
+        <v>2021</v>
+      </c>
+      <c r="E431">
+        <v>38</v>
+      </c>
+      <c r="F431">
+        <v>0.98</v>
+      </c>
+      <c r="G431">
+        <v>0.9</v>
+      </c>
+      <c r="H431">
+        <v>10.97</v>
+      </c>
+      <c r="I431">
+        <v>11.58</v>
+      </c>
+      <c r="J431">
+        <v>25</v>
+      </c>
+      <c r="K431">
+        <v>0.87</v>
+      </c>
+      <c r="L431">
+        <v>43.24</v>
+      </c>
+      <c r="M431">
+        <v>48.05</v>
+      </c>
+      <c r="N431">
+        <v>9.08</v>
+      </c>
+      <c r="O431">
+        <v>43.36</v>
+      </c>
+      <c r="P431">
+        <v>42</v>
+      </c>
+      <c r="Q431">
+        <v>21.29</v>
+      </c>
+      <c r="R431">
+        <v>50</v>
+      </c>
+      <c r="S431">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>51</v>
+      </c>
+      <c r="C432" t="s">
+        <v>48</v>
+      </c>
+      <c r="D432">
+        <v>2021</v>
+      </c>
+      <c r="E432">
+        <v>38</v>
+      </c>
+      <c r="F432">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G432">
+        <v>1.22</v>
+      </c>
+      <c r="H432">
+        <v>12.18</v>
+      </c>
+      <c r="I432">
+        <v>12.66</v>
+      </c>
+      <c r="J432">
+        <v>24</v>
+      </c>
+      <c r="K432">
+        <v>0.88</v>
+      </c>
+      <c r="L432">
+        <v>45.05</v>
+      </c>
+      <c r="M432">
+        <v>45</v>
+      </c>
+      <c r="N432">
+        <v>8.08</v>
+      </c>
+      <c r="O432">
+        <v>43.63</v>
+      </c>
+      <c r="P432">
+        <v>41</v>
+      </c>
+      <c r="Q432">
+        <v>20.55</v>
+      </c>
+      <c r="R432">
+        <v>51</v>
+      </c>
+      <c r="S432">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>245</v>
+      </c>
+      <c r="C433" t="s">
+        <v>48</v>
+      </c>
+      <c r="D433">
+        <v>2021</v>
+      </c>
+      <c r="E433">
+        <v>38</v>
+      </c>
+      <c r="F433">
+        <v>0.89</v>
+      </c>
+      <c r="G433">
+        <v>1.51</v>
+      </c>
+      <c r="H433">
+        <v>10.61</v>
+      </c>
+      <c r="I433">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="J433">
+        <v>26</v>
+      </c>
+      <c r="K433">
+        <v>0.86</v>
+      </c>
+      <c r="L433">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="M433">
+        <v>57.42</v>
+      </c>
+      <c r="N433">
+        <v>10.65</v>
+      </c>
+      <c r="O433">
+        <v>41.32</v>
+      </c>
+      <c r="P433">
+        <v>39</v>
+      </c>
+      <c r="Q433">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="R433">
+        <v>43</v>
+      </c>
+      <c r="S433">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>54</v>
+      </c>
+      <c r="C434" t="s">
+        <v>48</v>
+      </c>
+      <c r="D434">
+        <v>2021</v>
+      </c>
+      <c r="E434">
+        <v>38</v>
+      </c>
+      <c r="F434">
+        <v>0.87</v>
+      </c>
+      <c r="G434">
+        <v>0.82</v>
+      </c>
+      <c r="H434">
+        <v>10.74</v>
+      </c>
+      <c r="I434">
+        <v>12.13</v>
+      </c>
+      <c r="J434">
+        <v>23</v>
+      </c>
+      <c r="K434">
+        <v>0.86</v>
+      </c>
+      <c r="L434">
+        <v>48.89</v>
+      </c>
+      <c r="M434">
+        <v>47</v>
+      </c>
+      <c r="N434">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="O434">
+        <v>43.22</v>
+      </c>
+      <c r="P434">
+        <v>41</v>
+      </c>
+      <c r="Q434">
+        <v>19.47</v>
+      </c>
+      <c r="R434">
+        <v>55</v>
+      </c>
+      <c r="S434">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S320">

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169207F8-6237-4F90-96A9-8E63621ED46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F9CFF-25AF-4940-9DF8-5258F8B29092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="270">
   <si>
     <t>Liga</t>
   </si>
@@ -833,6 +833,9 @@
     <t>España</t>
   </si>
   <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
     <t>Las Palmas</t>
   </si>
   <si>
@@ -846,12 +849,6 @@
   </si>
   <si>
     <t>Lugo</t>
-  </si>
-  <si>
-    <t>2022/2023 AK</t>
-  </si>
-  <si>
-    <t>2021/2022 AK</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
   <dimension ref="A1:S500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460:D478"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="D480" sqref="D480:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26962,7 +26959,7 @@
         <v>263</v>
       </c>
       <c r="D459" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E459">
         <v>6</v>
@@ -27018,7 +27015,7 @@
         <v>263</v>
       </c>
       <c r="D460" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E460">
         <v>6</v>
@@ -27074,7 +27071,7 @@
         <v>263</v>
       </c>
       <c r="D461" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E461">
         <v>6</v>
@@ -27130,7 +27127,7 @@
         <v>263</v>
       </c>
       <c r="D462" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E462">
         <v>5</v>
@@ -27186,7 +27183,7 @@
         <v>263</v>
       </c>
       <c r="D463" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E463">
         <v>5</v>
@@ -27242,7 +27239,7 @@
         <v>263</v>
       </c>
       <c r="D464" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E464">
         <v>6</v>
@@ -27298,7 +27295,7 @@
         <v>263</v>
       </c>
       <c r="D465" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E465">
         <v>7</v>
@@ -27354,7 +27351,7 @@
         <v>263</v>
       </c>
       <c r="D466" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E466">
         <v>6</v>
@@ -27410,7 +27407,7 @@
         <v>263</v>
       </c>
       <c r="D467" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E467">
         <v>6</v>
@@ -27466,7 +27463,7 @@
         <v>263</v>
       </c>
       <c r="D468" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E468">
         <v>7</v>
@@ -27522,7 +27519,7 @@
         <v>263</v>
       </c>
       <c r="D469" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E469">
         <v>6</v>
@@ -27578,7 +27575,7 @@
         <v>263</v>
       </c>
       <c r="D470" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E470">
         <v>6</v>
@@ -27634,7 +27631,7 @@
         <v>263</v>
       </c>
       <c r="D471" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E471">
         <v>6</v>
@@ -27690,7 +27687,7 @@
         <v>263</v>
       </c>
       <c r="D472" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E472">
         <v>5</v>
@@ -27746,7 +27743,7 @@
         <v>263</v>
       </c>
       <c r="D473" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E473">
         <v>5</v>
@@ -27802,7 +27799,7 @@
         <v>263</v>
       </c>
       <c r="D474" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E474">
         <v>6</v>
@@ -27858,7 +27855,7 @@
         <v>263</v>
       </c>
       <c r="D475" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E475">
         <v>6</v>
@@ -27914,7 +27911,7 @@
         <v>263</v>
       </c>
       <c r="D476" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E476">
         <v>6</v>
@@ -27970,7 +27967,7 @@
         <v>263</v>
       </c>
       <c r="D477" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E477">
         <v>5</v>
@@ -28026,7 +28023,7 @@
         <v>263</v>
       </c>
       <c r="D478" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E478">
         <v>5</v>
@@ -28082,7 +28079,7 @@
         <v>240</v>
       </c>
       <c r="D479" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E479">
         <v>14</v>
@@ -28132,13 +28129,13 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C480" t="s">
         <v>240</v>
       </c>
       <c r="D480" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E480">
         <v>14</v>
@@ -28194,7 +28191,7 @@
         <v>240</v>
       </c>
       <c r="D481" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E481">
         <v>15</v>
@@ -28244,13 +28241,13 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C482" t="s">
         <v>240</v>
       </c>
       <c r="D482" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E482">
         <v>15</v>
@@ -28300,13 +28297,13 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C483" t="s">
         <v>240</v>
       </c>
       <c r="D483" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E483">
         <v>15</v>
@@ -28362,7 +28359,7 @@
         <v>240</v>
       </c>
       <c r="D484" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E484">
         <v>14</v>
@@ -28418,7 +28415,7 @@
         <v>240</v>
       </c>
       <c r="D485" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E485">
         <v>15</v>
@@ -28474,7 +28471,7 @@
         <v>240</v>
       </c>
       <c r="D486" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E486">
         <v>16</v>
@@ -28530,7 +28527,7 @@
         <v>240</v>
       </c>
       <c r="D487" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E487">
         <v>14</v>
@@ -28586,7 +28583,7 @@
         <v>240</v>
       </c>
       <c r="D488" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E488">
         <v>15</v>
@@ -28642,7 +28639,7 @@
         <v>240</v>
       </c>
       <c r="D489" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E489">
         <v>14</v>
@@ -28698,7 +28695,7 @@
         <v>240</v>
       </c>
       <c r="D490" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E490">
         <v>15</v>
@@ -28754,7 +28751,7 @@
         <v>240</v>
       </c>
       <c r="D491" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E491">
         <v>15</v>
@@ -28810,7 +28807,7 @@
         <v>240</v>
       </c>
       <c r="D492" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E492">
         <v>14</v>
@@ -28866,7 +28863,7 @@
         <v>240</v>
       </c>
       <c r="D493" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E493">
         <v>14</v>
@@ -28922,7 +28919,7 @@
         <v>240</v>
       </c>
       <c r="D494" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E494">
         <v>16</v>
@@ -28972,13 +28969,13 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C495" t="s">
         <v>240</v>
       </c>
       <c r="D495" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E495">
         <v>15</v>
@@ -29028,13 +29025,13 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C496" t="s">
         <v>240</v>
       </c>
       <c r="D496" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E496">
         <v>15</v>
@@ -29090,7 +29087,7 @@
         <v>240</v>
       </c>
       <c r="D497" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E497">
         <v>14</v>
@@ -29146,7 +29143,7 @@
         <v>240</v>
       </c>
       <c r="D498" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E498">
         <v>14</v>
@@ -29202,7 +29199,7 @@
         <v>240</v>
       </c>
       <c r="D499" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E499">
         <v>15</v>
@@ -29258,7 +29255,7 @@
         <v>240</v>
       </c>
       <c r="D500" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E500">
         <v>14</v>

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F9CFF-25AF-4940-9DF8-5258F8B29092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B304A-67EC-4CB8-BB27-88DCC5DBA464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="291">
   <si>
     <t>Liga</t>
   </si>
@@ -850,6 +850,69 @@
   <si>
     <t>Lugo</t>
   </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>AFC Bournemouth</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Inglaterra</t>
+  </si>
 </sst>
 </file>
 
@@ -1220,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S500"/>
+  <dimension ref="A1:S544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="D480" sqref="D480:D500"/>
+    <sheetView tabSelected="1" topLeftCell="K519" workbookViewId="0">
+      <selection activeCell="F530" sqref="F530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25609,7 +25672,7 @@
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C435" t="s">
         <v>15</v>
@@ -25618,54 +25681,54 @@
         <v>262</v>
       </c>
       <c r="E435">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F435">
-        <v>0.91</v>
+        <v>1.48</v>
       </c>
       <c r="G435">
-        <v>1.1499999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="H435">
-        <v>12.83</v>
+        <v>18.8</v>
       </c>
       <c r="I435">
-        <v>11.83</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J435">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K435">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="L435">
-        <v>39.909999999999997</v>
+        <v>45.8</v>
       </c>
       <c r="M435">
-        <v>45.78</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="N435">
-        <v>7.71</v>
+        <v>6.01</v>
       </c>
       <c r="O435">
-        <v>43.45</v>
+        <v>45.07</v>
       </c>
       <c r="P435">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q435">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R435">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S435">
-        <v>1.46</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C436" t="s">
         <v>15</v>
@@ -25674,49 +25737,49 @@
         <v>262</v>
       </c>
       <c r="E436">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F436">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="G436">
-        <v>1.1599999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="H436">
-        <v>13.96</v>
+        <v>16.25</v>
       </c>
       <c r="I436">
-        <v>14.3</v>
+        <v>9.75</v>
       </c>
       <c r="J436">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K436">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L436">
-        <v>44.22</v>
+        <v>60.75</v>
       </c>
       <c r="M436">
-        <v>47.52</v>
+        <v>36</v>
       </c>
       <c r="N436">
-        <v>8.48</v>
+        <v>5.45</v>
       </c>
       <c r="O436">
-        <v>42.59</v>
+        <v>46.15</v>
       </c>
       <c r="P436">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q436">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R436">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="S436">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.3">
@@ -25730,54 +25793,54 @@
         <v>262</v>
       </c>
       <c r="E437">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F437">
-        <v>1.1299999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G437">
-        <v>0.96</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H437">
-        <v>13.3</v>
+        <v>14.17</v>
       </c>
       <c r="I437">
-        <v>13.52</v>
+        <v>11.33</v>
       </c>
       <c r="J437">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K437">
         <v>0.86</v>
       </c>
       <c r="L437">
-        <v>50.26</v>
+        <v>50.17</v>
       </c>
       <c r="M437">
-        <v>44.35</v>
+        <v>38.83</v>
       </c>
       <c r="N437">
-        <v>8.18</v>
+        <v>8.02</v>
       </c>
       <c r="O437">
-        <v>43.37</v>
+        <v>43.72</v>
       </c>
       <c r="P437">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q437">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R437">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S437">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C438" t="s">
         <v>15</v>
@@ -25786,49 +25849,49 @@
         <v>262</v>
       </c>
       <c r="E438">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F438">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="G438">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H438">
-        <v>13.83</v>
+        <v>13.5</v>
       </c>
       <c r="I438">
-        <v>9.35</v>
+        <v>15.17</v>
       </c>
       <c r="J438">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K438">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L438">
-        <v>41.26</v>
+        <v>46.33</v>
       </c>
       <c r="M438">
-        <v>37.61</v>
+        <v>45.17</v>
       </c>
       <c r="N438">
-        <v>6.69</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O438">
-        <v>42.98</v>
+        <v>42.99</v>
       </c>
       <c r="P438">
         <v>41</v>
       </c>
       <c r="Q438">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R438">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="S438">
-        <v>1.91</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.3">
@@ -25842,54 +25905,54 @@
         <v>262</v>
       </c>
       <c r="E439">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F439">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="G439">
-        <v>1.1299999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H439">
-        <v>12.22</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I439">
-        <v>12.57</v>
+        <v>14</v>
       </c>
       <c r="J439">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K439">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="L439">
-        <v>45.87</v>
+        <v>42.2</v>
       </c>
       <c r="M439">
-        <v>43.87</v>
+        <v>45</v>
       </c>
       <c r="N439">
-        <v>9.67</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="O439">
-        <v>44.67</v>
+        <v>43.96</v>
       </c>
       <c r="P439">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q439">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R439">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S439">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C440" t="s">
         <v>15</v>
@@ -25898,54 +25961,54 @@
         <v>262</v>
       </c>
       <c r="E440">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F440">
-        <v>1.06</v>
+        <v>0.86</v>
       </c>
       <c r="G440">
-        <v>0.8</v>
+        <v>1.71</v>
       </c>
       <c r="H440">
-        <v>12.04</v>
+        <v>11.6</v>
       </c>
       <c r="I440">
-        <v>10.57</v>
+        <v>11.8</v>
       </c>
       <c r="J440">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K440">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="L440">
-        <v>49.83</v>
+        <v>40.6</v>
       </c>
       <c r="M440">
-        <v>40.35</v>
+        <v>43.4</v>
       </c>
       <c r="N440">
-        <v>6.07</v>
+        <v>7.36</v>
       </c>
       <c r="O440">
-        <v>43.08</v>
+        <v>42.71</v>
       </c>
       <c r="P440">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q440">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R440">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="S440">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C441" t="s">
         <v>15</v>
@@ -25954,54 +26017,54 @@
         <v>262</v>
       </c>
       <c r="E441">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F441">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="G441">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="H441">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="I441">
-        <v>11.57</v>
+        <v>11.2</v>
       </c>
       <c r="J441">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K441">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="L441">
-        <v>36.61</v>
+        <v>42.2</v>
       </c>
       <c r="M441">
-        <v>44.65</v>
+        <v>42.4</v>
       </c>
       <c r="N441">
-        <v>6.5</v>
+        <v>6.28</v>
       </c>
       <c r="O441">
-        <v>44.31</v>
+        <v>42.99</v>
       </c>
       <c r="P441">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q441">
         <v>70</v>
       </c>
       <c r="R441">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="S441">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C442" t="s">
         <v>15</v>
@@ -26010,54 +26073,54 @@
         <v>262</v>
       </c>
       <c r="E442">
+        <v>5</v>
+      </c>
+      <c r="F442">
+        <v>0.81</v>
+      </c>
+      <c r="G442">
+        <v>1.21</v>
+      </c>
+      <c r="H442">
+        <v>11.6</v>
+      </c>
+      <c r="I442">
+        <v>11.4</v>
+      </c>
+      <c r="J442">
         <v>23</v>
       </c>
-      <c r="F442">
-        <v>1.64</v>
-      </c>
-      <c r="G442">
-        <v>0.79</v>
-      </c>
-      <c r="H442">
-        <v>16.78</v>
-      </c>
-      <c r="I442">
-        <v>10.61</v>
-      </c>
-      <c r="J442">
-        <v>17</v>
-      </c>
       <c r="K442">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="L442">
-        <v>62.22</v>
+        <v>38.4</v>
       </c>
       <c r="M442">
-        <v>35.57</v>
+        <v>54.8</v>
       </c>
       <c r="N442">
-        <v>5.55</v>
+        <v>12.46</v>
       </c>
       <c r="O442">
-        <v>46.28</v>
+        <v>43.91</v>
       </c>
       <c r="P442">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q442">
         <v>73</v>
       </c>
       <c r="R442">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="S442">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C443" t="s">
         <v>15</v>
@@ -26066,54 +26129,54 @@
         <v>262</v>
       </c>
       <c r="E443">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F443">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="G443">
-        <v>1.1000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="H443">
-        <v>11.52</v>
+        <v>14.6</v>
       </c>
       <c r="I443">
-        <v>11.78</v>
+        <v>11</v>
       </c>
       <c r="J443">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K443">
         <v>0.87</v>
       </c>
       <c r="L443">
-        <v>52.65</v>
+        <v>58</v>
       </c>
       <c r="M443">
-        <v>39.26</v>
+        <v>38</v>
       </c>
       <c r="N443">
-        <v>6.15</v>
+        <v>5.58</v>
       </c>
       <c r="O443">
-        <v>44.71</v>
+        <v>45.78</v>
       </c>
       <c r="P443">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q443">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R443">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S443">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C444" t="s">
         <v>15</v>
@@ -26122,54 +26185,54 @@
         <v>262</v>
       </c>
       <c r="E444">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F444">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="G444">
-        <v>1.42</v>
+        <v>0.77</v>
       </c>
       <c r="H444">
-        <v>10.52</v>
+        <v>10.4</v>
       </c>
       <c r="I444">
-        <v>17.649999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J444">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K444">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="L444">
-        <v>33.22</v>
+        <v>36.6</v>
       </c>
       <c r="M444">
-        <v>57.52</v>
+        <v>43.2</v>
       </c>
       <c r="N444">
-        <v>9.31</v>
+        <v>7.98</v>
       </c>
       <c r="O444">
-        <v>41.83</v>
+        <v>44.66</v>
       </c>
       <c r="P444">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q444">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R444">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="S444">
-        <v>0.75</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C445" t="s">
         <v>15</v>
@@ -26178,54 +26241,54 @@
         <v>262</v>
       </c>
       <c r="E445">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F445">
-        <v>1.1200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G445">
-        <v>1.26</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H445">
-        <v>13.22</v>
+        <v>12.5</v>
       </c>
       <c r="I445">
-        <v>13.7</v>
+        <v>11.67</v>
       </c>
       <c r="J445">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K445">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="L445">
-        <v>39.57</v>
+        <v>43.5</v>
       </c>
       <c r="M445">
-        <v>48.26</v>
+        <v>39.17</v>
       </c>
       <c r="N445">
-        <v>7.33</v>
+        <v>7.42</v>
       </c>
       <c r="O445">
-        <v>44.74</v>
+        <v>43.21</v>
       </c>
       <c r="P445">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q445">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R445">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S445">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C446" t="s">
         <v>15</v>
@@ -26234,54 +26297,54 @@
         <v>262</v>
       </c>
       <c r="E446">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F446">
-        <v>0.94</v>
+        <v>1.5</v>
       </c>
       <c r="G446">
-        <v>0.81</v>
+        <v>0.62</v>
       </c>
       <c r="H446">
-        <v>11.04</v>
+        <v>13.6</v>
       </c>
       <c r="I446">
-        <v>10.87</v>
+        <v>11</v>
       </c>
       <c r="J446">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K446">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L446">
-        <v>44.09</v>
+        <v>56.6</v>
       </c>
       <c r="M446">
-        <v>39.74</v>
+        <v>42.6</v>
       </c>
       <c r="N446">
-        <v>6.53</v>
+        <v>6.54</v>
       </c>
       <c r="O446">
-        <v>45.91</v>
+        <v>46.43</v>
       </c>
       <c r="P446">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q446">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R446">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S446">
-        <v>1.28</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C447" t="s">
         <v>15</v>
@@ -26290,54 +26353,54 @@
         <v>262</v>
       </c>
       <c r="E447">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F447">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="G447">
-        <v>1.1000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="H447">
-        <v>11.7</v>
+        <v>10</v>
       </c>
       <c r="I447">
-        <v>10.83</v>
+        <v>11.8</v>
       </c>
       <c r="J447">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K447">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="L447">
-        <v>44.04</v>
+        <v>50.2</v>
       </c>
       <c r="M447">
-        <v>42.96</v>
+        <v>42</v>
       </c>
       <c r="N447">
-        <v>8.16</v>
+        <v>7.87</v>
       </c>
       <c r="O447">
-        <v>44.61</v>
+        <v>43.74</v>
       </c>
       <c r="P447">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q447">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R447">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S447">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C448" t="s">
         <v>15</v>
@@ -26346,54 +26409,54 @@
         <v>262</v>
       </c>
       <c r="E448">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F448">
-        <v>1.01</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G448">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="H448">
-        <v>12.48</v>
+        <v>11.2</v>
       </c>
       <c r="I448">
-        <v>10.78</v>
+        <v>7</v>
       </c>
       <c r="J448">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K448">
         <v>0.85</v>
       </c>
       <c r="L448">
-        <v>50</v>
+        <v>47.8</v>
       </c>
       <c r="M448">
-        <v>41.35</v>
+        <v>35.6</v>
       </c>
       <c r="N448">
-        <v>6.41</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O448">
-        <v>44.65</v>
+        <v>45.59</v>
       </c>
       <c r="P448">
         <v>42</v>
       </c>
       <c r="Q448">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R448">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S448">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C449" t="s">
         <v>15</v>
@@ -26402,54 +26465,54 @@
         <v>262</v>
       </c>
       <c r="E449">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F449">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="G449">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="H449">
-        <v>9.74</v>
+        <v>10</v>
       </c>
       <c r="I449">
-        <v>14.43</v>
+        <v>10</v>
       </c>
       <c r="J449">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K449">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="L449">
-        <v>36.22</v>
+        <v>36.4</v>
       </c>
       <c r="M449">
-        <v>53.83</v>
+        <v>45.6</v>
       </c>
       <c r="N449">
-        <v>9.7200000000000006</v>
+        <v>10.19</v>
       </c>
       <c r="O449">
-        <v>41.99</v>
+        <v>41.78</v>
       </c>
       <c r="P449">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q449">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R449">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S449">
-        <v>1.18</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C450" t="s">
         <v>15</v>
@@ -26458,54 +26521,54 @@
         <v>262</v>
       </c>
       <c r="E450">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F450">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="G450">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="H450">
-        <v>11.87</v>
+        <v>9.6</v>
       </c>
       <c r="I450">
-        <v>9.48</v>
+        <v>11.8</v>
       </c>
       <c r="J450">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K450">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="L450">
-        <v>47.57</v>
+        <v>43.2</v>
       </c>
       <c r="M450">
-        <v>35.299999999999997</v>
+        <v>43.8</v>
       </c>
       <c r="N450">
-        <v>5.63</v>
+        <v>5.05</v>
       </c>
       <c r="O450">
-        <v>48.41</v>
+        <v>44.81</v>
       </c>
       <c r="P450">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Q450">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R450">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S450">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C451" t="s">
         <v>15</v>
@@ -26514,54 +26577,54 @@
         <v>262</v>
       </c>
       <c r="E451">
+        <v>5</v>
+      </c>
+      <c r="F451">
+        <v>0.65</v>
+      </c>
+      <c r="G451">
+        <v>1.44</v>
+      </c>
+      <c r="H451">
+        <v>8.4</v>
+      </c>
+      <c r="I451">
+        <v>16.2</v>
+      </c>
+      <c r="J451">
         <v>23</v>
       </c>
-      <c r="F451">
-        <v>0.86</v>
-      </c>
-      <c r="G451">
-        <v>0.82</v>
-      </c>
-      <c r="H451">
-        <v>11.52</v>
-      </c>
-      <c r="I451">
-        <v>12</v>
-      </c>
-      <c r="J451">
-        <v>27</v>
-      </c>
       <c r="K451">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="L451">
-        <v>41.7</v>
+        <v>30.2</v>
       </c>
       <c r="M451">
-        <v>45.35</v>
+        <v>59.8</v>
       </c>
       <c r="N451">
-        <v>7.42</v>
+        <v>9.11</v>
       </c>
       <c r="O451">
-        <v>45.42</v>
+        <v>41.55</v>
       </c>
       <c r="P451">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q451">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R451">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="S451">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C452" t="s">
         <v>15</v>
@@ -26570,54 +26633,54 @@
         <v>262</v>
       </c>
       <c r="E452">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F452">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="G452">
-        <v>0.84</v>
+        <v>1.35</v>
       </c>
       <c r="H452">
-        <v>11.61</v>
+        <v>13.33</v>
       </c>
       <c r="I452">
-        <v>12</v>
+        <v>15.17</v>
       </c>
       <c r="J452">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K452">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="L452">
-        <v>46.7</v>
+        <v>39</v>
       </c>
       <c r="M452">
-        <v>43.48</v>
+        <v>46.33</v>
       </c>
       <c r="N452">
-        <v>6.59</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="O452">
-        <v>42.38</v>
+        <v>44.62</v>
       </c>
       <c r="P452">
         <v>40</v>
       </c>
       <c r="Q452">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R452">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="S452">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C453" t="s">
         <v>15</v>
@@ -26626,54 +26689,54 @@
         <v>262</v>
       </c>
       <c r="E453">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F453">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="G453">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H453">
-        <v>10.78</v>
+        <v>12.83</v>
       </c>
       <c r="I453">
-        <v>13.65</v>
+        <v>9.33</v>
       </c>
       <c r="J453">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K453">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="L453">
-        <v>44.96</v>
+        <v>46.5</v>
       </c>
       <c r="M453">
-        <v>51.22</v>
+        <v>35.67</v>
       </c>
       <c r="N453">
-        <v>8.52</v>
+        <v>5.85</v>
       </c>
       <c r="O453">
-        <v>43.35</v>
+        <v>51.51</v>
       </c>
       <c r="P453">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Q453">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="R453">
         <v>51</v>
       </c>
       <c r="S453">
-        <v>1.3</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C454" t="s">
         <v>15</v>
@@ -26682,54 +26745,54 @@
         <v>262</v>
       </c>
       <c r="E454">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F454">
-        <v>1.08</v>
+        <v>0.64</v>
       </c>
       <c r="G454">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="H454">
-        <v>12.04</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I454">
-        <v>12.83</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J454">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K454">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L454">
-        <v>45.52</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M454">
-        <v>45.65</v>
+        <v>48.8</v>
       </c>
       <c r="N454">
-        <v>7.21</v>
+        <v>7.15</v>
       </c>
       <c r="O454">
-        <v>43.93</v>
+        <v>44.33</v>
       </c>
       <c r="P454">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q454">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R454">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S454">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C455" t="s">
         <v>15</v>
@@ -26738,54 +26801,54 @@
         <v>262</v>
       </c>
       <c r="E455">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F455">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="G455">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="H455">
-        <v>12.74</v>
+        <v>12.33</v>
       </c>
       <c r="I455">
-        <v>9.52</v>
+        <v>10</v>
       </c>
       <c r="J455">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K455">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="L455">
-        <v>41.83</v>
+        <v>46.33</v>
       </c>
       <c r="M455">
-        <v>38.35</v>
+        <v>39.33</v>
       </c>
       <c r="N455">
-        <v>7.18</v>
+        <v>6.77</v>
       </c>
       <c r="O455">
-        <v>44.78</v>
+        <v>43.99</v>
       </c>
       <c r="P455">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q455">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R455">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S455">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C456" t="s">
         <v>15</v>
@@ -26794,54 +26857,54 @@
         <v>262</v>
       </c>
       <c r="E456">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F456">
-        <v>0.71</v>
+        <v>1.48</v>
       </c>
       <c r="G456">
-        <v>1.04</v>
+        <v>0.81</v>
       </c>
       <c r="H456">
-        <v>10.09</v>
+        <v>11.2</v>
       </c>
       <c r="I456">
-        <v>11.57</v>
+        <v>13</v>
       </c>
       <c r="J456">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K456">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="L456">
-        <v>37.479999999999997</v>
+        <v>44.4</v>
       </c>
       <c r="M456">
-        <v>49.17</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="N456">
-        <v>8.84</v>
+        <v>6.02</v>
       </c>
       <c r="O456">
-        <v>42.03</v>
+        <v>44.66</v>
       </c>
       <c r="P456">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q456">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R456">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="S456">
-        <v>1.36</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C457" t="s">
         <v>15</v>
@@ -26850,54 +26913,54 @@
         <v>262</v>
       </c>
       <c r="E457">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F457">
-        <v>1.31</v>
+        <v>0.64</v>
       </c>
       <c r="G457">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="H457">
-        <v>12.3</v>
+        <v>8.67</v>
       </c>
       <c r="I457">
-        <v>11.65</v>
+        <v>14.17</v>
       </c>
       <c r="J457">
         <v>21</v>
       </c>
       <c r="K457">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L457">
-        <v>42.57</v>
+        <v>41.33</v>
       </c>
       <c r="M457">
-        <v>41.87</v>
+        <v>54.83</v>
       </c>
       <c r="N457">
-        <v>6.52</v>
+        <v>10.43</v>
       </c>
       <c r="O457">
-        <v>44.19</v>
+        <v>43.21</v>
       </c>
       <c r="P457">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q457">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R457">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="S457">
-        <v>2.4300000000000002</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C458" t="s">
         <v>15</v>
@@ -26906,49 +26969,49 @@
         <v>262</v>
       </c>
       <c r="E458">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F458">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="G458">
-        <v>1.27</v>
+        <v>0.81</v>
       </c>
       <c r="H458">
-        <v>8.0399999999999991</v>
+        <v>6.4</v>
       </c>
       <c r="I458">
-        <v>12.43</v>
+        <v>15.4</v>
       </c>
       <c r="J458">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K458">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="L458">
-        <v>35.909999999999997</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M458">
-        <v>41.17</v>
+        <v>60.6</v>
       </c>
       <c r="N458">
-        <v>6.16</v>
+        <v>11.32</v>
       </c>
       <c r="O458">
-        <v>44.35</v>
+        <v>41.87</v>
       </c>
       <c r="P458">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q458">
         <v>67</v>
       </c>
       <c r="R458">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S458">
-        <v>1.1499999999999999</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.3">
@@ -29301,6 +29364,2470 @@
       </c>
       <c r="S500">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>28</v>
+      </c>
+      <c r="C501" t="s">
+        <v>15</v>
+      </c>
+      <c r="D501" t="s">
+        <v>270</v>
+      </c>
+      <c r="E501">
+        <v>11</v>
+      </c>
+      <c r="F501">
+        <v>0.96</v>
+      </c>
+      <c r="G501">
+        <v>1.37</v>
+      </c>
+      <c r="H501">
+        <v>11.55</v>
+      </c>
+      <c r="I501">
+        <v>13.82</v>
+      </c>
+      <c r="J501">
+        <v>27</v>
+      </c>
+      <c r="K501">
+        <v>0.82</v>
+      </c>
+      <c r="L501">
+        <v>43.64</v>
+      </c>
+      <c r="M501">
+        <v>55.09</v>
+      </c>
+      <c r="N501">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O501">
+        <v>44.02</v>
+      </c>
+      <c r="P501">
+        <v>39</v>
+      </c>
+      <c r="Q501">
+        <v>65</v>
+      </c>
+      <c r="R501">
+        <v>44</v>
+      </c>
+      <c r="S501">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>14</v>
+      </c>
+      <c r="C502" t="s">
+        <v>15</v>
+      </c>
+      <c r="D502" t="s">
+        <v>270</v>
+      </c>
+      <c r="E502">
+        <v>11</v>
+      </c>
+      <c r="F502">
+        <v>1.47</v>
+      </c>
+      <c r="G502">
+        <v>1.21</v>
+      </c>
+      <c r="H502">
+        <v>16.82</v>
+      </c>
+      <c r="I502">
+        <v>11.55</v>
+      </c>
+      <c r="J502">
+        <v>29</v>
+      </c>
+      <c r="K502">
+        <v>0.84</v>
+      </c>
+      <c r="L502">
+        <v>68.73</v>
+      </c>
+      <c r="M502">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="N502">
+        <v>4.13</v>
+      </c>
+      <c r="O502">
+        <v>47.57</v>
+      </c>
+      <c r="P502">
+        <v>50</v>
+      </c>
+      <c r="Q502">
+        <v>75</v>
+      </c>
+      <c r="R502">
+        <v>63</v>
+      </c>
+      <c r="S502">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>16</v>
+      </c>
+      <c r="C503" t="s">
+        <v>15</v>
+      </c>
+      <c r="D503" t="s">
+        <v>270</v>
+      </c>
+      <c r="E503">
+        <v>11</v>
+      </c>
+      <c r="F503">
+        <v>1.4</v>
+      </c>
+      <c r="G503">
+        <v>1.32</v>
+      </c>
+      <c r="H503">
+        <v>13.82</v>
+      </c>
+      <c r="I503">
+        <v>13.09</v>
+      </c>
+      <c r="J503">
+        <v>36</v>
+      </c>
+      <c r="K503">
+        <v>0.83</v>
+      </c>
+      <c r="L503">
+        <v>50.45</v>
+      </c>
+      <c r="M503">
+        <v>39.64</v>
+      </c>
+      <c r="N503">
+        <v>6.92</v>
+      </c>
+      <c r="O503">
+        <v>44.89</v>
+      </c>
+      <c r="P503">
+        <v>43</v>
+      </c>
+      <c r="Q503">
+        <v>64</v>
+      </c>
+      <c r="R503">
+        <v>57</v>
+      </c>
+      <c r="S503">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>35</v>
+      </c>
+      <c r="C504" t="s">
+        <v>15</v>
+      </c>
+      <c r="D504" t="s">
+        <v>270</v>
+      </c>
+      <c r="E504">
+        <v>11</v>
+      </c>
+      <c r="F504">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G504">
+        <v>0.88</v>
+      </c>
+      <c r="H504">
+        <v>14</v>
+      </c>
+      <c r="I504">
+        <v>11.18</v>
+      </c>
+      <c r="J504">
+        <v>28</v>
+      </c>
+      <c r="K504">
+        <v>0.82</v>
+      </c>
+      <c r="L504">
+        <v>40.82</v>
+      </c>
+      <c r="M504">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="N504">
+        <v>6.94</v>
+      </c>
+      <c r="O504">
+        <v>44.11</v>
+      </c>
+      <c r="P504">
+        <v>44</v>
+      </c>
+      <c r="Q504">
+        <v>66</v>
+      </c>
+      <c r="R504">
+        <v>51</v>
+      </c>
+      <c r="S504">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>30</v>
+      </c>
+      <c r="C505" t="s">
+        <v>15</v>
+      </c>
+      <c r="D505" t="s">
+        <v>270</v>
+      </c>
+      <c r="E505">
+        <v>12</v>
+      </c>
+      <c r="F505">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G505">
+        <v>0.9</v>
+      </c>
+      <c r="H505">
+        <v>12.92</v>
+      </c>
+      <c r="I505">
+        <v>12.58</v>
+      </c>
+      <c r="J505">
+        <v>23</v>
+      </c>
+      <c r="K505">
+        <v>0.88</v>
+      </c>
+      <c r="L505">
+        <v>39.92</v>
+      </c>
+      <c r="M505">
+        <v>56.08</v>
+      </c>
+      <c r="N505">
+        <v>11.14</v>
+      </c>
+      <c r="O505">
+        <v>43.56</v>
+      </c>
+      <c r="P505">
+        <v>39</v>
+      </c>
+      <c r="Q505">
+        <v>69</v>
+      </c>
+      <c r="R505">
+        <v>41</v>
+      </c>
+      <c r="S505">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>24</v>
+      </c>
+      <c r="C506" t="s">
+        <v>15</v>
+      </c>
+      <c r="D506" t="s">
+        <v>270</v>
+      </c>
+      <c r="E506">
+        <v>11</v>
+      </c>
+      <c r="F506">
+        <v>1.04</v>
+      </c>
+      <c r="G506">
+        <v>1.27</v>
+      </c>
+      <c r="H506">
+        <v>11.82</v>
+      </c>
+      <c r="I506">
+        <v>12.55</v>
+      </c>
+      <c r="J506">
+        <v>13</v>
+      </c>
+      <c r="K506">
+        <v>0.86</v>
+      </c>
+      <c r="L506">
+        <v>46</v>
+      </c>
+      <c r="M506">
+        <v>41.27</v>
+      </c>
+      <c r="N506">
+        <v>7.77</v>
+      </c>
+      <c r="O506">
+        <v>46.55</v>
+      </c>
+      <c r="P506">
+        <v>45</v>
+      </c>
+      <c r="Q506">
+        <v>67</v>
+      </c>
+      <c r="R506">
+        <v>51</v>
+      </c>
+      <c r="S506">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>25</v>
+      </c>
+      <c r="C507" t="s">
+        <v>15</v>
+      </c>
+      <c r="D507" t="s">
+        <v>270</v>
+      </c>
+      <c r="E507">
+        <v>11</v>
+      </c>
+      <c r="F507">
+        <v>0.98</v>
+      </c>
+      <c r="G507">
+        <v>0.77</v>
+      </c>
+      <c r="H507">
+        <v>13.45</v>
+      </c>
+      <c r="I507">
+        <v>9.82</v>
+      </c>
+      <c r="J507">
+        <v>21</v>
+      </c>
+      <c r="K507">
+        <v>0.85</v>
+      </c>
+      <c r="L507">
+        <v>44.91</v>
+      </c>
+      <c r="M507">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="N507">
+        <v>8.07</v>
+      </c>
+      <c r="O507">
+        <v>46.75</v>
+      </c>
+      <c r="P507">
+        <v>48</v>
+      </c>
+      <c r="Q507">
+        <v>74</v>
+      </c>
+      <c r="R507">
+        <v>51</v>
+      </c>
+      <c r="S507">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>19</v>
+      </c>
+      <c r="C508" t="s">
+        <v>15</v>
+      </c>
+      <c r="D508" t="s">
+        <v>270</v>
+      </c>
+      <c r="E508">
+        <v>11</v>
+      </c>
+      <c r="F508">
+        <v>0.98</v>
+      </c>
+      <c r="G508">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H508">
+        <v>12.36</v>
+      </c>
+      <c r="I508">
+        <v>12.73</v>
+      </c>
+      <c r="J508">
+        <v>36</v>
+      </c>
+      <c r="K508">
+        <v>0.82</v>
+      </c>
+      <c r="L508">
+        <v>38</v>
+      </c>
+      <c r="M508">
+        <v>42.09</v>
+      </c>
+      <c r="N508">
+        <v>7</v>
+      </c>
+      <c r="O508">
+        <v>45.07</v>
+      </c>
+      <c r="P508">
+        <v>44</v>
+      </c>
+      <c r="Q508">
+        <v>76</v>
+      </c>
+      <c r="R508">
+        <v>43</v>
+      </c>
+      <c r="S508">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>27</v>
+      </c>
+      <c r="C509" t="s">
+        <v>15</v>
+      </c>
+      <c r="D509" t="s">
+        <v>270</v>
+      </c>
+      <c r="E509">
+        <v>11</v>
+      </c>
+      <c r="F509">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G509">
+        <v>1.43</v>
+      </c>
+      <c r="H509">
+        <v>12.91</v>
+      </c>
+      <c r="I509">
+        <v>11.82</v>
+      </c>
+      <c r="J509">
+        <v>21</v>
+      </c>
+      <c r="K509">
+        <v>0.88</v>
+      </c>
+      <c r="L509">
+        <v>41.64</v>
+      </c>
+      <c r="M509">
+        <v>42.73</v>
+      </c>
+      <c r="N509">
+        <v>9.5</v>
+      </c>
+      <c r="O509">
+        <v>43.58</v>
+      </c>
+      <c r="P509">
+        <v>41</v>
+      </c>
+      <c r="Q509">
+        <v>74</v>
+      </c>
+      <c r="R509">
+        <v>48</v>
+      </c>
+      <c r="S509">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>32</v>
+      </c>
+      <c r="C510" t="s">
+        <v>15</v>
+      </c>
+      <c r="D510" t="s">
+        <v>270</v>
+      </c>
+      <c r="E510">
+        <v>12</v>
+      </c>
+      <c r="F510">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G510">
+        <v>1.33</v>
+      </c>
+      <c r="H510">
+        <v>12.58</v>
+      </c>
+      <c r="I510">
+        <v>14</v>
+      </c>
+      <c r="J510">
+        <v>29</v>
+      </c>
+      <c r="K510">
+        <v>0.81</v>
+      </c>
+      <c r="L510">
+        <v>44.17</v>
+      </c>
+      <c r="M510">
+        <v>49.33</v>
+      </c>
+      <c r="N510">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="O510">
+        <v>45.3</v>
+      </c>
+      <c r="P510">
+        <v>45</v>
+      </c>
+      <c r="Q510">
+        <v>73</v>
+      </c>
+      <c r="R510">
+        <v>49</v>
+      </c>
+      <c r="S510">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>29</v>
+      </c>
+      <c r="C511" t="s">
+        <v>15</v>
+      </c>
+      <c r="D511" t="s">
+        <v>270</v>
+      </c>
+      <c r="E511">
+        <v>12</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>11.25</v>
+      </c>
+      <c r="I511">
+        <v>11.58</v>
+      </c>
+      <c r="J511">
+        <v>21</v>
+      </c>
+      <c r="K511">
+        <v>0.87</v>
+      </c>
+      <c r="L511">
+        <v>46.08</v>
+      </c>
+      <c r="M511">
+        <v>37.58</v>
+      </c>
+      <c r="N511">
+        <v>5.84</v>
+      </c>
+      <c r="O511">
+        <v>45.98</v>
+      </c>
+      <c r="P511">
+        <v>45</v>
+      </c>
+      <c r="Q511">
+        <v>65</v>
+      </c>
+      <c r="R511">
+        <v>59</v>
+      </c>
+      <c r="S511">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>20</v>
+      </c>
+      <c r="C512" t="s">
+        <v>15</v>
+      </c>
+      <c r="D512" t="s">
+        <v>270</v>
+      </c>
+      <c r="E512">
+        <v>11</v>
+      </c>
+      <c r="F512">
+        <v>1.19</v>
+      </c>
+      <c r="G512">
+        <v>0.77</v>
+      </c>
+      <c r="H512">
+        <v>12.91</v>
+      </c>
+      <c r="I512">
+        <v>10.36</v>
+      </c>
+      <c r="J512">
+        <v>27</v>
+      </c>
+      <c r="K512">
+        <v>0.87</v>
+      </c>
+      <c r="L512">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="M512">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="N512">
+        <v>7.13</v>
+      </c>
+      <c r="O512">
+        <v>44.28</v>
+      </c>
+      <c r="P512">
+        <v>42</v>
+      </c>
+      <c r="Q512">
+        <v>71</v>
+      </c>
+      <c r="R512">
+        <v>49</v>
+      </c>
+      <c r="S512">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>40</v>
+      </c>
+      <c r="C513" t="s">
+        <v>15</v>
+      </c>
+      <c r="D513" t="s">
+        <v>270</v>
+      </c>
+      <c r="E513">
+        <v>11</v>
+      </c>
+      <c r="F513">
+        <v>1.24</v>
+      </c>
+      <c r="G513">
+        <v>0.85</v>
+      </c>
+      <c r="H513">
+        <v>12.45</v>
+      </c>
+      <c r="I513">
+        <v>10.18</v>
+      </c>
+      <c r="J513">
+        <v>26</v>
+      </c>
+      <c r="K513">
+        <v>0.9</v>
+      </c>
+      <c r="L513">
+        <v>45.18</v>
+      </c>
+      <c r="M513">
+        <v>48.91</v>
+      </c>
+      <c r="N513">
+        <v>8.36</v>
+      </c>
+      <c r="O513">
+        <v>42.18</v>
+      </c>
+      <c r="P513">
+        <v>39</v>
+      </c>
+      <c r="Q513">
+        <v>65</v>
+      </c>
+      <c r="R513">
+        <v>46</v>
+      </c>
+      <c r="S513">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>34</v>
+      </c>
+      <c r="C514" t="s">
+        <v>15</v>
+      </c>
+      <c r="D514" t="s">
+        <v>270</v>
+      </c>
+      <c r="E514">
+        <v>11</v>
+      </c>
+      <c r="F514">
+        <v>1.45</v>
+      </c>
+      <c r="G514">
+        <v>1.3</v>
+      </c>
+      <c r="H514">
+        <v>14.09</v>
+      </c>
+      <c r="I514">
+        <v>13.27</v>
+      </c>
+      <c r="J514">
+        <v>25</v>
+      </c>
+      <c r="K514">
+        <v>0.87</v>
+      </c>
+      <c r="L514">
+        <v>47.91</v>
+      </c>
+      <c r="M514">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="N514">
+        <v>7.64</v>
+      </c>
+      <c r="O514">
+        <v>44.85</v>
+      </c>
+      <c r="P514">
+        <v>45</v>
+      </c>
+      <c r="Q514">
+        <v>75</v>
+      </c>
+      <c r="R514">
+        <v>48</v>
+      </c>
+      <c r="S514">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>31</v>
+      </c>
+      <c r="C515" t="s">
+        <v>15</v>
+      </c>
+      <c r="D515" t="s">
+        <v>270</v>
+      </c>
+      <c r="E515">
+        <v>11</v>
+      </c>
+      <c r="F515">
+        <v>0.98</v>
+      </c>
+      <c r="G515">
+        <v>1.41</v>
+      </c>
+      <c r="H515">
+        <v>11.64</v>
+      </c>
+      <c r="I515">
+        <v>13.55</v>
+      </c>
+      <c r="J515">
+        <v>26</v>
+      </c>
+      <c r="K515">
+        <v>0.84</v>
+      </c>
+      <c r="L515">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="M515">
+        <v>47.45</v>
+      </c>
+      <c r="N515">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="O515">
+        <v>43.72</v>
+      </c>
+      <c r="P515">
+        <v>43</v>
+      </c>
+      <c r="Q515">
+        <v>66</v>
+      </c>
+      <c r="R515">
+        <v>47</v>
+      </c>
+      <c r="S515">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>18</v>
+      </c>
+      <c r="C516" t="s">
+        <v>15</v>
+      </c>
+      <c r="D516" t="s">
+        <v>270</v>
+      </c>
+      <c r="E516">
+        <v>11</v>
+      </c>
+      <c r="F516">
+        <v>1.04</v>
+      </c>
+      <c r="G516">
+        <v>0.79</v>
+      </c>
+      <c r="H516">
+        <v>12</v>
+      </c>
+      <c r="I516">
+        <v>8.09</v>
+      </c>
+      <c r="J516">
+        <v>23</v>
+      </c>
+      <c r="K516">
+        <v>0.85</v>
+      </c>
+      <c r="L516">
+        <v>42</v>
+      </c>
+      <c r="M516">
+        <v>36</v>
+      </c>
+      <c r="N516">
+        <v>6.59</v>
+      </c>
+      <c r="O516">
+        <v>46.54</v>
+      </c>
+      <c r="P516">
+        <v>47</v>
+      </c>
+      <c r="Q516">
+        <v>75</v>
+      </c>
+      <c r="R516">
+        <v>48</v>
+      </c>
+      <c r="S516">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>17</v>
+      </c>
+      <c r="C517" t="s">
+        <v>15</v>
+      </c>
+      <c r="D517" t="s">
+        <v>270</v>
+      </c>
+      <c r="E517">
+        <v>12</v>
+      </c>
+      <c r="F517">
+        <v>1.3</v>
+      </c>
+      <c r="G517">
+        <v>0.78</v>
+      </c>
+      <c r="H517">
+        <v>12.75</v>
+      </c>
+      <c r="I517">
+        <v>10.25</v>
+      </c>
+      <c r="J517">
+        <v>21</v>
+      </c>
+      <c r="K517">
+        <v>0.85</v>
+      </c>
+      <c r="L517">
+        <v>42.25</v>
+      </c>
+      <c r="M517">
+        <v>41.17</v>
+      </c>
+      <c r="N517">
+        <v>7.9</v>
+      </c>
+      <c r="O517">
+        <v>44.41</v>
+      </c>
+      <c r="P517">
+        <v>44</v>
+      </c>
+      <c r="Q517">
+        <v>67</v>
+      </c>
+      <c r="R517">
+        <v>52</v>
+      </c>
+      <c r="S517">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>23</v>
+      </c>
+      <c r="C518" t="s">
+        <v>15</v>
+      </c>
+      <c r="D518" t="s">
+        <v>270</v>
+      </c>
+      <c r="E518">
+        <v>11</v>
+      </c>
+      <c r="F518">
+        <v>1.2</v>
+      </c>
+      <c r="G518">
+        <v>1.19</v>
+      </c>
+      <c r="H518">
+        <v>11.55</v>
+      </c>
+      <c r="I518">
+        <v>12.73</v>
+      </c>
+      <c r="J518">
+        <v>30</v>
+      </c>
+      <c r="K518">
+        <v>0.86</v>
+      </c>
+      <c r="L518">
+        <v>48.82</v>
+      </c>
+      <c r="M518">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="N518">
+        <v>5.32</v>
+      </c>
+      <c r="O518">
+        <v>42.04</v>
+      </c>
+      <c r="P518">
+        <v>40</v>
+      </c>
+      <c r="Q518">
+        <v>63</v>
+      </c>
+      <c r="R518">
+        <v>61</v>
+      </c>
+      <c r="S518">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>22</v>
+      </c>
+      <c r="C519" t="s">
+        <v>15</v>
+      </c>
+      <c r="D519" t="s">
+        <v>270</v>
+      </c>
+      <c r="E519">
+        <v>11</v>
+      </c>
+      <c r="F519">
+        <v>0.97</v>
+      </c>
+      <c r="G519">
+        <v>0.92</v>
+      </c>
+      <c r="H519">
+        <v>10.45</v>
+      </c>
+      <c r="I519">
+        <v>12.55</v>
+      </c>
+      <c r="J519">
+        <v>20</v>
+      </c>
+      <c r="K519">
+        <v>0.83</v>
+      </c>
+      <c r="L519">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="M519">
+        <v>47.27</v>
+      </c>
+      <c r="N519">
+        <v>7.02</v>
+      </c>
+      <c r="O519">
+        <v>42.07</v>
+      </c>
+      <c r="P519">
+        <v>38</v>
+      </c>
+      <c r="Q519">
+        <v>62</v>
+      </c>
+      <c r="R519">
+        <v>53</v>
+      </c>
+      <c r="S519">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>33</v>
+      </c>
+      <c r="C520" t="s">
+        <v>15</v>
+      </c>
+      <c r="D520" t="s">
+        <v>270</v>
+      </c>
+      <c r="E520">
+        <v>11</v>
+      </c>
+      <c r="F520">
+        <v>1.2</v>
+      </c>
+      <c r="G520">
+        <v>1.03</v>
+      </c>
+      <c r="H520">
+        <v>12.45</v>
+      </c>
+      <c r="I520">
+        <v>11.73</v>
+      </c>
+      <c r="J520">
+        <v>29</v>
+      </c>
+      <c r="K520">
+        <v>0.89</v>
+      </c>
+      <c r="L520">
+        <v>44.27</v>
+      </c>
+      <c r="M520">
+        <v>43</v>
+      </c>
+      <c r="N520">
+        <v>8.5</v>
+      </c>
+      <c r="O520">
+        <v>45.1</v>
+      </c>
+      <c r="P520">
+        <v>46</v>
+      </c>
+      <c r="Q520">
+        <v>77</v>
+      </c>
+      <c r="R520">
+        <v>46</v>
+      </c>
+      <c r="S520">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>41</v>
+      </c>
+      <c r="C521" t="s">
+        <v>15</v>
+      </c>
+      <c r="D521" t="s">
+        <v>270</v>
+      </c>
+      <c r="E521">
+        <v>11</v>
+      </c>
+      <c r="F521">
+        <v>1.17</v>
+      </c>
+      <c r="G521">
+        <v>1.23</v>
+      </c>
+      <c r="H521">
+        <v>10.45</v>
+      </c>
+      <c r="I521">
+        <v>15</v>
+      </c>
+      <c r="J521">
+        <v>30</v>
+      </c>
+      <c r="K521">
+        <v>0.9</v>
+      </c>
+      <c r="L521">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="M521">
+        <v>51.91</v>
+      </c>
+      <c r="N521">
+        <v>8.52</v>
+      </c>
+      <c r="O521">
+        <v>42.49</v>
+      </c>
+      <c r="P521">
+        <v>41</v>
+      </c>
+      <c r="Q521">
+        <v>62</v>
+      </c>
+      <c r="R521">
+        <v>50</v>
+      </c>
+      <c r="S521">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>36</v>
+      </c>
+      <c r="C522" t="s">
+        <v>15</v>
+      </c>
+      <c r="D522" t="s">
+        <v>270</v>
+      </c>
+      <c r="E522">
+        <v>11</v>
+      </c>
+      <c r="F522">
+        <v>0.64</v>
+      </c>
+      <c r="G522">
+        <v>1.08</v>
+      </c>
+      <c r="H522">
+        <v>9.27</v>
+      </c>
+      <c r="I522">
+        <v>12.91</v>
+      </c>
+      <c r="J522">
+        <v>35</v>
+      </c>
+      <c r="K522">
+        <v>0.81</v>
+      </c>
+      <c r="L522">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="M522">
+        <v>40</v>
+      </c>
+      <c r="N522">
+        <v>7.33</v>
+      </c>
+      <c r="O522">
+        <v>45.16</v>
+      </c>
+      <c r="P522">
+        <v>42</v>
+      </c>
+      <c r="Q522">
+        <v>68</v>
+      </c>
+      <c r="R522">
+        <v>47</v>
+      </c>
+      <c r="S522">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>42</v>
+      </c>
+      <c r="C523" t="s">
+        <v>15</v>
+      </c>
+      <c r="D523" t="s">
+        <v>270</v>
+      </c>
+      <c r="E523">
+        <v>11</v>
+      </c>
+      <c r="F523">
+        <v>0.74</v>
+      </c>
+      <c r="G523">
+        <v>1.27</v>
+      </c>
+      <c r="H523">
+        <v>9.91</v>
+      </c>
+      <c r="I523">
+        <v>12.36</v>
+      </c>
+      <c r="J523">
+        <v>21</v>
+      </c>
+      <c r="K523">
+        <v>0.81</v>
+      </c>
+      <c r="L523">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="M523">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="N523">
+        <v>5.4</v>
+      </c>
+      <c r="O523">
+        <v>46.63</v>
+      </c>
+      <c r="P523">
+        <v>46</v>
+      </c>
+      <c r="Q523">
+        <v>74</v>
+      </c>
+      <c r="R523">
+        <v>51</v>
+      </c>
+      <c r="S523">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>26</v>
+      </c>
+      <c r="C524" t="s">
+        <v>15</v>
+      </c>
+      <c r="D524" t="s">
+        <v>270</v>
+      </c>
+      <c r="E524">
+        <v>11</v>
+      </c>
+      <c r="F524">
+        <v>1.18</v>
+      </c>
+      <c r="G524">
+        <v>1.36</v>
+      </c>
+      <c r="H524">
+        <v>10.36</v>
+      </c>
+      <c r="I524">
+        <v>16.18</v>
+      </c>
+      <c r="J524">
+        <v>28</v>
+      </c>
+      <c r="K524">
+        <v>0.91</v>
+      </c>
+      <c r="L524">
+        <v>31.82</v>
+      </c>
+      <c r="M524">
+        <v>54.82</v>
+      </c>
+      <c r="N524">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O524">
+        <v>42.99</v>
+      </c>
+      <c r="P524">
+        <v>36</v>
+      </c>
+      <c r="Q524">
+        <v>67</v>
+      </c>
+      <c r="R524">
+        <v>45</v>
+      </c>
+      <c r="S524">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>271</v>
+      </c>
+      <c r="C525" t="s">
+        <v>290</v>
+      </c>
+      <c r="D525" t="s">
+        <v>191</v>
+      </c>
+      <c r="E525">
+        <v>24</v>
+      </c>
+      <c r="F525">
+        <v>1.89</v>
+      </c>
+      <c r="G525">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H525">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="I525">
+        <v>10.42</v>
+      </c>
+      <c r="J525">
+        <v>19</v>
+      </c>
+      <c r="K525">
+        <v>0.85</v>
+      </c>
+      <c r="L525">
+        <v>52.71</v>
+      </c>
+      <c r="M525">
+        <v>26</v>
+      </c>
+      <c r="N525">
+        <v>7.46</v>
+      </c>
+      <c r="O525">
+        <v>48.59</v>
+      </c>
+      <c r="P525">
+        <v>57</v>
+      </c>
+      <c r="Q525">
+        <v>71</v>
+      </c>
+      <c r="R525">
+        <v>63</v>
+      </c>
+      <c r="S525">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>272</v>
+      </c>
+      <c r="C526" t="s">
+        <v>290</v>
+      </c>
+      <c r="D526" t="s">
+        <v>191</v>
+      </c>
+      <c r="E526">
+        <v>24</v>
+      </c>
+      <c r="F526">
+        <v>1.65</v>
+      </c>
+      <c r="G526">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H526">
+        <v>16.63</v>
+      </c>
+      <c r="I526">
+        <v>12.58</v>
+      </c>
+      <c r="J526">
+        <v>14</v>
+      </c>
+      <c r="K526">
+        <v>0.9</v>
+      </c>
+      <c r="L526">
+        <v>46.58</v>
+      </c>
+      <c r="M526">
+        <v>37.79</v>
+      </c>
+      <c r="N526">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="O526">
+        <v>43.65</v>
+      </c>
+      <c r="P526">
+        <v>49</v>
+      </c>
+      <c r="Q526">
+        <v>67</v>
+      </c>
+      <c r="R526">
+        <v>55</v>
+      </c>
+      <c r="S526">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>273</v>
+      </c>
+      <c r="C527" t="s">
+        <v>290</v>
+      </c>
+      <c r="D527" t="s">
+        <v>191</v>
+      </c>
+      <c r="E527">
+        <v>24</v>
+      </c>
+      <c r="F527">
+        <v>1.66</v>
+      </c>
+      <c r="G527">
+        <v>1.07</v>
+      </c>
+      <c r="H527">
+        <v>15.08</v>
+      </c>
+      <c r="I527">
+        <v>9.58</v>
+      </c>
+      <c r="J527">
+        <v>21</v>
+      </c>
+      <c r="K527">
+        <v>0.87</v>
+      </c>
+      <c r="L527">
+        <v>51.67</v>
+      </c>
+      <c r="M527">
+        <v>29.38</v>
+      </c>
+      <c r="N527">
+        <v>7.83</v>
+      </c>
+      <c r="O527">
+        <v>47.93</v>
+      </c>
+      <c r="P527">
+        <v>54</v>
+      </c>
+      <c r="Q527">
+        <v>73</v>
+      </c>
+      <c r="R527">
+        <v>60</v>
+      </c>
+      <c r="S527">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>26</v>
+      </c>
+      <c r="C528" t="s">
+        <v>290</v>
+      </c>
+      <c r="D528" t="s">
+        <v>191</v>
+      </c>
+      <c r="E528">
+        <v>24</v>
+      </c>
+      <c r="F528">
+        <v>1.48</v>
+      </c>
+      <c r="G528">
+        <v>1.02</v>
+      </c>
+      <c r="H528">
+        <v>15.38</v>
+      </c>
+      <c r="I528">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J528">
+        <v>13</v>
+      </c>
+      <c r="K528">
+        <v>0.83</v>
+      </c>
+      <c r="L528">
+        <v>57.75</v>
+      </c>
+      <c r="M528">
+        <v>29.71</v>
+      </c>
+      <c r="N528">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="O528">
+        <v>48.95</v>
+      </c>
+      <c r="P528">
+        <v>56</v>
+      </c>
+      <c r="Q528">
+        <v>76</v>
+      </c>
+      <c r="R528">
+        <v>60</v>
+      </c>
+      <c r="S528">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>274</v>
+      </c>
+      <c r="C529" t="s">
+        <v>290</v>
+      </c>
+      <c r="D529" t="s">
+        <v>191</v>
+      </c>
+      <c r="E529">
+        <v>24</v>
+      </c>
+      <c r="F529">
+        <v>1.27</v>
+      </c>
+      <c r="G529">
+        <v>1.19</v>
+      </c>
+      <c r="H529">
+        <v>13.79</v>
+      </c>
+      <c r="I529">
+        <v>11.67</v>
+      </c>
+      <c r="J529">
+        <v>23</v>
+      </c>
+      <c r="K529">
+        <v>0.88</v>
+      </c>
+      <c r="L529">
+        <v>51.5</v>
+      </c>
+      <c r="M529">
+        <v>36.54</v>
+      </c>
+      <c r="N529">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="O529">
+        <v>43.26</v>
+      </c>
+      <c r="P529">
+        <v>43</v>
+      </c>
+      <c r="Q529">
+        <v>62</v>
+      </c>
+      <c r="R529">
+        <v>59</v>
+      </c>
+      <c r="S529">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>275</v>
+      </c>
+      <c r="C530" t="s">
+        <v>290</v>
+      </c>
+      <c r="D530" t="s">
+        <v>191</v>
+      </c>
+      <c r="E530">
+        <v>23</v>
+      </c>
+      <c r="F530">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G530">
+        <v>1.21</v>
+      </c>
+      <c r="H530">
+        <v>12.83</v>
+      </c>
+      <c r="I530">
+        <v>13.17</v>
+      </c>
+      <c r="J530">
+        <v>25</v>
+      </c>
+      <c r="K530">
+        <v>0.87</v>
+      </c>
+      <c r="L530">
+        <v>37.43</v>
+      </c>
+      <c r="M530">
+        <v>47.22</v>
+      </c>
+      <c r="N530">
+        <v>11.24</v>
+      </c>
+      <c r="O530">
+        <v>42.08</v>
+      </c>
+      <c r="P530">
+        <v>42</v>
+      </c>
+      <c r="Q530">
+        <v>63</v>
+      </c>
+      <c r="R530">
+        <v>50</v>
+      </c>
+      <c r="S530">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>276</v>
+      </c>
+      <c r="C531" t="s">
+        <v>290</v>
+      </c>
+      <c r="D531" t="s">
+        <v>191</v>
+      </c>
+      <c r="E531">
+        <v>23</v>
+      </c>
+      <c r="F531">
+        <v>1.08</v>
+      </c>
+      <c r="G531">
+        <v>1.43</v>
+      </c>
+      <c r="H531">
+        <v>11.74</v>
+      </c>
+      <c r="I531">
+        <v>14.04</v>
+      </c>
+      <c r="J531">
+        <v>23</v>
+      </c>
+      <c r="K531">
+        <v>0.84</v>
+      </c>
+      <c r="L531">
+        <v>37.39</v>
+      </c>
+      <c r="M531">
+        <v>47.91</v>
+      </c>
+      <c r="N531">
+        <v>11.41</v>
+      </c>
+      <c r="O531">
+        <v>43.56</v>
+      </c>
+      <c r="P531">
+        <v>47</v>
+      </c>
+      <c r="Q531">
+        <v>76</v>
+      </c>
+      <c r="R531">
+        <v>42</v>
+      </c>
+      <c r="S531">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>277</v>
+      </c>
+      <c r="C532" t="s">
+        <v>290</v>
+      </c>
+      <c r="D532" t="s">
+        <v>191</v>
+      </c>
+      <c r="E532">
+        <v>23</v>
+      </c>
+      <c r="F532">
+        <v>0.98</v>
+      </c>
+      <c r="G532">
+        <v>1.39</v>
+      </c>
+      <c r="H532">
+        <v>11.65</v>
+      </c>
+      <c r="I532">
+        <v>14.13</v>
+      </c>
+      <c r="J532">
+        <v>27</v>
+      </c>
+      <c r="K532">
+        <v>0.87</v>
+      </c>
+      <c r="L532">
+        <v>35.17</v>
+      </c>
+      <c r="M532">
+        <v>51.83</v>
+      </c>
+      <c r="N532">
+        <v>13.39</v>
+      </c>
+      <c r="O532">
+        <v>43.86</v>
+      </c>
+      <c r="P532">
+        <v>46</v>
+      </c>
+      <c r="Q532">
+        <v>72</v>
+      </c>
+      <c r="R532">
+        <v>40</v>
+      </c>
+      <c r="S532">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>278</v>
+      </c>
+      <c r="C533" t="s">
+        <v>290</v>
+      </c>
+      <c r="D533" t="s">
+        <v>191</v>
+      </c>
+      <c r="E533">
+        <v>23</v>
+      </c>
+      <c r="F533">
+        <v>0.79</v>
+      </c>
+      <c r="G533">
+        <v>1.48</v>
+      </c>
+      <c r="H533">
+        <v>10.52</v>
+      </c>
+      <c r="I533">
+        <v>14.3</v>
+      </c>
+      <c r="J533">
+        <v>23</v>
+      </c>
+      <c r="K533">
+        <v>0.81</v>
+      </c>
+      <c r="L533">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="M533">
+        <v>45.17</v>
+      </c>
+      <c r="N533">
+        <v>10.81</v>
+      </c>
+      <c r="O533">
+        <v>42.59</v>
+      </c>
+      <c r="P533">
+        <v>44</v>
+      </c>
+      <c r="Q533">
+        <v>69</v>
+      </c>
+      <c r="R533">
+        <v>45</v>
+      </c>
+      <c r="S533">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>279</v>
+      </c>
+      <c r="C534" t="s">
+        <v>290</v>
+      </c>
+      <c r="D534" t="s">
+        <v>191</v>
+      </c>
+      <c r="E534">
+        <v>23</v>
+      </c>
+      <c r="F534">
+        <v>0.9</v>
+      </c>
+      <c r="G534">
+        <v>1.27</v>
+      </c>
+      <c r="H534">
+        <v>10.7</v>
+      </c>
+      <c r="I534">
+        <v>12.87</v>
+      </c>
+      <c r="J534">
+        <v>29</v>
+      </c>
+      <c r="K534">
+        <v>0.84</v>
+      </c>
+      <c r="L534">
+        <v>41.26</v>
+      </c>
+      <c r="M534">
+        <v>36.39</v>
+      </c>
+      <c r="N534">
+        <v>10.72</v>
+      </c>
+      <c r="O534">
+        <v>43.31</v>
+      </c>
+      <c r="P534">
+        <v>44</v>
+      </c>
+      <c r="Q534">
+        <v>64</v>
+      </c>
+      <c r="R534">
+        <v>50</v>
+      </c>
+      <c r="S534">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>280</v>
+      </c>
+      <c r="C535" t="s">
+        <v>290</v>
+      </c>
+      <c r="D535" t="s">
+        <v>191</v>
+      </c>
+      <c r="E535">
+        <v>23</v>
+      </c>
+      <c r="F535">
+        <v>1.83</v>
+      </c>
+      <c r="G535">
+        <v>0.83</v>
+      </c>
+      <c r="H535">
+        <v>15.22</v>
+      </c>
+      <c r="I535">
+        <v>9.39</v>
+      </c>
+      <c r="J535">
+        <v>14</v>
+      </c>
+      <c r="K535">
+        <v>0.87</v>
+      </c>
+      <c r="L535">
+        <v>42.74</v>
+      </c>
+      <c r="M535">
+        <v>31.3</v>
+      </c>
+      <c r="N535">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="O535">
+        <v>46.3</v>
+      </c>
+      <c r="P535">
+        <v>54</v>
+      </c>
+      <c r="Q535">
+        <v>75</v>
+      </c>
+      <c r="R535">
+        <v>53</v>
+      </c>
+      <c r="S535">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>281</v>
+      </c>
+      <c r="C536" t="s">
+        <v>290</v>
+      </c>
+      <c r="D536" t="s">
+        <v>191</v>
+      </c>
+      <c r="E536">
+        <v>24</v>
+      </c>
+      <c r="F536">
+        <v>1.72</v>
+      </c>
+      <c r="G536">
+        <v>0.74</v>
+      </c>
+      <c r="H536">
+        <v>14.5</v>
+      </c>
+      <c r="I536">
+        <v>8.08</v>
+      </c>
+      <c r="J536">
+        <v>12</v>
+      </c>
+      <c r="K536">
+        <v>0.88</v>
+      </c>
+      <c r="L536">
+        <v>61.17</v>
+      </c>
+      <c r="M536">
+        <v>24.13</v>
+      </c>
+      <c r="N536">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="O536">
+        <v>50.3</v>
+      </c>
+      <c r="P536">
+        <v>59</v>
+      </c>
+      <c r="Q536">
+        <v>76</v>
+      </c>
+      <c r="R536">
+        <v>64</v>
+      </c>
+      <c r="S536">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>282</v>
+      </c>
+      <c r="C537" t="s">
+        <v>290</v>
+      </c>
+      <c r="D537" t="s">
+        <v>191</v>
+      </c>
+      <c r="E537">
+        <v>23</v>
+      </c>
+      <c r="F537">
+        <v>1.18</v>
+      </c>
+      <c r="G537">
+        <v>1.49</v>
+      </c>
+      <c r="H537">
+        <v>10.78</v>
+      </c>
+      <c r="I537">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="J537">
+        <v>24</v>
+      </c>
+      <c r="K537">
+        <v>0.89</v>
+      </c>
+      <c r="L537">
+        <v>33.74</v>
+      </c>
+      <c r="M537">
+        <v>49.09</v>
+      </c>
+      <c r="N537">
+        <v>10.55</v>
+      </c>
+      <c r="O537">
+        <v>42.92</v>
+      </c>
+      <c r="P537">
+        <v>44</v>
+      </c>
+      <c r="Q537">
+        <v>69</v>
+      </c>
+      <c r="R537">
+        <v>46</v>
+      </c>
+      <c r="S537">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>283</v>
+      </c>
+      <c r="C538" t="s">
+        <v>290</v>
+      </c>
+      <c r="D538" t="s">
+        <v>191</v>
+      </c>
+      <c r="E538">
+        <v>23</v>
+      </c>
+      <c r="F538">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G538">
+        <v>1.22</v>
+      </c>
+      <c r="H538">
+        <v>11.57</v>
+      </c>
+      <c r="I538">
+        <v>11.13</v>
+      </c>
+      <c r="J538">
+        <v>28</v>
+      </c>
+      <c r="K538">
+        <v>0.89</v>
+      </c>
+      <c r="L538">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="M538">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="N538">
+        <v>10.82</v>
+      </c>
+      <c r="O538">
+        <v>43.03</v>
+      </c>
+      <c r="P538">
+        <v>46</v>
+      </c>
+      <c r="Q538">
+        <v>67</v>
+      </c>
+      <c r="R538">
+        <v>51</v>
+      </c>
+      <c r="S538">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>284</v>
+      </c>
+      <c r="C539" t="s">
+        <v>290</v>
+      </c>
+      <c r="D539" t="s">
+        <v>191</v>
+      </c>
+      <c r="E539">
+        <v>24</v>
+      </c>
+      <c r="F539">
+        <v>1</v>
+      </c>
+      <c r="G539">
+        <v>1.62</v>
+      </c>
+      <c r="H539">
+        <v>11.63</v>
+      </c>
+      <c r="I539">
+        <v>14.42</v>
+      </c>
+      <c r="J539">
+        <v>27</v>
+      </c>
+      <c r="K539">
+        <v>0.86</v>
+      </c>
+      <c r="L539">
+        <v>35.29</v>
+      </c>
+      <c r="M539">
+        <v>42.71</v>
+      </c>
+      <c r="N539">
+        <v>9.67</v>
+      </c>
+      <c r="O539">
+        <v>43.15</v>
+      </c>
+      <c r="P539">
+        <v>43</v>
+      </c>
+      <c r="Q539">
+        <v>68</v>
+      </c>
+      <c r="R539">
+        <v>45</v>
+      </c>
+      <c r="S539">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>285</v>
+      </c>
+      <c r="C540" t="s">
+        <v>290</v>
+      </c>
+      <c r="D540" t="s">
+        <v>191</v>
+      </c>
+      <c r="E540">
+        <v>23</v>
+      </c>
+      <c r="F540">
+        <v>0.83</v>
+      </c>
+      <c r="G540">
+        <v>1.47</v>
+      </c>
+      <c r="H540">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I540">
+        <v>15.48</v>
+      </c>
+      <c r="J540">
+        <v>26</v>
+      </c>
+      <c r="K540">
+        <v>0.89</v>
+      </c>
+      <c r="L540">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="M540">
+        <v>45.26</v>
+      </c>
+      <c r="N540">
+        <v>10.16</v>
+      </c>
+      <c r="O540">
+        <v>43.04</v>
+      </c>
+      <c r="P540">
+        <v>43</v>
+      </c>
+      <c r="Q540">
+        <v>64</v>
+      </c>
+      <c r="R540">
+        <v>50</v>
+      </c>
+      <c r="S540">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>286</v>
+      </c>
+      <c r="C541" t="s">
+        <v>290</v>
+      </c>
+      <c r="D541" t="s">
+        <v>191</v>
+      </c>
+      <c r="E541">
+        <v>24</v>
+      </c>
+      <c r="F541">
+        <v>0.92</v>
+      </c>
+      <c r="G541">
+        <v>1.01</v>
+      </c>
+      <c r="H541">
+        <v>11.42</v>
+      </c>
+      <c r="I541">
+        <v>11.29</v>
+      </c>
+      <c r="J541">
+        <v>19</v>
+      </c>
+      <c r="K541">
+        <v>0.81</v>
+      </c>
+      <c r="L541">
+        <v>35.42</v>
+      </c>
+      <c r="M541">
+        <v>42.67</v>
+      </c>
+      <c r="N541">
+        <v>11.46</v>
+      </c>
+      <c r="O541">
+        <v>43.9</v>
+      </c>
+      <c r="P541">
+        <v>45</v>
+      </c>
+      <c r="Q541">
+        <v>70</v>
+      </c>
+      <c r="R541">
+        <v>45</v>
+      </c>
+      <c r="S541">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>287</v>
+      </c>
+      <c r="C542" t="s">
+        <v>290</v>
+      </c>
+      <c r="D542" t="s">
+        <v>191</v>
+      </c>
+      <c r="E542">
+        <v>23</v>
+      </c>
+      <c r="F542">
+        <v>0.89</v>
+      </c>
+      <c r="G542">
+        <v>1.37</v>
+      </c>
+      <c r="H542">
+        <v>9.43</v>
+      </c>
+      <c r="I542">
+        <v>14.13</v>
+      </c>
+      <c r="J542">
+        <v>21</v>
+      </c>
+      <c r="K542">
+        <v>0.84</v>
+      </c>
+      <c r="L542">
+        <v>26.35</v>
+      </c>
+      <c r="M542">
+        <v>54.74</v>
+      </c>
+      <c r="N542">
+        <v>14.46</v>
+      </c>
+      <c r="O542">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="P542">
+        <v>37</v>
+      </c>
+      <c r="Q542">
+        <v>70</v>
+      </c>
+      <c r="R542">
+        <v>36</v>
+      </c>
+      <c r="S542">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>288</v>
+      </c>
+      <c r="C543" t="s">
+        <v>290</v>
+      </c>
+      <c r="D543" t="s">
+        <v>191</v>
+      </c>
+      <c r="E543">
+        <v>23</v>
+      </c>
+      <c r="F543">
+        <v>0.98</v>
+      </c>
+      <c r="G543">
+        <v>1.5</v>
+      </c>
+      <c r="H543">
+        <v>10.35</v>
+      </c>
+      <c r="I543">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="J543">
+        <v>26</v>
+      </c>
+      <c r="K543">
+        <v>0.9</v>
+      </c>
+      <c r="L543">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="M543">
+        <v>51.61</v>
+      </c>
+      <c r="N543">
+        <v>12.34</v>
+      </c>
+      <c r="O543">
+        <v>42.68</v>
+      </c>
+      <c r="P543">
+        <v>45</v>
+      </c>
+      <c r="Q543">
+        <v>69</v>
+      </c>
+      <c r="R543">
+        <v>42</v>
+      </c>
+      <c r="S543">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>289</v>
+      </c>
+      <c r="C544" t="s">
+        <v>290</v>
+      </c>
+      <c r="D544" t="s">
+        <v>191</v>
+      </c>
+      <c r="E544">
+        <v>23</v>
+      </c>
+      <c r="F544">
+        <v>1.24</v>
+      </c>
+      <c r="G544">
+        <v>1.08</v>
+      </c>
+      <c r="H544">
+        <v>10.83</v>
+      </c>
+      <c r="I544">
+        <v>13.91</v>
+      </c>
+      <c r="J544">
+        <v>32</v>
+      </c>
+      <c r="K544">
+        <v>0.83</v>
+      </c>
+      <c r="L544">
+        <v>31.96</v>
+      </c>
+      <c r="M544">
+        <v>51.52</v>
+      </c>
+      <c r="N544">
+        <v>10.02</v>
+      </c>
+      <c r="O544">
+        <v>45.63</v>
+      </c>
+      <c r="P544">
+        <v>48</v>
+      </c>
+      <c r="Q544">
+        <v>72</v>
+      </c>
+      <c r="R544">
+        <v>43</v>
+      </c>
+      <c r="S544">
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B304A-67EC-4CB8-BB27-88DCC5DBA464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2146488-E938-4621-BFF9-6D824BFDF814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidado!$A$1:$S$434</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidado!$A$1:$S$544</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="293">
   <si>
     <t>Liga</t>
   </si>
@@ -913,6 +913,12 @@
   <si>
     <t>Inglaterra</t>
   </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Coritiba Fbc</t>
+  </si>
 </sst>
 </file>
 
@@ -1283,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S544"/>
+  <dimension ref="A1:S564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K519" workbookViewId="0">
-      <selection activeCell="F530" sqref="F530"/>
+    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="E558" sqref="E558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24552,7 +24558,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="C415" t="s">
         <v>48</v>
@@ -24561,54 +24567,54 @@
         <v>2021</v>
       </c>
       <c r="E415">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F415">
-        <v>1.17</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G415">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="H415">
-        <v>15.08</v>
+        <v>14.36</v>
       </c>
       <c r="I415">
-        <v>12.37</v>
+        <v>11.72</v>
       </c>
       <c r="J415">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K415">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L415">
-        <v>46.5</v>
+        <v>47.96</v>
       </c>
       <c r="M415">
-        <v>43.68</v>
+        <v>40.68</v>
       </c>
       <c r="N415">
-        <v>7.83</v>
+        <v>7.79</v>
       </c>
       <c r="O415">
-        <v>44.84</v>
+        <v>44.73</v>
       </c>
       <c r="P415">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q415">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R415">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S415">
-        <v>2.0299999999999998</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C416" t="s">
         <v>48</v>
@@ -24617,54 +24623,54 @@
         <v>2021</v>
       </c>
       <c r="E416">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F416">
-        <v>1.0900000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G416">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="H416">
-        <v>14.21</v>
+        <v>13.22</v>
       </c>
       <c r="I416">
-        <v>11.84</v>
+        <v>10.83</v>
       </c>
       <c r="J416">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K416">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="L416">
-        <v>47.47</v>
+        <v>56.17</v>
       </c>
       <c r="M416">
-        <v>40.74</v>
+        <v>39.83</v>
       </c>
       <c r="N416">
-        <v>7.57</v>
+        <v>7.6</v>
       </c>
       <c r="O416">
-        <v>44.51</v>
+        <v>45.14</v>
       </c>
       <c r="P416">
         <v>43</v>
       </c>
       <c r="Q416">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R416">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S416">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="C417" t="s">
         <v>48</v>
@@ -24673,54 +24679,54 @@
         <v>2021</v>
       </c>
       <c r="E417">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F417">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G417">
-        <v>0.94</v>
+        <v>1.08</v>
       </c>
       <c r="H417">
-        <v>14.47</v>
+        <v>14.56</v>
       </c>
       <c r="I417">
-        <v>10.92</v>
+        <v>11.76</v>
       </c>
       <c r="J417">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K417">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L417">
-        <v>54.71</v>
+        <v>45.44</v>
       </c>
       <c r="M417">
-        <v>40.39</v>
+        <v>44.88</v>
       </c>
       <c r="N417">
-        <v>7.33</v>
+        <v>8.31</v>
       </c>
       <c r="O417">
-        <v>45.38</v>
+        <v>44.96</v>
       </c>
       <c r="P417">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q417">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R417">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S417">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C418" t="s">
         <v>48</v>
@@ -24729,54 +24735,54 @@
         <v>2021</v>
       </c>
       <c r="E418">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F418">
-        <v>1.06</v>
+        <v>1.58</v>
       </c>
       <c r="G418">
-        <v>1.1100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H418">
-        <v>13.26</v>
+        <v>15.32</v>
       </c>
       <c r="I418">
-        <v>13.68</v>
+        <v>10.32</v>
       </c>
       <c r="J418">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K418">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L418">
-        <v>47.08</v>
+        <v>63.5</v>
       </c>
       <c r="M418">
-        <v>44.08</v>
+        <v>31.55</v>
       </c>
       <c r="N418">
-        <v>7.91</v>
+        <v>5.75</v>
       </c>
       <c r="O418">
-        <v>43.24</v>
+        <v>47.31</v>
       </c>
       <c r="P418">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q418">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R418">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="S418">
-        <v>1.84</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C419" t="s">
         <v>48</v>
@@ -24785,54 +24791,54 @@
         <v>2021</v>
       </c>
       <c r="E419">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F419">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="G419">
-        <v>0.94</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H419">
-        <v>15.39</v>
+        <v>12.83</v>
       </c>
       <c r="I419">
-        <v>10.97</v>
+        <v>14.08</v>
       </c>
       <c r="J419">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K419">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="L419">
-        <v>63.05</v>
+        <v>47.63</v>
       </c>
       <c r="M419">
-        <v>33.47</v>
+        <v>44.71</v>
       </c>
       <c r="N419">
-        <v>5.96</v>
+        <v>8.15</v>
       </c>
       <c r="O419">
-        <v>47.53</v>
+        <v>43.27</v>
       </c>
       <c r="P419">
+        <v>47</v>
+      </c>
+      <c r="Q419">
+        <v>68</v>
+      </c>
+      <c r="R419">
         <v>51</v>
       </c>
-      <c r="Q419">
-        <v>75</v>
-      </c>
-      <c r="R419">
-        <v>59</v>
-      </c>
       <c r="S419">
-        <v>2.16</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="C420" t="s">
         <v>48</v>
@@ -24841,54 +24847,54 @@
         <v>2021</v>
       </c>
       <c r="E420">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F420">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="G420">
-        <v>0.99</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H420">
-        <v>13.26</v>
+        <v>13.42</v>
       </c>
       <c r="I420">
-        <v>13.39</v>
+        <v>10.42</v>
       </c>
       <c r="J420">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K420">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="L420">
-        <v>47.13</v>
+        <v>57.04</v>
       </c>
       <c r="M420">
-        <v>43.68</v>
+        <v>37.33</v>
       </c>
       <c r="N420">
-        <v>9.57</v>
+        <v>6.31</v>
       </c>
       <c r="O420">
-        <v>44.85</v>
+        <v>45.92</v>
       </c>
       <c r="P420">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q420">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R420">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="S420">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C421" t="s">
         <v>48</v>
@@ -24897,54 +24903,54 @@
         <v>2021</v>
       </c>
       <c r="E421">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F421">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="G421">
-        <v>0.74</v>
+        <v>1.07</v>
       </c>
       <c r="H421">
-        <v>14</v>
+        <v>12.83</v>
       </c>
       <c r="I421">
-        <v>9.5</v>
+        <v>13.79</v>
       </c>
       <c r="J421">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K421">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="L421">
-        <v>51.13</v>
+        <v>47.33</v>
       </c>
       <c r="M421">
-        <v>40.049999999999997</v>
+        <v>45.63</v>
       </c>
       <c r="N421">
-        <v>7.54</v>
+        <v>10.28</v>
       </c>
       <c r="O421">
-        <v>45.34</v>
+        <v>44.38</v>
       </c>
       <c r="P421">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q421">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R421">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="S421">
-        <v>1.99</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="C422" t="s">
         <v>48</v>
@@ -24953,54 +24959,54 @@
         <v>2021</v>
       </c>
       <c r="E422">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F422">
-        <v>0.84</v>
+        <v>1.48</v>
       </c>
       <c r="G422">
-        <v>1.1399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="H422">
-        <v>12.18</v>
+        <v>14.92</v>
       </c>
       <c r="I422">
-        <v>14.95</v>
+        <v>12.25</v>
       </c>
       <c r="J422">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K422">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L422">
-        <v>38.97</v>
+        <v>50.17</v>
       </c>
       <c r="M422">
-        <v>52.42</v>
+        <v>44.21</v>
       </c>
       <c r="N422">
-        <v>9.44</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="O422">
-        <v>42.56</v>
+        <v>43.17</v>
       </c>
       <c r="P422">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q422">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R422">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S422">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C423" t="s">
         <v>48</v>
@@ -25009,54 +25015,54 @@
         <v>2021</v>
       </c>
       <c r="E423">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F423">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="H423">
-        <v>14.42</v>
+        <v>13.42</v>
       </c>
       <c r="I423">
-        <v>13.32</v>
+        <v>9.67</v>
       </c>
       <c r="J423">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K423">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="L423">
-        <v>47.03</v>
+        <v>51</v>
       </c>
       <c r="M423">
-        <v>45.82</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="N423">
-        <v>8.49</v>
+        <v>7.77</v>
       </c>
       <c r="O423">
-        <v>42.86</v>
+        <v>44.71</v>
       </c>
       <c r="P423">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q423">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R423">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S423">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="C424" t="s">
         <v>48</v>
@@ -25065,54 +25071,54 @@
         <v>2021</v>
       </c>
       <c r="E424">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F424">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="G424">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="H424">
-        <v>10.87</v>
+        <v>13.43</v>
       </c>
       <c r="I424">
-        <v>13.34</v>
+        <v>11.7</v>
       </c>
       <c r="J424">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K424">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L424">
-        <v>39.68</v>
+        <v>43.74</v>
       </c>
       <c r="M424">
-        <v>54.08</v>
+        <v>41.83</v>
       </c>
       <c r="N424">
-        <v>9.2799999999999994</v>
+        <v>7.54</v>
       </c>
       <c r="O424">
-        <v>42.65</v>
+        <v>45.42</v>
       </c>
       <c r="P424">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q424">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R424">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S424">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C425" t="s">
         <v>48</v>
@@ -25121,46 +25127,46 @@
         <v>2021</v>
       </c>
       <c r="E425">
+        <v>25</v>
+      </c>
+      <c r="F425">
+        <v>0.77</v>
+      </c>
+      <c r="G425">
+        <v>1.08</v>
+      </c>
+      <c r="H425">
+        <v>10.8</v>
+      </c>
+      <c r="I425">
+        <v>13.96</v>
+      </c>
+      <c r="J425">
+        <v>31</v>
+      </c>
+      <c r="K425">
+        <v>0.87</v>
+      </c>
+      <c r="L425">
+        <v>36.6</v>
+      </c>
+      <c r="M425">
+        <v>54.04</v>
+      </c>
+      <c r="N425">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="O425">
+        <v>42.01</v>
+      </c>
+      <c r="P425">
         <v>38</v>
       </c>
-      <c r="F425">
-        <v>0.89</v>
-      </c>
-      <c r="G425">
-        <v>1.06</v>
-      </c>
-      <c r="H425">
-        <v>12.24</v>
-      </c>
-      <c r="I425">
-        <v>12</v>
-      </c>
-      <c r="J425">
-        <v>28</v>
-      </c>
-      <c r="K425">
-        <v>0.86</v>
-      </c>
-      <c r="L425">
-        <v>51.47</v>
-      </c>
-      <c r="M425">
-        <v>42.71</v>
-      </c>
-      <c r="N425">
-        <v>7.23</v>
-      </c>
-      <c r="O425">
-        <v>44.59</v>
-      </c>
-      <c r="P425">
-        <v>45</v>
-      </c>
       <c r="Q425">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R425">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="S425">
         <v>1.56</v>
@@ -25168,7 +25174,7 @@
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="C426" t="s">
         <v>48</v>
@@ -25177,54 +25183,54 @@
         <v>2021</v>
       </c>
       <c r="E426">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F426">
-        <v>1.1200000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="G426">
-        <v>1.04</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H426">
-        <v>13.34</v>
+        <v>10.38</v>
       </c>
       <c r="I426">
-        <v>13.55</v>
+        <v>12.96</v>
       </c>
       <c r="J426">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K426">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L426">
-        <v>42.95</v>
+        <v>38.92</v>
       </c>
       <c r="M426">
-        <v>43.47</v>
+        <v>53.63</v>
       </c>
       <c r="N426">
-        <v>7.95</v>
+        <v>9.14</v>
       </c>
       <c r="O426">
-        <v>44.25</v>
+        <v>42.4</v>
       </c>
       <c r="P426">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q426">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R426">
         <v>47</v>
       </c>
       <c r="S426">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C427" t="s">
         <v>48</v>
@@ -25233,54 +25239,54 @@
         <v>2021</v>
       </c>
       <c r="E427">
+        <v>25</v>
+      </c>
+      <c r="F427">
+        <v>0.66</v>
+      </c>
+      <c r="G427">
+        <v>0.91</v>
+      </c>
+      <c r="H427">
+        <v>10.24</v>
+      </c>
+      <c r="I427">
+        <v>12.44</v>
+      </c>
+      <c r="J427">
+        <v>36</v>
+      </c>
+      <c r="K427">
+        <v>0.82</v>
+      </c>
+      <c r="L427">
+        <v>36</v>
+      </c>
+      <c r="M427">
+        <v>53.72</v>
+      </c>
+      <c r="N427">
+        <v>10.88</v>
+      </c>
+      <c r="O427">
+        <v>42.64</v>
+      </c>
+      <c r="P427">
         <v>38</v>
       </c>
-      <c r="F427">
-        <v>1</v>
-      </c>
-      <c r="G427">
-        <v>0.95</v>
-      </c>
-      <c r="H427">
-        <v>12.29</v>
-      </c>
-      <c r="I427">
-        <v>12.82</v>
-      </c>
-      <c r="J427">
-        <v>30</v>
-      </c>
-      <c r="K427">
-        <v>0.85</v>
-      </c>
-      <c r="L427">
-        <v>41.95</v>
-      </c>
-      <c r="M427">
-        <v>53.76</v>
-      </c>
-      <c r="N427">
-        <v>7.99</v>
-      </c>
-      <c r="O427">
-        <v>43.06</v>
-      </c>
-      <c r="P427">
-        <v>42</v>
-      </c>
       <c r="Q427">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R427">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S427">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C428" t="s">
         <v>48</v>
@@ -25289,54 +25295,54 @@
         <v>2021</v>
       </c>
       <c r="E428">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F428">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="G428">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="H428">
-        <v>10.82</v>
+        <v>9.58</v>
       </c>
       <c r="I428">
-        <v>12.05</v>
+        <v>13.46</v>
       </c>
       <c r="J428">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K428">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="L428">
-        <v>36.92</v>
+        <v>37.42</v>
       </c>
       <c r="M428">
-        <v>52.29</v>
+        <v>52.17</v>
       </c>
       <c r="N428">
-        <v>10.36</v>
+        <v>8.31</v>
       </c>
       <c r="O428">
-        <v>43.03</v>
+        <v>43.24</v>
       </c>
       <c r="P428">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q428">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R428">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S428">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C429" t="s">
         <v>48</v>
@@ -25345,54 +25351,54 @@
         <v>2021</v>
       </c>
       <c r="E429">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F429">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="G429">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="H429">
-        <v>11.87</v>
+        <v>11.79</v>
       </c>
       <c r="I429">
-        <v>11.03</v>
+        <v>12.96</v>
       </c>
       <c r="J429">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K429">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="L429">
-        <v>50.24</v>
+        <v>41.83</v>
       </c>
       <c r="M429">
-        <v>38.47</v>
+        <v>54.38</v>
       </c>
       <c r="N429">
-        <v>6.25</v>
+        <v>7.92</v>
       </c>
       <c r="O429">
-        <v>46.11</v>
+        <v>43.92</v>
       </c>
       <c r="P429">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q429">
         <v>71</v>
       </c>
       <c r="R429">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="S429">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="C430" t="s">
         <v>48</v>
@@ -25401,54 +25407,54 @@
         <v>2021</v>
       </c>
       <c r="E430">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F430">
-        <v>0.81</v>
+        <v>1.06</v>
       </c>
       <c r="G430">
-        <v>1.0900000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="H430">
-        <v>10.34</v>
+        <v>10.8</v>
       </c>
       <c r="I430">
-        <v>14.03</v>
+        <v>16.16</v>
       </c>
       <c r="J430">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K430">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="L430">
-        <v>39.950000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="M430">
-        <v>52.68</v>
+        <v>53.52</v>
       </c>
       <c r="N430">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="O430">
-        <v>42.54</v>
+        <v>41.87</v>
       </c>
       <c r="P430">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q430">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R430">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="S430">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C431" t="s">
         <v>48</v>
@@ -25457,49 +25463,49 @@
         <v>2021</v>
       </c>
       <c r="E431">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F431">
         <v>0.98</v>
       </c>
       <c r="G431">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H431">
-        <v>10.97</v>
+        <v>10.83</v>
       </c>
       <c r="I431">
-        <v>11.58</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="J431">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K431">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L431">
-        <v>43.24</v>
+        <v>49.33</v>
       </c>
       <c r="M431">
-        <v>48.05</v>
+        <v>35.29</v>
       </c>
       <c r="N431">
-        <v>9.08</v>
+        <v>5.97</v>
       </c>
       <c r="O431">
-        <v>43.36</v>
+        <v>47.02</v>
       </c>
       <c r="P431">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q431">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R431">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="S431">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.3">
@@ -25513,54 +25519,54 @@
         <v>2021</v>
       </c>
       <c r="E432">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F432">
-        <v>1.1100000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G432">
         <v>1.22</v>
       </c>
       <c r="H432">
-        <v>12.18</v>
+        <v>11.67</v>
       </c>
       <c r="I432">
-        <v>12.66</v>
+        <v>11.83</v>
       </c>
       <c r="J432">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K432">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L432">
-        <v>45.05</v>
+        <v>43.92</v>
       </c>
       <c r="M432">
-        <v>45</v>
+        <v>43.79</v>
       </c>
       <c r="N432">
-        <v>8.08</v>
+        <v>8.06</v>
       </c>
       <c r="O432">
-        <v>43.63</v>
+        <v>43.83</v>
       </c>
       <c r="P432">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q432">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R432">
         <v>51</v>
       </c>
       <c r="S432">
-        <v>1.79</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>245</v>
+        <v>59</v>
       </c>
       <c r="C433" t="s">
         <v>48</v>
@@ -25569,49 +25575,49 @@
         <v>2021</v>
       </c>
       <c r="E433">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F433">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="G433">
-        <v>1.51</v>
+        <v>0.91</v>
       </c>
       <c r="H433">
-        <v>10.61</v>
+        <v>10.42</v>
       </c>
       <c r="I433">
-        <v>16.420000000000002</v>
+        <v>11.42</v>
       </c>
       <c r="J433">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K433">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L433">
-        <v>35.869999999999997</v>
+        <v>39.92</v>
       </c>
       <c r="M433">
-        <v>57.42</v>
+        <v>49.46</v>
       </c>
       <c r="N433">
-        <v>10.65</v>
+        <v>9.51</v>
       </c>
       <c r="O433">
-        <v>41.32</v>
+        <v>43.63</v>
       </c>
       <c r="P433">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q433">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R433">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="S433">
-        <v>1.19</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.3">
@@ -25625,49 +25631,49 @@
         <v>2021</v>
       </c>
       <c r="E434">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F434">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="G434">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="H434">
-        <v>10.74</v>
+        <v>10.24</v>
       </c>
       <c r="I434">
-        <v>12.13</v>
+        <v>12.48</v>
       </c>
       <c r="J434">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K434">
         <v>0.86</v>
       </c>
       <c r="L434">
-        <v>48.89</v>
+        <v>45.28</v>
       </c>
       <c r="M434">
-        <v>47</v>
+        <v>49.68</v>
       </c>
       <c r="N434">
-        <v>10.210000000000001</v>
+        <v>10.66</v>
       </c>
       <c r="O434">
-        <v>43.22</v>
+        <v>43.39</v>
       </c>
       <c r="P434">
         <v>41</v>
       </c>
       <c r="Q434">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R434">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S434">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.3">
@@ -31830,8 +31836,1128 @@
         <v>2.14</v>
       </c>
     </row>
+    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>57</v>
+      </c>
+      <c r="C545" t="s">
+        <v>48</v>
+      </c>
+      <c r="D545">
+        <v>2023</v>
+      </c>
+      <c r="E545">
+        <v>38</v>
+      </c>
+      <c r="F545">
+        <v>1.44</v>
+      </c>
+      <c r="G545">
+        <v>0.98</v>
+      </c>
+      <c r="H545">
+        <v>16.71</v>
+      </c>
+      <c r="I545">
+        <v>11.61</v>
+      </c>
+      <c r="J545">
+        <v>19</v>
+      </c>
+      <c r="K545">
+        <v>0.84</v>
+      </c>
+      <c r="L545">
+        <v>55.87</v>
+      </c>
+      <c r="M545">
+        <v>31.68</v>
+      </c>
+      <c r="N545">
+        <v>5.87</v>
+      </c>
+      <c r="O545">
+        <v>48.41</v>
+      </c>
+      <c r="P545">
+        <v>54</v>
+      </c>
+      <c r="Q545">
+        <v>77</v>
+      </c>
+      <c r="R545">
+        <v>57</v>
+      </c>
+      <c r="S545">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>59</v>
+      </c>
+      <c r="C546" t="s">
+        <v>48</v>
+      </c>
+      <c r="D546">
+        <v>2023</v>
+      </c>
+      <c r="E546">
+        <v>38</v>
+      </c>
+      <c r="F546">
+        <v>1.18</v>
+      </c>
+      <c r="G546">
+        <v>1.04</v>
+      </c>
+      <c r="H546">
+        <v>14.58</v>
+      </c>
+      <c r="I546">
+        <v>14.08</v>
+      </c>
+      <c r="J546">
+        <v>24</v>
+      </c>
+      <c r="K546">
+        <v>0.84</v>
+      </c>
+      <c r="L546">
+        <v>55.13</v>
+      </c>
+      <c r="M546">
+        <v>39.26</v>
+      </c>
+      <c r="N546">
+        <v>7.2</v>
+      </c>
+      <c r="O546">
+        <v>46.94</v>
+      </c>
+      <c r="P546">
+        <v>49</v>
+      </c>
+      <c r="Q546">
+        <v>72</v>
+      </c>
+      <c r="R546">
+        <v>62</v>
+      </c>
+      <c r="S546">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="547" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>49</v>
+      </c>
+      <c r="C547" t="s">
+        <v>48</v>
+      </c>
+      <c r="D547">
+        <v>2023</v>
+      </c>
+      <c r="E547">
+        <v>38</v>
+      </c>
+      <c r="F547">
+        <v>1.38</v>
+      </c>
+      <c r="G547">
+        <v>0.86</v>
+      </c>
+      <c r="H547">
+        <v>16</v>
+      </c>
+      <c r="I547">
+        <v>11.13</v>
+      </c>
+      <c r="J547">
+        <v>32</v>
+      </c>
+      <c r="K547">
+        <v>0.85</v>
+      </c>
+      <c r="L547">
+        <v>49.68</v>
+      </c>
+      <c r="M547">
+        <v>41.13</v>
+      </c>
+      <c r="N547">
+        <v>8.58</v>
+      </c>
+      <c r="O547">
+        <v>46.05</v>
+      </c>
+      <c r="P547">
+        <v>45</v>
+      </c>
+      <c r="Q547">
+        <v>73</v>
+      </c>
+      <c r="R547">
+        <v>53</v>
+      </c>
+      <c r="S547">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>53</v>
+      </c>
+      <c r="C548" t="s">
+        <v>48</v>
+      </c>
+      <c r="D548">
+        <v>2023</v>
+      </c>
+      <c r="E548">
+        <v>38</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
+      </c>
+      <c r="G548">
+        <v>0.79</v>
+      </c>
+      <c r="H548">
+        <v>13.63</v>
+      </c>
+      <c r="I548">
+        <v>11.76</v>
+      </c>
+      <c r="J548">
+        <v>21</v>
+      </c>
+      <c r="K548">
+        <v>0.84</v>
+      </c>
+      <c r="L548">
+        <v>52.97</v>
+      </c>
+      <c r="M548">
+        <v>36.42</v>
+      </c>
+      <c r="N548">
+        <v>8.26</v>
+      </c>
+      <c r="O548">
+        <v>45.83</v>
+      </c>
+      <c r="P548">
+        <v>45</v>
+      </c>
+      <c r="Q548">
+        <v>64</v>
+      </c>
+      <c r="R548">
+        <v>59</v>
+      </c>
+      <c r="S548">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>47</v>
+      </c>
+      <c r="C549" t="s">
+        <v>48</v>
+      </c>
+      <c r="D549">
+        <v>2023</v>
+      </c>
+      <c r="E549">
+        <v>38</v>
+      </c>
+      <c r="F549">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G549">
+        <v>1.21</v>
+      </c>
+      <c r="H549">
+        <v>13.55</v>
+      </c>
+      <c r="I549">
+        <v>12.92</v>
+      </c>
+      <c r="J549">
+        <v>31</v>
+      </c>
+      <c r="K549">
+        <v>0.85</v>
+      </c>
+      <c r="L549">
+        <v>46.87</v>
+      </c>
+      <c r="M549">
+        <v>45.18</v>
+      </c>
+      <c r="N549">
+        <v>10.88</v>
+      </c>
+      <c r="O549">
+        <v>44.05</v>
+      </c>
+      <c r="P549">
+        <v>43</v>
+      </c>
+      <c r="Q549">
+        <v>70</v>
+      </c>
+      <c r="R549">
+        <v>48</v>
+      </c>
+      <c r="S549">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>55</v>
+      </c>
+      <c r="C550" t="s">
+        <v>48</v>
+      </c>
+      <c r="D550">
+        <v>2023</v>
+      </c>
+      <c r="E550">
+        <v>38</v>
+      </c>
+      <c r="F550">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G550">
+        <v>0.96</v>
+      </c>
+      <c r="H550">
+        <v>13.82</v>
+      </c>
+      <c r="I550">
+        <v>10.89</v>
+      </c>
+      <c r="J550">
+        <v>25</v>
+      </c>
+      <c r="K550">
+        <v>0.85</v>
+      </c>
+      <c r="L550">
+        <v>49.53</v>
+      </c>
+      <c r="M550">
+        <v>42.74</v>
+      </c>
+      <c r="N550">
+        <v>9.5</v>
+      </c>
+      <c r="O550">
+        <v>45.31</v>
+      </c>
+      <c r="P550">
+        <v>46</v>
+      </c>
+      <c r="Q550">
+        <v>72</v>
+      </c>
+      <c r="R550">
+        <v>52</v>
+      </c>
+      <c r="S550">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>60</v>
+      </c>
+      <c r="C551" t="s">
+        <v>48</v>
+      </c>
+      <c r="D551">
+        <v>2023</v>
+      </c>
+      <c r="E551">
+        <v>38</v>
+      </c>
+      <c r="F551">
+        <v>1.21</v>
+      </c>
+      <c r="G551">
+        <v>0.96</v>
+      </c>
+      <c r="H551">
+        <v>14.55</v>
+      </c>
+      <c r="I551">
+        <v>13.18</v>
+      </c>
+      <c r="J551">
+        <v>27</v>
+      </c>
+      <c r="K551">
+        <v>0.85</v>
+      </c>
+      <c r="L551">
+        <v>43.05</v>
+      </c>
+      <c r="M551">
+        <v>44.08</v>
+      </c>
+      <c r="N551">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="O551">
+        <v>44.8</v>
+      </c>
+      <c r="P551">
+        <v>44</v>
+      </c>
+      <c r="Q551">
+        <v>70</v>
+      </c>
+      <c r="R551">
+        <v>48</v>
+      </c>
+      <c r="S551">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>241</v>
+      </c>
+      <c r="C552" t="s">
+        <v>48</v>
+      </c>
+      <c r="D552">
+        <v>2023</v>
+      </c>
+      <c r="E552">
+        <v>38</v>
+      </c>
+      <c r="F552">
+        <v>1.03</v>
+      </c>
+      <c r="G552">
+        <v>1.43</v>
+      </c>
+      <c r="H552">
+        <v>13.45</v>
+      </c>
+      <c r="I552">
+        <v>15.76</v>
+      </c>
+      <c r="J552">
+        <v>29</v>
+      </c>
+      <c r="K552">
+        <v>0.85</v>
+      </c>
+      <c r="L552">
+        <v>40.82</v>
+      </c>
+      <c r="M552">
+        <v>59.13</v>
+      </c>
+      <c r="N552">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="O552">
+        <v>43.61</v>
+      </c>
+      <c r="P552">
+        <v>41</v>
+      </c>
+      <c r="Q552">
+        <v>71</v>
+      </c>
+      <c r="R552">
+        <v>43</v>
+      </c>
+      <c r="S552">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>52</v>
+      </c>
+      <c r="C553" t="s">
+        <v>48</v>
+      </c>
+      <c r="D553">
+        <v>2023</v>
+      </c>
+      <c r="E553">
+        <v>38</v>
+      </c>
+      <c r="F553">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G553">
+        <v>0.89</v>
+      </c>
+      <c r="H553">
+        <v>14.26</v>
+      </c>
+      <c r="I553">
+        <v>12.71</v>
+      </c>
+      <c r="J553">
+        <v>24</v>
+      </c>
+      <c r="K553">
+        <v>0.87</v>
+      </c>
+      <c r="L553">
+        <v>46.79</v>
+      </c>
+      <c r="M553">
+        <v>45.87</v>
+      </c>
+      <c r="N553">
+        <v>10.37</v>
+      </c>
+      <c r="O553">
+        <v>43.26</v>
+      </c>
+      <c r="P553">
+        <v>41</v>
+      </c>
+      <c r="Q553">
+        <v>71</v>
+      </c>
+      <c r="R553">
+        <v>47</v>
+      </c>
+      <c r="S553">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>54</v>
+      </c>
+      <c r="C554" t="s">
+        <v>48</v>
+      </c>
+      <c r="D554">
+        <v>2023</v>
+      </c>
+      <c r="E554">
+        <v>38</v>
+      </c>
+      <c r="F554">
+        <v>0.88</v>
+      </c>
+      <c r="G554">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H554">
+        <v>12.08</v>
+      </c>
+      <c r="I554">
+        <v>16.55</v>
+      </c>
+      <c r="J554">
+        <v>24</v>
+      </c>
+      <c r="K554">
+        <v>0.84</v>
+      </c>
+      <c r="L554">
+        <v>45.58</v>
+      </c>
+      <c r="M554">
+        <v>55.92</v>
+      </c>
+      <c r="N554">
+        <v>11.82</v>
+      </c>
+      <c r="O554">
+        <v>41.96</v>
+      </c>
+      <c r="P554">
+        <v>38</v>
+      </c>
+      <c r="Q554">
+        <v>67</v>
+      </c>
+      <c r="R554">
+        <v>49</v>
+      </c>
+      <c r="S554">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="555" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>66</v>
+      </c>
+      <c r="C555" t="s">
+        <v>48</v>
+      </c>
+      <c r="D555">
+        <v>2023</v>
+      </c>
+      <c r="E555">
+        <v>38</v>
+      </c>
+      <c r="F555">
+        <v>0.79</v>
+      </c>
+      <c r="G555">
+        <v>0.98</v>
+      </c>
+      <c r="H555">
+        <v>11.71</v>
+      </c>
+      <c r="I555">
+        <v>12.29</v>
+      </c>
+      <c r="J555">
+        <v>26</v>
+      </c>
+      <c r="K555">
+        <v>0.85</v>
+      </c>
+      <c r="L555">
+        <v>43.13</v>
+      </c>
+      <c r="M555">
+        <v>53.11</v>
+      </c>
+      <c r="N555">
+        <v>12.35</v>
+      </c>
+      <c r="O555">
+        <v>42.86</v>
+      </c>
+      <c r="P555">
+        <v>45</v>
+      </c>
+      <c r="Q555">
+        <v>75</v>
+      </c>
+      <c r="R555">
+        <v>44</v>
+      </c>
+      <c r="S555">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>51</v>
+      </c>
+      <c r="C556" t="s">
+        <v>48</v>
+      </c>
+      <c r="D556">
+        <v>2023</v>
+      </c>
+      <c r="E556">
+        <v>38</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+      <c r="G556">
+        <v>1.05</v>
+      </c>
+      <c r="H556">
+        <v>12.05</v>
+      </c>
+      <c r="I556">
+        <v>12.68</v>
+      </c>
+      <c r="J556">
+        <v>24</v>
+      </c>
+      <c r="K556">
+        <v>0.87</v>
+      </c>
+      <c r="L556">
+        <v>44.82</v>
+      </c>
+      <c r="M556">
+        <v>44.76</v>
+      </c>
+      <c r="N556">
+        <v>10.29</v>
+      </c>
+      <c r="O556">
+        <v>43.98</v>
+      </c>
+      <c r="P556">
+        <v>42</v>
+      </c>
+      <c r="Q556">
+        <v>65</v>
+      </c>
+      <c r="R556">
+        <v>52</v>
+      </c>
+      <c r="S556">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="557" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>50</v>
+      </c>
+      <c r="C557" t="s">
+        <v>48</v>
+      </c>
+      <c r="D557">
+        <v>2023</v>
+      </c>
+      <c r="E557">
+        <v>38</v>
+      </c>
+      <c r="F557">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G557">
+        <v>1.03</v>
+      </c>
+      <c r="H557">
+        <v>12.92</v>
+      </c>
+      <c r="I557">
+        <v>13.79</v>
+      </c>
+      <c r="J557">
+        <v>20</v>
+      </c>
+      <c r="K557">
+        <v>0.86</v>
+      </c>
+      <c r="L557">
+        <v>58.76</v>
+      </c>
+      <c r="M557">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="N557">
+        <v>8.57</v>
+      </c>
+      <c r="O557">
+        <v>45.79</v>
+      </c>
+      <c r="P557">
+        <v>48</v>
+      </c>
+      <c r="Q557">
+        <v>73</v>
+      </c>
+      <c r="R557">
+        <v>58</v>
+      </c>
+      <c r="S557">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="558" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>56</v>
+      </c>
+      <c r="C558" t="s">
+        <v>48</v>
+      </c>
+      <c r="D558">
+        <v>2023</v>
+      </c>
+      <c r="E558">
+        <v>38</v>
+      </c>
+      <c r="F558">
+        <v>1.22</v>
+      </c>
+      <c r="G558">
+        <v>1.3</v>
+      </c>
+      <c r="H558">
+        <v>14.05</v>
+      </c>
+      <c r="I558">
+        <v>12.24</v>
+      </c>
+      <c r="J558">
+        <v>23</v>
+      </c>
+      <c r="K558">
+        <v>0.88</v>
+      </c>
+      <c r="L558">
+        <v>45.34</v>
+      </c>
+      <c r="M558">
+        <v>43.95</v>
+      </c>
+      <c r="N558">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="O558">
+        <v>43.28</v>
+      </c>
+      <c r="P558">
+        <v>42</v>
+      </c>
+      <c r="Q558">
+        <v>69</v>
+      </c>
+      <c r="R558">
+        <v>50</v>
+      </c>
+      <c r="S558">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>291</v>
+      </c>
+      <c r="C559" t="s">
+        <v>48</v>
+      </c>
+      <c r="D559">
+        <v>2023</v>
+      </c>
+      <c r="E559">
+        <v>38</v>
+      </c>
+      <c r="F559">
+        <v>0.9</v>
+      </c>
+      <c r="G559">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H559">
+        <v>13.08</v>
+      </c>
+      <c r="I559">
+        <v>14.18</v>
+      </c>
+      <c r="J559">
+        <v>21</v>
+      </c>
+      <c r="K559">
+        <v>0.85</v>
+      </c>
+      <c r="L559">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="M559">
+        <v>51.63</v>
+      </c>
+      <c r="N559">
+        <v>10.79</v>
+      </c>
+      <c r="O559">
+        <v>44.55</v>
+      </c>
+      <c r="P559">
+        <v>41</v>
+      </c>
+      <c r="Q559">
+        <v>69</v>
+      </c>
+      <c r="R559">
+        <v>45</v>
+      </c>
+      <c r="S559">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>58</v>
+      </c>
+      <c r="C560" t="s">
+        <v>48</v>
+      </c>
+      <c r="D560">
+        <v>2023</v>
+      </c>
+      <c r="E560">
+        <v>38</v>
+      </c>
+      <c r="F560">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G560">
+        <v>1.34</v>
+      </c>
+      <c r="H560">
+        <v>13.32</v>
+      </c>
+      <c r="I560">
+        <v>16.16</v>
+      </c>
+      <c r="J560">
+        <v>19</v>
+      </c>
+      <c r="K560">
+        <v>0.88</v>
+      </c>
+      <c r="L560">
+        <v>44.16</v>
+      </c>
+      <c r="M560">
+        <v>56.03</v>
+      </c>
+      <c r="N560">
+        <v>10.52</v>
+      </c>
+      <c r="O560">
+        <v>43.73</v>
+      </c>
+      <c r="P560">
+        <v>40</v>
+      </c>
+      <c r="Q560">
+        <v>71</v>
+      </c>
+      <c r="R560">
+        <v>47</v>
+      </c>
+      <c r="S560">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>62</v>
+      </c>
+      <c r="C561" t="s">
+        <v>48</v>
+      </c>
+      <c r="D561">
+        <v>2023</v>
+      </c>
+      <c r="E561">
+        <v>38</v>
+      </c>
+      <c r="F561">
+        <v>1.04</v>
+      </c>
+      <c r="G561">
+        <v>0.97</v>
+      </c>
+      <c r="H561">
+        <v>12.61</v>
+      </c>
+      <c r="I561">
+        <v>12.89</v>
+      </c>
+      <c r="J561">
+        <v>22</v>
+      </c>
+      <c r="K561">
+        <v>0.85</v>
+      </c>
+      <c r="L561">
+        <v>47.92</v>
+      </c>
+      <c r="M561">
+        <v>46.87</v>
+      </c>
+      <c r="N561">
+        <v>9</v>
+      </c>
+      <c r="O561">
+        <v>43.28</v>
+      </c>
+      <c r="P561">
+        <v>39</v>
+      </c>
+      <c r="Q561">
+        <v>68</v>
+      </c>
+      <c r="R561">
+        <v>53</v>
+      </c>
+      <c r="S561">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>292</v>
+      </c>
+      <c r="C562" t="s">
+        <v>48</v>
+      </c>
+      <c r="D562">
+        <v>2023</v>
+      </c>
+      <c r="E562">
+        <v>38</v>
+      </c>
+      <c r="F562">
+        <v>0.8</v>
+      </c>
+      <c r="G562">
+        <v>1.39</v>
+      </c>
+      <c r="H562">
+        <v>10.97</v>
+      </c>
+      <c r="I562">
+        <v>15.89</v>
+      </c>
+      <c r="J562">
+        <v>30</v>
+      </c>
+      <c r="K562">
+        <v>0.85</v>
+      </c>
+      <c r="L562">
+        <v>36.21</v>
+      </c>
+      <c r="M562">
+        <v>53.58</v>
+      </c>
+      <c r="N562">
+        <v>10.5</v>
+      </c>
+      <c r="O562">
+        <v>42.3</v>
+      </c>
+      <c r="P562">
+        <v>40</v>
+      </c>
+      <c r="Q562">
+        <v>68</v>
+      </c>
+      <c r="R562">
+        <v>44</v>
+      </c>
+      <c r="S562">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>243</v>
+      </c>
+      <c r="C563" t="s">
+        <v>48</v>
+      </c>
+      <c r="D563">
+        <v>2023</v>
+      </c>
+      <c r="E563">
+        <v>38</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H563">
+        <v>12.39</v>
+      </c>
+      <c r="I563">
+        <v>14.24</v>
+      </c>
+      <c r="J563">
+        <v>18</v>
+      </c>
+      <c r="K563">
+        <v>0.85</v>
+      </c>
+      <c r="L563">
+        <v>38.11</v>
+      </c>
+      <c r="M563">
+        <v>48.24</v>
+      </c>
+      <c r="N563">
+        <v>10.31</v>
+      </c>
+      <c r="O563">
+        <v>43.32</v>
+      </c>
+      <c r="P563">
+        <v>41</v>
+      </c>
+      <c r="Q563">
+        <v>69</v>
+      </c>
+      <c r="R563">
+        <v>44</v>
+      </c>
+      <c r="S563">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>64</v>
+      </c>
+      <c r="C564" t="s">
+        <v>48</v>
+      </c>
+      <c r="D564">
+        <v>2023</v>
+      </c>
+      <c r="E564">
+        <v>38</v>
+      </c>
+      <c r="F564">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G564">
+        <v>1.05</v>
+      </c>
+      <c r="H564">
+        <v>12.55</v>
+      </c>
+      <c r="I564">
+        <v>13.32</v>
+      </c>
+      <c r="J564">
+        <v>37</v>
+      </c>
+      <c r="K564">
+        <v>0.87</v>
+      </c>
+      <c r="L564">
+        <v>44.26</v>
+      </c>
+      <c r="M564">
+        <v>50.42</v>
+      </c>
+      <c r="N564">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="O564">
+        <v>42.95</v>
+      </c>
+      <c r="P564">
+        <v>39</v>
+      </c>
+      <c r="Q564">
+        <v>70</v>
+      </c>
+      <c r="R564">
+        <v>49</v>
+      </c>
+      <c r="S564">
+        <v>1.76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S434" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
+  <autoFilter ref="A1:S544" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S456">
       <sortCondition descending="1" ref="Q1:Q434"/>
     </sortState>

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2146488-E938-4621-BFF9-6D824BFDF814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B887F8-5C35-405B-BB63-E43FAB5CDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="295">
   <si>
     <t>Liga</t>
   </si>
@@ -919,6 +919,12 @@
   <si>
     <t>Coritiba Fbc</t>
   </si>
+  <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
 </sst>
 </file>
 
@@ -1289,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S564"/>
+  <dimension ref="A1:S584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="E558" sqref="E558"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F579" sqref="F579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32956,6 +32962,1126 @@
         <v>1.76</v>
       </c>
     </row>
+    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>281</v>
+      </c>
+      <c r="C565" t="s">
+        <v>290</v>
+      </c>
+      <c r="D565" t="s">
+        <v>294</v>
+      </c>
+      <c r="E565">
+        <v>20</v>
+      </c>
+      <c r="F565">
+        <v>1.67</v>
+      </c>
+      <c r="G565">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H565">
+        <v>17.2</v>
+      </c>
+      <c r="I565">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J565">
+        <v>14</v>
+      </c>
+      <c r="K565">
+        <v>0.86</v>
+      </c>
+      <c r="L565">
+        <v>66.3</v>
+      </c>
+      <c r="M565">
+        <v>30.15</v>
+      </c>
+      <c r="N565">
+        <v>10.33</v>
+      </c>
+      <c r="O565">
+        <v>51.13</v>
+      </c>
+      <c r="P565">
+        <v>61</v>
+      </c>
+      <c r="Q565">
+        <v>79</v>
+      </c>
+      <c r="R565">
+        <v>61</v>
+      </c>
+      <c r="S565">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>288</v>
+      </c>
+      <c r="C566" t="s">
+        <v>290</v>
+      </c>
+      <c r="D566" t="s">
+        <v>294</v>
+      </c>
+      <c r="E566">
+        <v>20</v>
+      </c>
+      <c r="F566">
+        <v>1.61</v>
+      </c>
+      <c r="G566">
+        <v>1.18</v>
+      </c>
+      <c r="H566">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I566">
+        <v>13.05</v>
+      </c>
+      <c r="J566">
+        <v>22</v>
+      </c>
+      <c r="K566">
+        <v>0.86</v>
+      </c>
+      <c r="L566">
+        <v>45</v>
+      </c>
+      <c r="M566">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="N566">
+        <v>8.64</v>
+      </c>
+      <c r="O566">
+        <v>46.65</v>
+      </c>
+      <c r="P566">
+        <v>51</v>
+      </c>
+      <c r="Q566">
+        <v>73</v>
+      </c>
+      <c r="R566">
+        <v>46</v>
+      </c>
+      <c r="S566">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>271</v>
+      </c>
+      <c r="C567" t="s">
+        <v>290</v>
+      </c>
+      <c r="D567" t="s">
+        <v>294</v>
+      </c>
+      <c r="E567">
+        <v>20</v>
+      </c>
+      <c r="F567">
+        <v>1.32</v>
+      </c>
+      <c r="G567">
+        <v>1.27</v>
+      </c>
+      <c r="H567">
+        <v>14.65</v>
+      </c>
+      <c r="I567">
+        <v>12</v>
+      </c>
+      <c r="J567">
+        <v>24</v>
+      </c>
+      <c r="K567">
+        <v>0.88</v>
+      </c>
+      <c r="L567">
+        <v>45.4</v>
+      </c>
+      <c r="M567">
+        <v>34.5</v>
+      </c>
+      <c r="N567">
+        <v>8.83</v>
+      </c>
+      <c r="O567">
+        <v>47.6</v>
+      </c>
+      <c r="P567">
+        <v>57</v>
+      </c>
+      <c r="Q567">
+        <v>70</v>
+      </c>
+      <c r="R567">
+        <v>53</v>
+      </c>
+      <c r="S567">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>287</v>
+      </c>
+      <c r="C568" t="s">
+        <v>290</v>
+      </c>
+      <c r="D568" t="s">
+        <v>294</v>
+      </c>
+      <c r="E568">
+        <v>19</v>
+      </c>
+      <c r="F568">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G568">
+        <v>0.99</v>
+      </c>
+      <c r="H568">
+        <v>13.05</v>
+      </c>
+      <c r="I568">
+        <v>12.89</v>
+      </c>
+      <c r="J568">
+        <v>20</v>
+      </c>
+      <c r="K568">
+        <v>0.88</v>
+      </c>
+      <c r="L568">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="M568">
+        <v>56.05</v>
+      </c>
+      <c r="N568">
+        <v>13.19</v>
+      </c>
+      <c r="O568">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="P568">
+        <v>39</v>
+      </c>
+      <c r="Q568">
+        <v>71</v>
+      </c>
+      <c r="R568">
+        <v>40</v>
+      </c>
+      <c r="S568">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>272</v>
+      </c>
+      <c r="C569" t="s">
+        <v>290</v>
+      </c>
+      <c r="D569" t="s">
+        <v>294</v>
+      </c>
+      <c r="E569">
+        <v>18</v>
+      </c>
+      <c r="F569">
+        <v>1.23</v>
+      </c>
+      <c r="G569">
+        <v>1.23</v>
+      </c>
+      <c r="H569">
+        <v>13.17</v>
+      </c>
+      <c r="I569">
+        <v>10.72</v>
+      </c>
+      <c r="J569">
+        <v>19</v>
+      </c>
+      <c r="K569">
+        <v>0.84</v>
+      </c>
+      <c r="L569">
+        <v>41.33</v>
+      </c>
+      <c r="M569">
+        <v>39.22</v>
+      </c>
+      <c r="N569">
+        <v>9.85</v>
+      </c>
+      <c r="O569">
+        <v>43.67</v>
+      </c>
+      <c r="P569">
+        <v>49</v>
+      </c>
+      <c r="Q569">
+        <v>65</v>
+      </c>
+      <c r="R569">
+        <v>54</v>
+      </c>
+      <c r="S569">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>274</v>
+      </c>
+      <c r="C570" t="s">
+        <v>290</v>
+      </c>
+      <c r="D570" t="s">
+        <v>294</v>
+      </c>
+      <c r="E570">
+        <v>20</v>
+      </c>
+      <c r="F570">
+        <v>1.72</v>
+      </c>
+      <c r="G570">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H570">
+        <v>15.6</v>
+      </c>
+      <c r="I570">
+        <v>10.95</v>
+      </c>
+      <c r="J570">
+        <v>18</v>
+      </c>
+      <c r="K570">
+        <v>0.89</v>
+      </c>
+      <c r="L570">
+        <v>51.15</v>
+      </c>
+      <c r="M570">
+        <v>34.35</v>
+      </c>
+      <c r="N570">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="O570">
+        <v>46.17</v>
+      </c>
+      <c r="P570">
+        <v>54</v>
+      </c>
+      <c r="Q570">
+        <v>68</v>
+      </c>
+      <c r="R570">
+        <v>58</v>
+      </c>
+      <c r="S570">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>286</v>
+      </c>
+      <c r="C571" t="s">
+        <v>290</v>
+      </c>
+      <c r="D571" t="s">
+        <v>294</v>
+      </c>
+      <c r="E571">
+        <v>20</v>
+      </c>
+      <c r="F571">
+        <v>1.34</v>
+      </c>
+      <c r="G571">
+        <v>1.31</v>
+      </c>
+      <c r="H571">
+        <v>14.2</v>
+      </c>
+      <c r="I571">
+        <v>12.85</v>
+      </c>
+      <c r="J571">
+        <v>28</v>
+      </c>
+      <c r="K571">
+        <v>0.86</v>
+      </c>
+      <c r="L571">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="M571">
+        <v>48.2</v>
+      </c>
+      <c r="N571">
+        <v>10.95</v>
+      </c>
+      <c r="O571">
+        <v>42.8</v>
+      </c>
+      <c r="P571">
+        <v>45</v>
+      </c>
+      <c r="Q571">
+        <v>72</v>
+      </c>
+      <c r="R571">
+        <v>44</v>
+      </c>
+      <c r="S571">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>273</v>
+      </c>
+      <c r="C572" t="s">
+        <v>290</v>
+      </c>
+      <c r="D572" t="s">
+        <v>294</v>
+      </c>
+      <c r="E572">
+        <v>18</v>
+      </c>
+      <c r="F572">
+        <v>1.82</v>
+      </c>
+      <c r="G572">
+        <v>0.84</v>
+      </c>
+      <c r="H572">
+        <v>16.39</v>
+      </c>
+      <c r="I572">
+        <v>9.61</v>
+      </c>
+      <c r="J572">
+        <v>17</v>
+      </c>
+      <c r="K572">
+        <v>0.87</v>
+      </c>
+      <c r="L572">
+        <v>53.83</v>
+      </c>
+      <c r="M572">
+        <v>32.94</v>
+      </c>
+      <c r="N572">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="O572">
+        <v>46.91</v>
+      </c>
+      <c r="P572">
+        <v>54</v>
+      </c>
+      <c r="Q572">
+        <v>71</v>
+      </c>
+      <c r="R572">
+        <v>57</v>
+      </c>
+      <c r="S572">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>279</v>
+      </c>
+      <c r="C573" t="s">
+        <v>290</v>
+      </c>
+      <c r="D573" t="s">
+        <v>294</v>
+      </c>
+      <c r="E573">
+        <v>18</v>
+      </c>
+      <c r="F573">
+        <v>1.23</v>
+      </c>
+      <c r="G573">
+        <v>1.05</v>
+      </c>
+      <c r="H573">
+        <v>13.67</v>
+      </c>
+      <c r="I573">
+        <v>12.06</v>
+      </c>
+      <c r="J573">
+        <v>22</v>
+      </c>
+      <c r="K573">
+        <v>0.86</v>
+      </c>
+      <c r="L573">
+        <v>46.44</v>
+      </c>
+      <c r="M573">
+        <v>42.94</v>
+      </c>
+      <c r="N573">
+        <v>11.03</v>
+      </c>
+      <c r="O573">
+        <v>43.57</v>
+      </c>
+      <c r="P573">
+        <v>46</v>
+      </c>
+      <c r="Q573">
+        <v>65</v>
+      </c>
+      <c r="R573">
+        <v>52</v>
+      </c>
+      <c r="S573">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>276</v>
+      </c>
+      <c r="C574" t="s">
+        <v>290</v>
+      </c>
+      <c r="D574" t="s">
+        <v>294</v>
+      </c>
+      <c r="E574">
+        <v>19</v>
+      </c>
+      <c r="F574">
+        <v>0.92</v>
+      </c>
+      <c r="G574">
+        <v>1.27</v>
+      </c>
+      <c r="H574">
+        <v>11.37</v>
+      </c>
+      <c r="I574">
+        <v>13.32</v>
+      </c>
+      <c r="J574">
+        <v>23</v>
+      </c>
+      <c r="K574">
+        <v>0.87</v>
+      </c>
+      <c r="L574">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="M574">
+        <v>46.95</v>
+      </c>
+      <c r="N574">
+        <v>13.09</v>
+      </c>
+      <c r="O574">
+        <v>42.61</v>
+      </c>
+      <c r="P574">
+        <v>47</v>
+      </c>
+      <c r="Q574">
+        <v>74</v>
+      </c>
+      <c r="R574">
+        <v>40</v>
+      </c>
+      <c r="S574">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>277</v>
+      </c>
+      <c r="C575" t="s">
+        <v>290</v>
+      </c>
+      <c r="D575" t="s">
+        <v>294</v>
+      </c>
+      <c r="E575">
+        <v>20</v>
+      </c>
+      <c r="F575">
+        <v>1.22</v>
+      </c>
+      <c r="G575">
+        <v>1.67</v>
+      </c>
+      <c r="H575">
+        <v>14.5</v>
+      </c>
+      <c r="I575">
+        <v>16.5</v>
+      </c>
+      <c r="J575">
+        <v>23</v>
+      </c>
+      <c r="K575">
+        <v>0.89</v>
+      </c>
+      <c r="L575">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="M575">
+        <v>48.8</v>
+      </c>
+      <c r="N575">
+        <v>10.94</v>
+      </c>
+      <c r="O575">
+        <v>43.4</v>
+      </c>
+      <c r="P575">
+        <v>48</v>
+      </c>
+      <c r="Q575">
+        <v>71</v>
+      </c>
+      <c r="R575">
+        <v>46</v>
+      </c>
+      <c r="S575">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>275</v>
+      </c>
+      <c r="C576" t="s">
+        <v>290</v>
+      </c>
+      <c r="D576" t="s">
+        <v>294</v>
+      </c>
+      <c r="E576">
+        <v>20</v>
+      </c>
+      <c r="F576">
+        <v>1.7</v>
+      </c>
+      <c r="G576">
+        <v>1.48</v>
+      </c>
+      <c r="H576">
+        <v>15</v>
+      </c>
+      <c r="I576">
+        <v>12.4</v>
+      </c>
+      <c r="J576">
+        <v>17</v>
+      </c>
+      <c r="K576">
+        <v>0.85</v>
+      </c>
+      <c r="L576">
+        <v>53</v>
+      </c>
+      <c r="M576">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="N576">
+        <v>7.62</v>
+      </c>
+      <c r="O576">
+        <v>46.84</v>
+      </c>
+      <c r="P576">
+        <v>54</v>
+      </c>
+      <c r="Q576">
+        <v>68</v>
+      </c>
+      <c r="R576">
+        <v>58</v>
+      </c>
+      <c r="S576">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="577" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>285</v>
+      </c>
+      <c r="C577" t="s">
+        <v>290</v>
+      </c>
+      <c r="D577" t="s">
+        <v>294</v>
+      </c>
+      <c r="E577">
+        <v>19</v>
+      </c>
+      <c r="F577">
+        <v>0.95</v>
+      </c>
+      <c r="G577">
+        <v>1.28</v>
+      </c>
+      <c r="H577">
+        <v>10.79</v>
+      </c>
+      <c r="I577">
+        <v>13.89</v>
+      </c>
+      <c r="J577">
+        <v>21</v>
+      </c>
+      <c r="K577">
+        <v>0.85</v>
+      </c>
+      <c r="L577">
+        <v>36.74</v>
+      </c>
+      <c r="M577">
+        <v>48.42</v>
+      </c>
+      <c r="N577">
+        <v>10.14</v>
+      </c>
+      <c r="O577">
+        <v>41.55</v>
+      </c>
+      <c r="P577">
+        <v>40</v>
+      </c>
+      <c r="Q577">
+        <v>58</v>
+      </c>
+      <c r="R577">
+        <v>47</v>
+      </c>
+      <c r="S577">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="578" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>280</v>
+      </c>
+      <c r="C578" t="s">
+        <v>290</v>
+      </c>
+      <c r="D578" t="s">
+        <v>294</v>
+      </c>
+      <c r="E578">
+        <v>20</v>
+      </c>
+      <c r="F578">
+        <v>1.51</v>
+      </c>
+      <c r="G578">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H578">
+        <v>14.25</v>
+      </c>
+      <c r="I578">
+        <v>13.15</v>
+      </c>
+      <c r="J578">
+        <v>18</v>
+      </c>
+      <c r="K578">
+        <v>0.88</v>
+      </c>
+      <c r="L578">
+        <v>40.65</v>
+      </c>
+      <c r="M578">
+        <v>43.45</v>
+      </c>
+      <c r="N578">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="O578">
+        <v>47.35</v>
+      </c>
+      <c r="P578">
+        <v>49</v>
+      </c>
+      <c r="Q578">
+        <v>70</v>
+      </c>
+      <c r="R578">
+        <v>51</v>
+      </c>
+      <c r="S578">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="579" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>26</v>
+      </c>
+      <c r="C579" t="s">
+        <v>290</v>
+      </c>
+      <c r="D579" t="s">
+        <v>294</v>
+      </c>
+      <c r="E579">
+        <v>20</v>
+      </c>
+      <c r="F579">
+        <v>1.46</v>
+      </c>
+      <c r="G579">
+        <v>0.82</v>
+      </c>
+      <c r="H579">
+        <v>14</v>
+      </c>
+      <c r="I579">
+        <v>10.6</v>
+      </c>
+      <c r="J579">
+        <v>14</v>
+      </c>
+      <c r="K579">
+        <v>0.85</v>
+      </c>
+      <c r="L579">
+        <v>46.9</v>
+      </c>
+      <c r="M579">
+        <v>36.5</v>
+      </c>
+      <c r="N579">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="O579">
+        <v>48.95</v>
+      </c>
+      <c r="P579">
+        <v>57</v>
+      </c>
+      <c r="Q579">
+        <v>82</v>
+      </c>
+      <c r="R579">
+        <v>55</v>
+      </c>
+      <c r="S579">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="580" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>283</v>
+      </c>
+      <c r="C580" t="s">
+        <v>290</v>
+      </c>
+      <c r="D580" t="s">
+        <v>294</v>
+      </c>
+      <c r="E580">
+        <v>20</v>
+      </c>
+      <c r="F580">
+        <v>1.39</v>
+      </c>
+      <c r="G580">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H580">
+        <v>12.85</v>
+      </c>
+      <c r="I580">
+        <v>11.75</v>
+      </c>
+      <c r="J580">
+        <v>13</v>
+      </c>
+      <c r="K580">
+        <v>0.9</v>
+      </c>
+      <c r="L580">
+        <v>40.5</v>
+      </c>
+      <c r="M580">
+        <v>41.85</v>
+      </c>
+      <c r="N580">
+        <v>11.05</v>
+      </c>
+      <c r="O580">
+        <v>45.78</v>
+      </c>
+      <c r="P580">
+        <v>43</v>
+      </c>
+      <c r="Q580">
+        <v>67</v>
+      </c>
+      <c r="R580">
+        <v>51</v>
+      </c>
+      <c r="S580">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="581" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>293</v>
+      </c>
+      <c r="C581" t="s">
+        <v>290</v>
+      </c>
+      <c r="D581" t="s">
+        <v>294</v>
+      </c>
+      <c r="E581">
+        <v>19</v>
+      </c>
+      <c r="F581">
+        <v>0.84</v>
+      </c>
+      <c r="G581">
+        <v>1.82</v>
+      </c>
+      <c r="H581">
+        <v>9.68</v>
+      </c>
+      <c r="I581">
+        <v>15.42</v>
+      </c>
+      <c r="J581">
+        <v>24</v>
+      </c>
+      <c r="K581">
+        <v>0.83</v>
+      </c>
+      <c r="L581">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="M581">
+        <v>48.84</v>
+      </c>
+      <c r="N581">
+        <v>13.08</v>
+      </c>
+      <c r="O581">
+        <v>43.85</v>
+      </c>
+      <c r="P581">
+        <v>49</v>
+      </c>
+      <c r="Q581">
+        <v>66</v>
+      </c>
+      <c r="R581">
+        <v>41</v>
+      </c>
+      <c r="S581">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>289</v>
+      </c>
+      <c r="C582" t="s">
+        <v>290</v>
+      </c>
+      <c r="D582" t="s">
+        <v>294</v>
+      </c>
+      <c r="E582">
+        <v>20</v>
+      </c>
+      <c r="F582">
+        <v>1.37</v>
+      </c>
+      <c r="G582">
+        <v>1.58</v>
+      </c>
+      <c r="H582">
+        <v>10.6</v>
+      </c>
+      <c r="I582">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J582">
+        <v>19</v>
+      </c>
+      <c r="K582">
+        <v>0.85</v>
+      </c>
+      <c r="L582">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M582">
+        <v>50.5</v>
+      </c>
+      <c r="N582">
+        <v>10.58</v>
+      </c>
+      <c r="O582">
+        <v>45.13</v>
+      </c>
+      <c r="P582">
+        <v>48</v>
+      </c>
+      <c r="Q582">
+        <v>68</v>
+      </c>
+      <c r="R582">
+        <v>48</v>
+      </c>
+      <c r="S582">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>282</v>
+      </c>
+      <c r="C583" t="s">
+        <v>290</v>
+      </c>
+      <c r="D583" t="s">
+        <v>294</v>
+      </c>
+      <c r="E583">
+        <v>20</v>
+      </c>
+      <c r="F583">
+        <v>0.87</v>
+      </c>
+      <c r="G583">
+        <v>1.66</v>
+      </c>
+      <c r="H583">
+        <v>8.65</v>
+      </c>
+      <c r="I583">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J583">
+        <v>26</v>
+      </c>
+      <c r="K583">
+        <v>0.89</v>
+      </c>
+      <c r="L583">
+        <v>35.15</v>
+      </c>
+      <c r="M583">
+        <v>50.9</v>
+      </c>
+      <c r="N583">
+        <v>12</v>
+      </c>
+      <c r="O583">
+        <v>42.16</v>
+      </c>
+      <c r="P583">
+        <v>42</v>
+      </c>
+      <c r="Q583">
+        <v>60</v>
+      </c>
+      <c r="R583">
+        <v>46</v>
+      </c>
+      <c r="S583">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="584" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>278</v>
+      </c>
+      <c r="C584" t="s">
+        <v>290</v>
+      </c>
+      <c r="D584" t="s">
+        <v>294</v>
+      </c>
+      <c r="E584">
+        <v>20</v>
+      </c>
+      <c r="F584">
+        <v>0.86</v>
+      </c>
+      <c r="G584">
+        <v>2.06</v>
+      </c>
+      <c r="H584">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I584">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="J584">
+        <v>18</v>
+      </c>
+      <c r="K584">
+        <v>0.89</v>
+      </c>
+      <c r="L584">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="M584">
+        <v>46.7</v>
+      </c>
+      <c r="N584">
+        <v>10</v>
+      </c>
+      <c r="O584">
+        <v>45.34</v>
+      </c>
+      <c r="P584">
+        <v>45</v>
+      </c>
+      <c r="Q584">
+        <v>60</v>
+      </c>
+      <c r="R584">
+        <v>52</v>
+      </c>
+      <c r="S584">
+        <v>1.33</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S544" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S456">

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B887F8-5C35-405B-BB63-E43FAB5CDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF447E8-C5A6-4E66-BB3F-61BA3A914EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="301">
   <si>
     <t>Liga</t>
   </si>
@@ -827,13 +827,7 @@
     <t>Villarreal</t>
   </si>
   <si>
-    <t>2019/2020</t>
-  </si>
-  <si>
     <t>España</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
   </si>
   <si>
     <t>Las Palmas</t>
@@ -849,9 +843,6 @@
   </si>
   <si>
     <t>Lugo</t>
-  </si>
-  <si>
-    <t>2020/2021</t>
   </si>
   <si>
     <t>Brighton &amp; Hove Albion</t>
@@ -923,7 +914,34 @@
     <t>Ipswich Town</t>
   </si>
   <si>
-    <t>2024/2025</t>
+    <t>Lopetegui</t>
+  </si>
+  <si>
+    <t>Crespo</t>
+  </si>
+  <si>
+    <t>Karanka</t>
+  </si>
+  <si>
+    <t>2021/2022AK</t>
+  </si>
+  <si>
+    <t>2022/2023AK</t>
+  </si>
+  <si>
+    <t>2021HC</t>
+  </si>
+  <si>
+    <t>2019/2020HC</t>
+  </si>
+  <si>
+    <t>2020/2021HC</t>
+  </si>
+  <si>
+    <t>2022/2023JL</t>
+  </si>
+  <si>
+    <t>2024/2025JL</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
   <dimension ref="A1:S584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F579" sqref="F579"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="D566" sqref="D566:D584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24569,8 +24587,8 @@
       <c r="C415" t="s">
         <v>48</v>
       </c>
-      <c r="D415">
-        <v>2021</v>
+      <c r="D415" t="s">
+        <v>296</v>
       </c>
       <c r="E415">
         <v>25</v>
@@ -24625,8 +24643,8 @@
       <c r="C416" t="s">
         <v>48</v>
       </c>
-      <c r="D416">
-        <v>2021</v>
+      <c r="D416" t="s">
+        <v>296</v>
       </c>
       <c r="E416">
         <v>23</v>
@@ -24681,8 +24699,8 @@
       <c r="C417" t="s">
         <v>48</v>
       </c>
-      <c r="D417">
-        <v>2021</v>
+      <c r="D417" t="s">
+        <v>296</v>
       </c>
       <c r="E417">
         <v>25</v>
@@ -24737,8 +24755,8 @@
       <c r="C418" t="s">
         <v>48</v>
       </c>
-      <c r="D418">
-        <v>2021</v>
+      <c r="D418" t="s">
+        <v>296</v>
       </c>
       <c r="E418">
         <v>22</v>
@@ -24793,8 +24811,8 @@
       <c r="C419" t="s">
         <v>48</v>
       </c>
-      <c r="D419">
-        <v>2021</v>
+      <c r="D419" t="s">
+        <v>296</v>
       </c>
       <c r="E419">
         <v>24</v>
@@ -24849,8 +24867,8 @@
       <c r="C420" t="s">
         <v>48</v>
       </c>
-      <c r="D420">
-        <v>2021</v>
+      <c r="D420" t="s">
+        <v>296</v>
       </c>
       <c r="E420">
         <v>24</v>
@@ -24905,8 +24923,8 @@
       <c r="C421" t="s">
         <v>48</v>
       </c>
-      <c r="D421">
-        <v>2021</v>
+      <c r="D421" t="s">
+        <v>296</v>
       </c>
       <c r="E421">
         <v>24</v>
@@ -24961,8 +24979,8 @@
       <c r="C422" t="s">
         <v>48</v>
       </c>
-      <c r="D422">
-        <v>2021</v>
+      <c r="D422" t="s">
+        <v>296</v>
       </c>
       <c r="E422">
         <v>24</v>
@@ -25017,8 +25035,8 @@
       <c r="C423" t="s">
         <v>48</v>
       </c>
-      <c r="D423">
-        <v>2021</v>
+      <c r="D423" t="s">
+        <v>296</v>
       </c>
       <c r="E423">
         <v>24</v>
@@ -25073,8 +25091,8 @@
       <c r="C424" t="s">
         <v>48</v>
       </c>
-      <c r="D424">
-        <v>2021</v>
+      <c r="D424" t="s">
+        <v>296</v>
       </c>
       <c r="E424">
         <v>23</v>
@@ -25129,8 +25147,8 @@
       <c r="C425" t="s">
         <v>48</v>
       </c>
-      <c r="D425">
-        <v>2021</v>
+      <c r="D425" t="s">
+        <v>296</v>
       </c>
       <c r="E425">
         <v>25</v>
@@ -25185,8 +25203,8 @@
       <c r="C426" t="s">
         <v>48</v>
       </c>
-      <c r="D426">
-        <v>2021</v>
+      <c r="D426" t="s">
+        <v>296</v>
       </c>
       <c r="E426">
         <v>24</v>
@@ -25241,8 +25259,8 @@
       <c r="C427" t="s">
         <v>48</v>
       </c>
-      <c r="D427">
-        <v>2021</v>
+      <c r="D427" t="s">
+        <v>296</v>
       </c>
       <c r="E427">
         <v>25</v>
@@ -25297,8 +25315,8 @@
       <c r="C428" t="s">
         <v>48</v>
       </c>
-      <c r="D428">
-        <v>2021</v>
+      <c r="D428" t="s">
+        <v>296</v>
       </c>
       <c r="E428">
         <v>24</v>
@@ -25353,8 +25371,8 @@
       <c r="C429" t="s">
         <v>48</v>
       </c>
-      <c r="D429">
-        <v>2021</v>
+      <c r="D429" t="s">
+        <v>296</v>
       </c>
       <c r="E429">
         <v>24</v>
@@ -25409,8 +25427,8 @@
       <c r="C430" t="s">
         <v>48</v>
       </c>
-      <c r="D430">
-        <v>2021</v>
+      <c r="D430" t="s">
+        <v>296</v>
       </c>
       <c r="E430">
         <v>25</v>
@@ -25462,11 +25480,14 @@
       <c r="A431" t="s">
         <v>53</v>
       </c>
+      <c r="B431" t="s">
+        <v>292</v>
+      </c>
       <c r="C431" t="s">
         <v>48</v>
       </c>
-      <c r="D431">
-        <v>2021</v>
+      <c r="D431" t="s">
+        <v>296</v>
       </c>
       <c r="E431">
         <v>24</v>
@@ -25521,8 +25542,8 @@
       <c r="C432" t="s">
         <v>48</v>
       </c>
-      <c r="D432">
-        <v>2021</v>
+      <c r="D432" t="s">
+        <v>296</v>
       </c>
       <c r="E432">
         <v>24</v>
@@ -25577,8 +25598,8 @@
       <c r="C433" t="s">
         <v>48</v>
       </c>
-      <c r="D433">
-        <v>2021</v>
+      <c r="D433" t="s">
+        <v>296</v>
       </c>
       <c r="E433">
         <v>24</v>
@@ -25633,8 +25654,8 @@
       <c r="C434" t="s">
         <v>48</v>
       </c>
-      <c r="D434">
-        <v>2021</v>
+      <c r="D434" t="s">
+        <v>296</v>
       </c>
       <c r="E434">
         <v>25</v>
@@ -25690,7 +25711,7 @@
         <v>15</v>
       </c>
       <c r="D435" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E435">
         <v>5</v>
@@ -25746,7 +25767,7 @@
         <v>15</v>
       </c>
       <c r="D436" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E436">
         <v>4</v>
@@ -25802,7 +25823,7 @@
         <v>15</v>
       </c>
       <c r="D437" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E437">
         <v>6</v>
@@ -25858,7 +25879,7 @@
         <v>15</v>
       </c>
       <c r="D438" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E438">
         <v>6</v>
@@ -25914,7 +25935,7 @@
         <v>15</v>
       </c>
       <c r="D439" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E439">
         <v>5</v>
@@ -25970,7 +25991,7 @@
         <v>15</v>
       </c>
       <c r="D440" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E440">
         <v>5</v>
@@ -26026,7 +26047,7 @@
         <v>15</v>
       </c>
       <c r="D441" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E441">
         <v>5</v>
@@ -26082,7 +26103,7 @@
         <v>15</v>
       </c>
       <c r="D442" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E442">
         <v>5</v>
@@ -26138,7 +26159,7 @@
         <v>15</v>
       </c>
       <c r="D443" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E443">
         <v>5</v>
@@ -26194,7 +26215,7 @@
         <v>15</v>
       </c>
       <c r="D444" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E444">
         <v>5</v>
@@ -26250,7 +26271,7 @@
         <v>15</v>
       </c>
       <c r="D445" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E445">
         <v>6</v>
@@ -26306,7 +26327,7 @@
         <v>15</v>
       </c>
       <c r="D446" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E446">
         <v>5</v>
@@ -26362,7 +26383,7 @@
         <v>15</v>
       </c>
       <c r="D447" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E447">
         <v>5</v>
@@ -26418,7 +26439,7 @@
         <v>15</v>
       </c>
       <c r="D448" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E448">
         <v>5</v>
@@ -26474,7 +26495,7 @@
         <v>15</v>
       </c>
       <c r="D449" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E449">
         <v>5</v>
@@ -26530,7 +26551,7 @@
         <v>15</v>
       </c>
       <c r="D450" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E450">
         <v>5</v>
@@ -26586,7 +26607,7 @@
         <v>15</v>
       </c>
       <c r="D451" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E451">
         <v>5</v>
@@ -26642,7 +26663,7 @@
         <v>15</v>
       </c>
       <c r="D452" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E452">
         <v>6</v>
@@ -26698,7 +26719,7 @@
         <v>15</v>
       </c>
       <c r="D453" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E453">
         <v>6</v>
@@ -26754,7 +26775,7 @@
         <v>15</v>
       </c>
       <c r="D454" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E454">
         <v>5</v>
@@ -26806,11 +26827,14 @@
       <c r="A455" t="s">
         <v>23</v>
       </c>
+      <c r="B455" t="s">
+        <v>292</v>
+      </c>
       <c r="C455" t="s">
         <v>15</v>
       </c>
       <c r="D455" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E455">
         <v>6</v>
@@ -26866,7 +26890,7 @@
         <v>15</v>
       </c>
       <c r="D456" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E456">
         <v>5</v>
@@ -26922,7 +26946,7 @@
         <v>15</v>
       </c>
       <c r="D457" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E457">
         <v>6</v>
@@ -26978,7 +27002,7 @@
         <v>15</v>
       </c>
       <c r="D458" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E458">
         <v>5</v>
@@ -27031,10 +27055,10 @@
         <v>246</v>
       </c>
       <c r="C459" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D459" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E459">
         <v>6</v>
@@ -27087,10 +27111,10 @@
         <v>229</v>
       </c>
       <c r="C460" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D460" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E460">
         <v>6</v>
@@ -27142,11 +27166,14 @@
       <c r="A461" t="s">
         <v>247</v>
       </c>
+      <c r="B461" t="s">
+        <v>293</v>
+      </c>
       <c r="C461" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D461" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E461">
         <v>6</v>
@@ -27199,10 +27226,10 @@
         <v>248</v>
       </c>
       <c r="C462" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D462" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E462">
         <v>5</v>
@@ -27255,10 +27282,10 @@
         <v>223</v>
       </c>
       <c r="C463" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D463" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E463">
         <v>5</v>
@@ -27311,10 +27338,10 @@
         <v>249</v>
       </c>
       <c r="C464" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D464" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E464">
         <v>6</v>
@@ -27367,10 +27394,10 @@
         <v>250</v>
       </c>
       <c r="C465" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D465" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E465">
         <v>7</v>
@@ -27423,10 +27450,10 @@
         <v>224</v>
       </c>
       <c r="C466" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D466" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E466">
         <v>6</v>
@@ -27479,10 +27506,10 @@
         <v>251</v>
       </c>
       <c r="C467" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D467" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E467">
         <v>6</v>
@@ -27535,10 +27562,10 @@
         <v>96</v>
       </c>
       <c r="C468" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D468" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E468">
         <v>7</v>
@@ -27591,10 +27618,10 @@
         <v>252</v>
       </c>
       <c r="C469" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D469" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E469">
         <v>6</v>
@@ -27647,10 +27674,10 @@
         <v>253</v>
       </c>
       <c r="C470" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D470" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E470">
         <v>6</v>
@@ -27703,10 +27730,10 @@
         <v>254</v>
       </c>
       <c r="C471" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D471" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E471">
         <v>6</v>
@@ -27759,10 +27786,10 @@
         <v>255</v>
       </c>
       <c r="C472" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D472" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E472">
         <v>5</v>
@@ -27815,10 +27842,10 @@
         <v>256</v>
       </c>
       <c r="C473" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D473" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E473">
         <v>5</v>
@@ -27871,10 +27898,10 @@
         <v>257</v>
       </c>
       <c r="C474" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D474" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E474">
         <v>6</v>
@@ -27927,10 +27954,10 @@
         <v>258</v>
       </c>
       <c r="C475" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D475" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E475">
         <v>6</v>
@@ -27983,10 +28010,10 @@
         <v>259</v>
       </c>
       <c r="C476" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D476" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E476">
         <v>6</v>
@@ -28039,10 +28066,10 @@
         <v>260</v>
       </c>
       <c r="C477" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D477" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E477">
         <v>5</v>
@@ -28095,10 +28122,10 @@
         <v>261</v>
       </c>
       <c r="C478" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D478" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E478">
         <v>5</v>
@@ -28154,7 +28181,7 @@
         <v>240</v>
       </c>
       <c r="D479" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E479">
         <v>14</v>
@@ -28204,13 +28231,13 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C480" t="s">
         <v>240</v>
       </c>
       <c r="D480" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E480">
         <v>14</v>
@@ -28266,7 +28293,7 @@
         <v>240</v>
       </c>
       <c r="D481" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E481">
         <v>15</v>
@@ -28316,13 +28343,13 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C482" t="s">
         <v>240</v>
       </c>
       <c r="D482" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E482">
         <v>15</v>
@@ -28372,13 +28399,13 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C483" t="s">
         <v>240</v>
       </c>
       <c r="D483" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E483">
         <v>15</v>
@@ -28434,7 +28461,7 @@
         <v>240</v>
       </c>
       <c r="D484" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E484">
         <v>14</v>
@@ -28490,7 +28517,7 @@
         <v>240</v>
       </c>
       <c r="D485" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E485">
         <v>15</v>
@@ -28542,11 +28569,14 @@
       <c r="A486" t="s">
         <v>247</v>
       </c>
+      <c r="B486" t="s">
+        <v>293</v>
+      </c>
       <c r="C486" t="s">
         <v>240</v>
       </c>
       <c r="D486" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E486">
         <v>16</v>
@@ -28602,7 +28632,7 @@
         <v>240</v>
       </c>
       <c r="D487" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E487">
         <v>14</v>
@@ -28658,7 +28688,7 @@
         <v>240</v>
       </c>
       <c r="D488" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E488">
         <v>15</v>
@@ -28714,7 +28744,7 @@
         <v>240</v>
       </c>
       <c r="D489" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E489">
         <v>14</v>
@@ -28770,7 +28800,7 @@
         <v>240</v>
       </c>
       <c r="D490" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E490">
         <v>15</v>
@@ -28826,7 +28856,7 @@
         <v>240</v>
       </c>
       <c r="D491" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E491">
         <v>15</v>
@@ -28882,7 +28912,7 @@
         <v>240</v>
       </c>
       <c r="D492" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E492">
         <v>14</v>
@@ -28938,7 +28968,7 @@
         <v>240</v>
       </c>
       <c r="D493" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E493">
         <v>14</v>
@@ -28994,7 +29024,7 @@
         <v>240</v>
       </c>
       <c r="D494" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E494">
         <v>16</v>
@@ -29044,13 +29074,13 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C495" t="s">
         <v>240</v>
       </c>
       <c r="D495" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E495">
         <v>15</v>
@@ -29100,13 +29130,13 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C496" t="s">
         <v>240</v>
       </c>
       <c r="D496" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E496">
         <v>15</v>
@@ -29162,7 +29192,7 @@
         <v>240</v>
       </c>
       <c r="D497" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E497">
         <v>14</v>
@@ -29218,7 +29248,7 @@
         <v>240</v>
       </c>
       <c r="D498" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E498">
         <v>14</v>
@@ -29274,7 +29304,7 @@
         <v>240</v>
       </c>
       <c r="D499" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E499">
         <v>15</v>
@@ -29330,7 +29360,7 @@
         <v>240</v>
       </c>
       <c r="D500" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="E500">
         <v>14</v>
@@ -29386,7 +29416,7 @@
         <v>15</v>
       </c>
       <c r="D501" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E501">
         <v>11</v>
@@ -29442,7 +29472,7 @@
         <v>15</v>
       </c>
       <c r="D502" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E502">
         <v>11</v>
@@ -29498,7 +29528,7 @@
         <v>15</v>
       </c>
       <c r="D503" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E503">
         <v>11</v>
@@ -29554,7 +29584,7 @@
         <v>15</v>
       </c>
       <c r="D504" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E504">
         <v>11</v>
@@ -29610,7 +29640,7 @@
         <v>15</v>
       </c>
       <c r="D505" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E505">
         <v>12</v>
@@ -29666,7 +29696,7 @@
         <v>15</v>
       </c>
       <c r="D506" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E506">
         <v>11</v>
@@ -29722,7 +29752,7 @@
         <v>15</v>
       </c>
       <c r="D507" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E507">
         <v>11</v>
@@ -29778,7 +29808,7 @@
         <v>15</v>
       </c>
       <c r="D508" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E508">
         <v>11</v>
@@ -29834,7 +29864,7 @@
         <v>15</v>
       </c>
       <c r="D509" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E509">
         <v>11</v>
@@ -29890,7 +29920,7 @@
         <v>15</v>
       </c>
       <c r="D510" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E510">
         <v>12</v>
@@ -29946,7 +29976,7 @@
         <v>15</v>
       </c>
       <c r="D511" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E511">
         <v>12</v>
@@ -30002,7 +30032,7 @@
         <v>15</v>
       </c>
       <c r="D512" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E512">
         <v>11</v>
@@ -30058,7 +30088,7 @@
         <v>15</v>
       </c>
       <c r="D513" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E513">
         <v>11</v>
@@ -30114,7 +30144,7 @@
         <v>15</v>
       </c>
       <c r="D514" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E514">
         <v>11</v>
@@ -30170,7 +30200,7 @@
         <v>15</v>
       </c>
       <c r="D515" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E515">
         <v>11</v>
@@ -30226,7 +30256,7 @@
         <v>15</v>
       </c>
       <c r="D516" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E516">
         <v>11</v>
@@ -30282,7 +30312,7 @@
         <v>15</v>
       </c>
       <c r="D517" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E517">
         <v>12</v>
@@ -30334,11 +30364,14 @@
       <c r="A518" t="s">
         <v>23</v>
       </c>
+      <c r="B518" t="s">
+        <v>292</v>
+      </c>
       <c r="C518" t="s">
         <v>15</v>
       </c>
       <c r="D518" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E518">
         <v>11</v>
@@ -30394,7 +30427,7 @@
         <v>15</v>
       </c>
       <c r="D519" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E519">
         <v>11</v>
@@ -30450,7 +30483,7 @@
         <v>15</v>
       </c>
       <c r="D520" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E520">
         <v>11</v>
@@ -30506,7 +30539,7 @@
         <v>15</v>
       </c>
       <c r="D521" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E521">
         <v>11</v>
@@ -30562,7 +30595,7 @@
         <v>15</v>
       </c>
       <c r="D522" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E522">
         <v>11</v>
@@ -30618,7 +30651,7 @@
         <v>15</v>
       </c>
       <c r="D523" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E523">
         <v>11</v>
@@ -30674,7 +30707,7 @@
         <v>15</v>
       </c>
       <c r="D524" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E524">
         <v>11</v>
@@ -30724,13 +30757,13 @@
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C525" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D525" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E525">
         <v>24</v>
@@ -30780,13 +30813,13 @@
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C526" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D526" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E526">
         <v>24</v>
@@ -30836,13 +30869,13 @@
     </row>
     <row r="527" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C527" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D527" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E527">
         <v>24</v>
@@ -30895,10 +30928,10 @@
         <v>26</v>
       </c>
       <c r="C528" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D528" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E528">
         <v>24</v>
@@ -30948,13 +30981,13 @@
     </row>
     <row r="529" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C529" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D529" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E529">
         <v>24</v>
@@ -31004,13 +31037,13 @@
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C530" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D530" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E530">
         <v>23</v>
@@ -31060,13 +31093,13 @@
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C531" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D531" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E531">
         <v>23</v>
@@ -31116,13 +31149,13 @@
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C532" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D532" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E532">
         <v>23</v>
@@ -31172,13 +31205,13 @@
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C533" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D533" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E533">
         <v>23</v>
@@ -31228,13 +31261,13 @@
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C534" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D534" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E534">
         <v>23</v>
@@ -31284,13 +31317,13 @@
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C535" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D535" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E535">
         <v>23</v>
@@ -31340,13 +31373,13 @@
     </row>
     <row r="536" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C536" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D536" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E536">
         <v>24</v>
@@ -31396,13 +31429,13 @@
     </row>
     <row r="537" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C537" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D537" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E537">
         <v>23</v>
@@ -31452,13 +31485,13 @@
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C538" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D538" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E538">
         <v>23</v>
@@ -31508,13 +31541,13 @@
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C539" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D539" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E539">
         <v>24</v>
@@ -31564,13 +31597,16 @@
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="B540" t="s">
+        <v>291</v>
       </c>
       <c r="C540" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D540" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E540">
         <v>23</v>
@@ -31620,13 +31656,13 @@
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C541" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D541" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E541">
         <v>24</v>
@@ -31676,13 +31712,13 @@
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
+        <v>284</v>
+      </c>
+      <c r="C542" t="s">
         <v>287</v>
       </c>
-      <c r="C542" t="s">
-        <v>290</v>
-      </c>
       <c r="D542" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E542">
         <v>23</v>
@@ -31732,13 +31768,13 @@
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C543" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D543" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E543">
         <v>23</v>
@@ -31788,13 +31824,13 @@
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C544" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D544" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="E544">
         <v>23</v>
@@ -32628,7 +32664,7 @@
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C559" t="s">
         <v>48</v>
@@ -32796,7 +32832,7 @@
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C562" t="s">
         <v>48</v>
@@ -32964,13 +33000,13 @@
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C565" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D565" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E565">
         <v>20</v>
@@ -33020,13 +33056,13 @@
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C566" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D566" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E566">
         <v>20</v>
@@ -33076,13 +33112,13 @@
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C567" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D567" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E567">
         <v>20</v>
@@ -33132,13 +33168,13 @@
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
+        <v>284</v>
+      </c>
+      <c r="C568" t="s">
         <v>287</v>
       </c>
-      <c r="C568" t="s">
-        <v>290</v>
-      </c>
       <c r="D568" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E568">
         <v>19</v>
@@ -33188,13 +33224,13 @@
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C569" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D569" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E569">
         <v>18</v>
@@ -33244,13 +33280,13 @@
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C570" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D570" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E570">
         <v>20</v>
@@ -33300,13 +33336,13 @@
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C571" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D571" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E571">
         <v>20</v>
@@ -33356,13 +33392,13 @@
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C572" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D572" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E572">
         <v>18</v>
@@ -33412,13 +33448,13 @@
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C573" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D573" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E573">
         <v>18</v>
@@ -33468,13 +33504,13 @@
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C574" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D574" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E574">
         <v>19</v>
@@ -33524,13 +33560,16 @@
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="B575" t="s">
+        <v>291</v>
       </c>
       <c r="C575" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D575" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E575">
         <v>20</v>
@@ -33580,13 +33619,13 @@
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C576" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D576" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E576">
         <v>20</v>
@@ -33636,13 +33675,13 @@
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C577" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D577" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E577">
         <v>19</v>
@@ -33692,13 +33731,13 @@
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C578" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D578" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E578">
         <v>20</v>
@@ -33751,10 +33790,10 @@
         <v>26</v>
       </c>
       <c r="C579" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D579" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E579">
         <v>20</v>
@@ -33804,13 +33843,13 @@
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C580" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D580" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E580">
         <v>20</v>
@@ -33860,13 +33899,13 @@
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C581" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D581" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E581">
         <v>19</v>
@@ -33916,13 +33955,13 @@
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C582" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D582" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E582">
         <v>20</v>
@@ -33972,13 +34011,13 @@
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C583" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D583" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E583">
         <v>20</v>
@@ -34028,13 +34067,13 @@
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C584" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D584" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E584">
         <v>20</v>

--- a/Consolidado.xlsx
+++ b/Consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaribayda\Documents\App Radar Tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF447E8-C5A6-4E66-BB3F-61BA3A914EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144FD28-DF06-44B6-9862-3F0BF25B0E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DF6405-C0A4-4177-9C60-6D2DC0D9970C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="302">
   <si>
     <t>Liga</t>
   </si>
@@ -830,6 +830,9 @@
     <t>España</t>
   </si>
   <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
     <t>Las Palmas</t>
   </si>
   <si>
@@ -1313,10 +1316,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F4DB8-19AC-4E45-A3F0-BD34130C0BC2}">
-  <dimension ref="A1:S584"/>
+  <dimension ref="A1:S604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="D566" sqref="D566:D584"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B585" sqref="B585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24588,7 +24592,7 @@
         <v>48</v>
       </c>
       <c r="D415" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E415">
         <v>25</v>
@@ -24644,7 +24648,7 @@
         <v>48</v>
       </c>
       <c r="D416" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E416">
         <v>23</v>
@@ -24700,7 +24704,7 @@
         <v>48</v>
       </c>
       <c r="D417" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E417">
         <v>25</v>
@@ -24756,7 +24760,7 @@
         <v>48</v>
       </c>
       <c r="D418" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E418">
         <v>22</v>
@@ -24812,7 +24816,7 @@
         <v>48</v>
       </c>
       <c r="D419" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E419">
         <v>24</v>
@@ -24868,7 +24872,7 @@
         <v>48</v>
       </c>
       <c r="D420" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E420">
         <v>24</v>
@@ -24924,7 +24928,7 @@
         <v>48</v>
       </c>
       <c r="D421" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E421">
         <v>24</v>
@@ -24980,7 +24984,7 @@
         <v>48</v>
       </c>
       <c r="D422" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E422">
         <v>24</v>
@@ -25036,7 +25040,7 @@
         <v>48</v>
       </c>
       <c r="D423" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E423">
         <v>24</v>
@@ -25092,7 +25096,7 @@
         <v>48</v>
       </c>
       <c r="D424" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E424">
         <v>23</v>
@@ -25148,7 +25152,7 @@
         <v>48</v>
       </c>
       <c r="D425" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E425">
         <v>25</v>
@@ -25204,7 +25208,7 @@
         <v>48</v>
       </c>
       <c r="D426" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E426">
         <v>24</v>
@@ -25260,7 +25264,7 @@
         <v>48</v>
       </c>
       <c r="D427" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E427">
         <v>25</v>
@@ -25316,7 +25320,7 @@
         <v>48</v>
       </c>
       <c r="D428" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E428">
         <v>24</v>
@@ -25372,7 +25376,7 @@
         <v>48</v>
       </c>
       <c r="D429" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E429">
         <v>24</v>
@@ -25428,7 +25432,7 @@
         <v>48</v>
       </c>
       <c r="D430" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E430">
         <v>25</v>
@@ -25481,13 +25485,13 @@
         <v>53</v>
       </c>
       <c r="B431" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C431" t="s">
         <v>48</v>
       </c>
       <c r="D431" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E431">
         <v>24</v>
@@ -25543,7 +25547,7 @@
         <v>48</v>
       </c>
       <c r="D432" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E432">
         <v>24</v>
@@ -25599,7 +25603,7 @@
         <v>48</v>
       </c>
       <c r="D433" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E433">
         <v>24</v>
@@ -25655,7 +25659,7 @@
         <v>48</v>
       </c>
       <c r="D434" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E434">
         <v>25</v>
@@ -25711,7 +25715,7 @@
         <v>15</v>
       </c>
       <c r="D435" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E435">
         <v>5</v>
@@ -25767,7 +25771,7 @@
         <v>15</v>
       </c>
       <c r="D436" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E436">
         <v>4</v>
@@ -25823,7 +25827,7 @@
         <v>15</v>
       </c>
       <c r="D437" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E437">
         <v>6</v>
@@ -25879,7 +25883,7 @@
         <v>15</v>
       </c>
       <c r="D438" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E438">
         <v>6</v>
@@ -25935,7 +25939,7 @@
         <v>15</v>
       </c>
       <c r="D439" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E439">
         <v>5</v>
@@ -25991,7 +25995,7 @@
         <v>15</v>
       </c>
       <c r="D440" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E440">
         <v>5</v>
@@ -26047,7 +26051,7 @@
         <v>15</v>
       </c>
       <c r="D441" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E441">
         <v>5</v>
@@ -26103,7 +26107,7 @@
         <v>15</v>
       </c>
       <c r="D442" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E442">
         <v>5</v>
@@ -26159,7 +26163,7 @@
         <v>15</v>
       </c>
       <c r="D443" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E443">
         <v>5</v>
@@ -26215,7 +26219,7 @@
         <v>15</v>
       </c>
       <c r="D444" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E444">
         <v>5</v>
@@ -26271,7 +26275,7 @@
         <v>15</v>
       </c>
       <c r="D445" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E445">
         <v>6</v>
@@ -26327,7 +26331,7 @@
         <v>15</v>
       </c>
       <c r="D446" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E446">
         <v>5</v>
@@ -26383,7 +26387,7 @@
         <v>15</v>
       </c>
       <c r="D447" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E447">
         <v>5</v>
@@ -26439,7 +26443,7 @@
         <v>15</v>
       </c>
       <c r="D448" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E448">
         <v>5</v>
@@ -26495,7 +26499,7 @@
         <v>15</v>
       </c>
       <c r="D449" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E449">
         <v>5</v>
@@ -26551,7 +26555,7 @@
         <v>15</v>
       </c>
       <c r="D450" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E450">
         <v>5</v>
@@ -26607,7 +26611,7 @@
         <v>15</v>
       </c>
       <c r="D451" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E451">
         <v>5</v>
@@ -26663,7 +26667,7 @@
         <v>15</v>
       </c>
       <c r="D452" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E452">
         <v>6</v>
@@ -26719,7 +26723,7 @@
         <v>15</v>
       </c>
       <c r="D453" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E453">
         <v>6</v>
@@ -26775,7 +26779,7 @@
         <v>15</v>
       </c>
       <c r="D454" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E454">
         <v>5</v>
@@ -26828,13 +26832,13 @@
         <v>23</v>
       </c>
       <c r="B455" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C455" t="s">
         <v>15</v>
       </c>
       <c r="D455" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E455">
         <v>6</v>
@@ -26890,7 +26894,7 @@
         <v>15</v>
       </c>
       <c r="D456" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E456">
         <v>5</v>
@@ -26946,7 +26950,7 @@
         <v>15</v>
       </c>
       <c r="D457" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E457">
         <v>6</v>
@@ -27002,7 +27006,7 @@
         <v>15</v>
       </c>
       <c r="D458" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E458">
         <v>5</v>
@@ -27058,7 +27062,7 @@
         <v>262</v>
       </c>
       <c r="D459" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E459">
         <v>6</v>
@@ -27114,7 +27118,7 @@
         <v>262</v>
       </c>
       <c r="D460" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E460">
         <v>6</v>
@@ -27167,13 +27171,13 @@
         <v>247</v>
       </c>
       <c r="B461" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C461" t="s">
         <v>262</v>
       </c>
       <c r="D461" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E461">
         <v>6</v>
@@ -27229,7 +27233,7 @@
         <v>262</v>
       </c>
       <c r="D462" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E462">
         <v>5</v>
@@ -27285,7 +27289,7 @@
         <v>262</v>
       </c>
       <c r="D463" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E463">
         <v>5</v>
@@ -27341,7 +27345,7 @@
         <v>262</v>
       </c>
       <c r="D464" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E464">
         <v>6</v>
@@ -27397,7 +27401,7 @@
         <v>262</v>
       </c>
       <c r="D465" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E465">
         <v>7</v>
@@ -27453,7 +27457,7 @@
         <v>262</v>
       </c>
       <c r="D466" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E466">
         <v>6</v>
@@ -27509,7 +27513,7 @@
         <v>262</v>
       </c>
       <c r="D467" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E467">
         <v>6</v>
@@ -27565,7 +27569,7 @@
         <v>262</v>
       </c>
       <c r="D468" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E468">
         <v>7</v>
@@ -27621,7 +27625,7 @@
         <v>262</v>
       </c>
       <c r="D469" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E469">
         <v>6</v>
@@ -27677,7 +27681,7 @@
         <v>262</v>
       </c>
       <c r="D470" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E470">
         <v>6</v>
@@ -27733,7 +27737,7 @@
         <v>262</v>
       </c>
       <c r="D471" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E471">
         <v>6</v>
@@ -27789,7 +27793,7 @@
         <v>262</v>
       </c>
       <c r="D472" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E472">
         <v>5</v>
@@ -27845,7 +27849,7 @@
         <v>262</v>
       </c>
       <c r="D473" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E473">
         <v>5</v>
@@ -27901,7 +27905,7 @@
         <v>262</v>
       </c>
       <c r="D474" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E474">
         <v>6</v>
@@ -27957,7 +27961,7 @@
         <v>262</v>
       </c>
       <c r="D475" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E475">
         <v>6</v>
@@ -28013,7 +28017,7 @@
         <v>262</v>
       </c>
       <c r="D476" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E476">
         <v>6</v>
@@ -28069,7 +28073,7 @@
         <v>262</v>
       </c>
       <c r="D477" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E477">
         <v>5</v>
@@ -28125,7 +28129,7 @@
         <v>262</v>
       </c>
       <c r="D478" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E478">
         <v>5</v>
@@ -28181,7 +28185,7 @@
         <v>240</v>
       </c>
       <c r="D479" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E479">
         <v>14</v>
@@ -28231,13 +28235,13 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C480" t="s">
         <v>240</v>
       </c>
       <c r="D480" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E480">
         <v>14</v>
@@ -28293,7 +28297,7 @@
         <v>240</v>
       </c>
       <c r="D481" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E481">
         <v>15</v>
@@ -28343,13 +28347,13 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C482" t="s">
         <v>240</v>
       </c>
       <c r="D482" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E482">
         <v>15</v>
@@ -28399,13 +28403,13 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C483" t="s">
         <v>240</v>
       </c>
       <c r="D483" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E483">
         <v>15</v>
@@ -28461,7 +28465,7 @@
         <v>240</v>
       </c>
       <c r="D484" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E484">
         <v>14</v>
@@ -28517,7 +28521,7 @@
         <v>240</v>
       </c>
       <c r="D485" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E485">
         <v>15</v>
@@ -28570,13 +28574,13 @@
         <v>247</v>
       </c>
       <c r="B486" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C486" t="s">
         <v>240</v>
       </c>
       <c r="D486" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E486">
         <v>16</v>
@@ -28632,7 +28636,7 @@
         <v>240</v>
       </c>
       <c r="D487" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E487">
         <v>14</v>
@@ -28688,7 +28692,7 @@
         <v>240</v>
       </c>
       <c r="D488" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E488">
         <v>15</v>
@@ -28744,7 +28748,7 @@
         <v>240</v>
       </c>
       <c r="D489" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E489">
         <v>14</v>
@@ -28800,7 +28804,7 @@
         <v>240</v>
       </c>
       <c r="D490" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E490">
         <v>15</v>
@@ -28856,7 +28860,7 @@
         <v>240</v>
       </c>
       <c r="D491" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E491">
         <v>15</v>
@@ -28912,7 +28916,7 @@
         <v>240</v>
       </c>
       <c r="D492" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E492">
         <v>14</v>
@@ -28968,7 +28972,7 @@
         <v>240</v>
       </c>
       <c r="D493" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E493">
         <v>14</v>
@@ -29024,7 +29028,7 @@
         <v>240</v>
       </c>
       <c r="D494" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E494">
         <v>16</v>
@@ -29074,13 +29078,13 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C495" t="s">
         <v>240</v>
       </c>
       <c r="D495" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E495">
         <v>15</v>
@@ -29130,13 +29134,13 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C496" t="s">
         <v>240</v>
       </c>
       <c r="D496" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E496">
         <v>15</v>
@@ -29192,7 +29196,7 @@
         <v>240</v>
       </c>
       <c r="D497" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E497">
         <v>14</v>
@@ -29248,7 +29252,7 @@
         <v>240</v>
       </c>
       <c r="D498" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E498">
         <v>14</v>
@@ -29304,7 +29308,7 @@
         <v>240</v>
       </c>
       <c r="D499" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E499">
         <v>15</v>
@@ -29360,7 +29364,7 @@
         <v>240</v>
       </c>
       <c r="D500" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E500">
         <v>14</v>
@@ -29416,7 +29420,7 @@
         <v>15</v>
       </c>
       <c r="D501" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E501">
         <v>11</v>
@@ -29472,7 +29476,7 @@
         <v>15</v>
       </c>
       <c r="D502" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E502">
         <v>11</v>
@@ -29528,7 +29532,7 @@
         <v>15</v>
       </c>
       <c r="D503" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E503">
         <v>11</v>
@@ -29584,7 +29588,7 @@
         <v>15</v>
       </c>
       <c r="D504" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E504">
         <v>11</v>
@@ -29640,7 +29644,7 @@
         <v>15</v>
       </c>
       <c r="D505" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E505">
         <v>12</v>
@@ -29696,7 +29700,7 @@
         <v>15</v>
       </c>
       <c r="D506" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E506">
         <v>11</v>
@@ -29752,7 +29756,7 @@
         <v>15</v>
       </c>
       <c r="D507" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E507">
         <v>11</v>
@@ -29808,7 +29812,7 @@
         <v>15</v>
       </c>
       <c r="D508" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E508">
         <v>11</v>
@@ -29864,7 +29868,7 @@
         <v>15</v>
       </c>
       <c r="D509" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E509">
         <v>11</v>
@@ -29920,7 +29924,7 @@
         <v>15</v>
       </c>
       <c r="D510" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E510">
         <v>12</v>
@@ -29976,7 +29980,7 @@
         <v>15</v>
       </c>
       <c r="D511" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E511">
         <v>12</v>
@@ -30032,7 +30036,7 @@
         <v>15</v>
       </c>
       <c r="D512" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E512">
         <v>11</v>
@@ -30088,7 +30092,7 @@
         <v>15</v>
       </c>
       <c r="D513" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E513">
         <v>11</v>
@@ -30144,7 +30148,7 @@
         <v>15</v>
       </c>
       <c r="D514" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E514">
         <v>11</v>
@@ -30200,7 +30204,7 @@
         <v>15</v>
       </c>
       <c r="D515" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E515">
         <v>11</v>
@@ -30256,7 +30260,7 @@
         <v>15</v>
       </c>
       <c r="D516" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E516">
         <v>11</v>
@@ -30312,7 +30316,7 @@
         <v>15</v>
       </c>
       <c r="D517" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E517">
         <v>12</v>
@@ -30365,13 +30369,13 @@
         <v>23</v>
       </c>
       <c r="B518" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C518" t="s">
         <v>15</v>
       </c>
       <c r="D518" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E518">
         <v>11</v>
@@ -30427,7 +30431,7 @@
         <v>15</v>
       </c>
       <c r="D519" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E519">
         <v>11</v>
@@ -30483,7 +30487,7 @@
         <v>15</v>
       </c>
       <c r="D520" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E520">
         <v>11</v>
@@ -30539,7 +30543,7 @@
         <v>15</v>
       </c>
       <c r="D521" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E521">
         <v>11</v>
@@ -30595,7 +30599,7 @@
         <v>15</v>
       </c>
       <c r="D522" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E522">
         <v>11</v>
@@ -30651,7 +30655,7 @@
         <v>15</v>
       </c>
       <c r="D523" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E523">
         <v>11</v>
@@ -30707,7 +30711,7 @@
         <v>15</v>
       </c>
       <c r="D524" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E524">
         <v>11</v>
@@ -30757,13 +30761,13 @@
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C525" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D525" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E525">
         <v>24</v>
@@ -30813,13 +30817,13 @@
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C526" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D526" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E526">
         <v>24</v>
@@ -30869,13 +30873,13 @@
     </row>
     <row r="527" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C527" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D527" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E527">
         <v>24</v>
@@ -30928,10 +30932,10 @@
         <v>26</v>
       </c>
       <c r="C528" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D528" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E528">
         <v>24</v>
@@ -30981,13 +30985,13 @@
     </row>
     <row r="529" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C529" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D529" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E529">
         <v>24</v>
@@ -31037,13 +31041,13 @@
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C530" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D530" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E530">
         <v>23</v>
@@ -31093,13 +31097,13 @@
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C531" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D531" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E531">
         <v>23</v>
@@ -31149,13 +31153,13 @@
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C532" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D532" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E532">
         <v>23</v>
@@ -31205,13 +31209,13 @@
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C533" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D533" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E533">
         <v>23</v>
@@ -31261,13 +31265,13 @@
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C534" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D534" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E534">
         <v>23</v>
@@ -31317,13 +31321,13 @@
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C535" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D535" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E535">
         <v>23</v>
@@ -31373,13 +31377,13 @@
     </row>
     <row r="536" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C536" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D536" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E536">
         <v>24</v>
@@ -31429,13 +31433,13 @@
     </row>
     <row r="537" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C537" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D537" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E537">
         <v>23</v>
@@ -31485,13 +31489,13 @@
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C538" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D538" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E538">
         <v>23</v>
@@ -31541,13 +31545,13 @@
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C539" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D539" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E539">
         <v>24</v>
@@ -31597,16 +31601,16 @@
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B540" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C540" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D540" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E540">
         <v>23</v>
@@ -31656,13 +31660,13 @@
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C541" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D541" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E541">
         <v>24</v>
@@ -31712,13 +31716,13 @@
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C542" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D542" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E542">
         <v>23</v>
@@ -31768,13 +31772,13 @@
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C543" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D543" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E543">
         <v>23</v>
@@ -31824,13 +31828,13 @@
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C544" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D544" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E544">
         <v>23</v>
@@ -32664,7 +32668,7 @@
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C559" t="s">
         <v>48</v>
@@ -32832,7 +32836,7 @@
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C562" t="s">
         <v>48</v>
@@ -33000,13 +33004,13 @@
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C565" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D565" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E565">
         <v>20</v>
@@ -33056,13 +33060,13 @@
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C566" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D566" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E566">
         <v>20</v>
@@ -33112,13 +33116,13 @@
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C567" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D567" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E567">
         <v>20</v>
@@ -33168,13 +33172,13 @@
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C568" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D568" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E568">
         <v>19</v>
@@ -33224,13 +33228,13 @@
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C569" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D569" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E569">
         <v>18</v>
@@ -33280,13 +33284,13 @@
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C570" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D570" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E570">
         <v>20</v>
@@ -33336,13 +33340,13 @@
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C571" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D571" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E571">
         <v>20</v>
@@ -33392,13 +33396,13 @@
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C572" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D572" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E572">
         <v>18</v>
@@ -33448,13 +33452,13 @@
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C573" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D573" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E573">
         <v>18</v>
@@ -33504,13 +33508,13 @@
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C574" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D574" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E574">
         <v>19</v>
@@ -33560,16 +33564,16 @@
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B575" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C575" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D575" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E575">
         <v>20</v>
@@ -33619,13 +33623,13 @@
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C576" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D576" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E576">
         <v>20</v>
@@ -33675,13 +33679,13 @@
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C577" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D577" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E577">
         <v>19</v>
@@ -33731,13 +33735,13 @@
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C578" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D578" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E578">
         <v>20</v>
@@ -33790,10 +33794,10 @@
         <v>26</v>
       </c>
       <c r="C579" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D579" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E579">
         <v>20</v>
@@ -33843,13 +33847,13 @@
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C580" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D580" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E580">
         <v>20</v>
@@ -33899,13 +33903,13 @@
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C581" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D581" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E581">
         <v>19</v>
@@ -33955,13 +33959,13 @@
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C582" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D582" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E582">
         <v>20</v>
@@ -34011,13 +34015,13 @@
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C583" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D583" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E583">
         <v>20</v>
@@ -34067,13 +34071,13 @@
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C584" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D584" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E584">
         <v>20</v>
@@ -34119,6 +34123,1126 @@
       </c>
       <c r="S584">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>246</v>
+      </c>
+      <c r="C585" t="s">
+        <v>262</v>
+      </c>
+      <c r="D585" t="s">
+        <v>263</v>
+      </c>
+      <c r="E585">
+        <v>38</v>
+      </c>
+      <c r="F585">
+        <v>1.71</v>
+      </c>
+      <c r="G585">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H585">
+        <v>17.13</v>
+      </c>
+      <c r="I585">
+        <v>11.34</v>
+      </c>
+      <c r="J585">
+        <v>16</v>
+      </c>
+      <c r="K585">
+        <v>0.86</v>
+      </c>
+      <c r="L585">
+        <v>63.18</v>
+      </c>
+      <c r="M585">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="N585">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="O585">
+        <v>43.36</v>
+      </c>
+      <c r="P585">
+        <v>45</v>
+      </c>
+      <c r="Q585">
+        <v>72</v>
+      </c>
+      <c r="R585">
+        <v>60</v>
+      </c>
+      <c r="S585">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>248</v>
+      </c>
+      <c r="C586" t="s">
+        <v>262</v>
+      </c>
+      <c r="D586" t="s">
+        <v>263</v>
+      </c>
+      <c r="E586">
+        <v>38</v>
+      </c>
+      <c r="F586">
+        <v>1.32</v>
+      </c>
+      <c r="G586">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H586">
+        <v>13.5</v>
+      </c>
+      <c r="I586">
+        <v>11.24</v>
+      </c>
+      <c r="J586">
+        <v>17</v>
+      </c>
+      <c r="K586">
+        <v>0.86</v>
+      </c>
+      <c r="L586">
+        <v>43.68</v>
+      </c>
+      <c r="M586">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="N586">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="O586">
+        <v>43.01</v>
+      </c>
+      <c r="P586">
+        <v>43</v>
+      </c>
+      <c r="Q586">
+        <v>70</v>
+      </c>
+      <c r="R586">
+        <v>54</v>
+      </c>
+      <c r="S586">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="587" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>255</v>
+      </c>
+      <c r="C587" t="s">
+        <v>262</v>
+      </c>
+      <c r="D587" t="s">
+        <v>263</v>
+      </c>
+      <c r="E587">
+        <v>38</v>
+      </c>
+      <c r="F587">
+        <v>0.9</v>
+      </c>
+      <c r="G587">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H587">
+        <v>11.61</v>
+      </c>
+      <c r="I587">
+        <v>12.18</v>
+      </c>
+      <c r="J587">
+        <v>24</v>
+      </c>
+      <c r="K587">
+        <v>0.84</v>
+      </c>
+      <c r="L587">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="M587">
+        <v>42.89</v>
+      </c>
+      <c r="N587">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O587">
+        <v>43.59</v>
+      </c>
+      <c r="P587">
+        <v>41</v>
+      </c>
+      <c r="Q587">
+        <v>65</v>
+      </c>
+      <c r="R587">
+        <v>45</v>
+      </c>
+      <c r="S587">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>247</v>
+      </c>
+      <c r="C588" t="s">
+        <v>262</v>
+      </c>
+      <c r="D588" t="s">
+        <v>263</v>
+      </c>
+      <c r="E588">
+        <v>38</v>
+      </c>
+      <c r="F588">
+        <v>0.98</v>
+      </c>
+      <c r="G588">
+        <v>1.44</v>
+      </c>
+      <c r="H588">
+        <v>11.18</v>
+      </c>
+      <c r="I588">
+        <v>14.79</v>
+      </c>
+      <c r="J588">
+        <v>30</v>
+      </c>
+      <c r="K588">
+        <v>0.85</v>
+      </c>
+      <c r="L588">
+        <v>33.21</v>
+      </c>
+      <c r="M588">
+        <v>46.89</v>
+      </c>
+      <c r="N588">
+        <v>9.19</v>
+      </c>
+      <c r="O588">
+        <v>42.1</v>
+      </c>
+      <c r="P588">
+        <v>41</v>
+      </c>
+      <c r="Q588">
+        <v>69</v>
+      </c>
+      <c r="R588">
+        <v>45</v>
+      </c>
+      <c r="S588">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="589" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>252</v>
+      </c>
+      <c r="C589" t="s">
+        <v>262</v>
+      </c>
+      <c r="D589" t="s">
+        <v>263</v>
+      </c>
+      <c r="E589">
+        <v>38</v>
+      </c>
+      <c r="F589">
+        <v>0.82</v>
+      </c>
+      <c r="G589">
+        <v>1.05</v>
+      </c>
+      <c r="H589">
+        <v>11.18</v>
+      </c>
+      <c r="I589">
+        <v>11.58</v>
+      </c>
+      <c r="J589">
+        <v>29</v>
+      </c>
+      <c r="K589">
+        <v>0.84</v>
+      </c>
+      <c r="L589">
+        <v>39.92</v>
+      </c>
+      <c r="M589">
+        <v>43.29</v>
+      </c>
+      <c r="N589">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="O589">
+        <v>44.72</v>
+      </c>
+      <c r="P589">
+        <v>49</v>
+      </c>
+      <c r="Q589">
+        <v>78</v>
+      </c>
+      <c r="R589">
+        <v>47</v>
+      </c>
+      <c r="S589">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="590" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>96</v>
+      </c>
+      <c r="C590" t="s">
+        <v>262</v>
+      </c>
+      <c r="D590" t="s">
+        <v>263</v>
+      </c>
+      <c r="E590">
+        <v>38</v>
+      </c>
+      <c r="F590">
+        <v>1.48</v>
+      </c>
+      <c r="G590">
+        <v>0.9</v>
+      </c>
+      <c r="H590">
+        <v>13.68</v>
+      </c>
+      <c r="I590">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="J590">
+        <v>21</v>
+      </c>
+      <c r="K590">
+        <v>0.88</v>
+      </c>
+      <c r="L590">
+        <v>62.97</v>
+      </c>
+      <c r="M590">
+        <v>27.97</v>
+      </c>
+      <c r="N590">
+        <v>6.64</v>
+      </c>
+      <c r="O590">
+        <v>46.88</v>
+      </c>
+      <c r="P590">
+        <v>50</v>
+      </c>
+      <c r="Q590">
+        <v>72</v>
+      </c>
+      <c r="R590">
+        <v>64</v>
+      </c>
+      <c r="S590">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>250</v>
+      </c>
+      <c r="C591" t="s">
+        <v>262</v>
+      </c>
+      <c r="D591" t="s">
+        <v>263</v>
+      </c>
+      <c r="E591">
+        <v>38</v>
+      </c>
+      <c r="F591">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G591">
+        <v>1.05</v>
+      </c>
+      <c r="H591">
+        <v>13.18</v>
+      </c>
+      <c r="I591">
+        <v>10.82</v>
+      </c>
+      <c r="J591">
+        <v>30</v>
+      </c>
+      <c r="K591">
+        <v>0.85</v>
+      </c>
+      <c r="L591">
+        <v>42.34</v>
+      </c>
+      <c r="M591">
+        <v>41.29</v>
+      </c>
+      <c r="N591">
+        <v>7.3</v>
+      </c>
+      <c r="O591">
+        <v>43.7</v>
+      </c>
+      <c r="P591">
+        <v>46</v>
+      </c>
+      <c r="Q591">
+        <v>71</v>
+      </c>
+      <c r="R591">
+        <v>50</v>
+      </c>
+      <c r="S591">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="592" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>258</v>
+      </c>
+      <c r="C592" t="s">
+        <v>262</v>
+      </c>
+      <c r="D592" t="s">
+        <v>263</v>
+      </c>
+      <c r="E592">
+        <v>38</v>
+      </c>
+      <c r="F592">
+        <v>0.68</v>
+      </c>
+      <c r="G592">
+        <v>0.95</v>
+      </c>
+      <c r="H592">
+        <v>10.63</v>
+      </c>
+      <c r="I592">
+        <v>10.76</v>
+      </c>
+      <c r="J592">
+        <v>26</v>
+      </c>
+      <c r="K592">
+        <v>0.84</v>
+      </c>
+      <c r="L592">
+        <v>32.97</v>
+      </c>
+      <c r="M592">
+        <v>42</v>
+      </c>
+      <c r="N592">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="O592">
+        <v>44.2</v>
+      </c>
+      <c r="P592">
+        <v>46</v>
+      </c>
+      <c r="Q592">
+        <v>71</v>
+      </c>
+      <c r="R592">
+        <v>41</v>
+      </c>
+      <c r="S592">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="593" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>224</v>
+      </c>
+      <c r="C593" t="s">
+        <v>262</v>
+      </c>
+      <c r="D593" t="s">
+        <v>263</v>
+      </c>
+      <c r="E593">
+        <v>38</v>
+      </c>
+      <c r="F593">
+        <v>0.89</v>
+      </c>
+      <c r="G593">
+        <v>1.25</v>
+      </c>
+      <c r="H593">
+        <v>10.58</v>
+      </c>
+      <c r="I593">
+        <v>13.26</v>
+      </c>
+      <c r="J593">
+        <v>26</v>
+      </c>
+      <c r="K593">
+        <v>0.87</v>
+      </c>
+      <c r="L593">
+        <v>39</v>
+      </c>
+      <c r="M593">
+        <v>48.66</v>
+      </c>
+      <c r="N593">
+        <v>11</v>
+      </c>
+      <c r="O593">
+        <v>40.99</v>
+      </c>
+      <c r="P593">
+        <v>37</v>
+      </c>
+      <c r="Q593">
+        <v>64</v>
+      </c>
+      <c r="R593">
+        <v>47</v>
+      </c>
+      <c r="S593">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="594" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>249</v>
+      </c>
+      <c r="C594" t="s">
+        <v>262</v>
+      </c>
+      <c r="D594" t="s">
+        <v>263</v>
+      </c>
+      <c r="E594">
+        <v>38</v>
+      </c>
+      <c r="F594">
+        <v>1.28</v>
+      </c>
+      <c r="G594">
+        <v>0.74</v>
+      </c>
+      <c r="H594">
+        <v>12.08</v>
+      </c>
+      <c r="I594">
+        <v>9.18</v>
+      </c>
+      <c r="J594">
+        <v>21</v>
+      </c>
+      <c r="K594">
+        <v>0.86</v>
+      </c>
+      <c r="L594">
+        <v>43.21</v>
+      </c>
+      <c r="M594">
+        <v>39.5</v>
+      </c>
+      <c r="N594">
+        <v>9.65</v>
+      </c>
+      <c r="O594">
+        <v>44.18</v>
+      </c>
+      <c r="P594">
+        <v>45</v>
+      </c>
+      <c r="Q594">
+        <v>71</v>
+      </c>
+      <c r="R594">
+        <v>51</v>
+      </c>
+      <c r="S594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>251</v>
+      </c>
+      <c r="C595" t="s">
+        <v>262</v>
+      </c>
+      <c r="D595" t="s">
+        <v>263</v>
+      </c>
+      <c r="E595">
+        <v>38</v>
+      </c>
+      <c r="F595">
+        <v>1</v>
+      </c>
+      <c r="G595">
+        <v>1.06</v>
+      </c>
+      <c r="H595">
+        <v>10.71</v>
+      </c>
+      <c r="I595">
+        <v>10.47</v>
+      </c>
+      <c r="J595">
+        <v>28</v>
+      </c>
+      <c r="K595">
+        <v>0.84</v>
+      </c>
+      <c r="L595">
+        <v>42.34</v>
+      </c>
+      <c r="M595">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="N595">
+        <v>6.66</v>
+      </c>
+      <c r="O595">
+        <v>43.34</v>
+      </c>
+      <c r="P595">
+        <v>43</v>
+      </c>
+      <c r="Q595">
+        <v>67</v>
+      </c>
+      <c r="R595">
+        <v>55</v>
+      </c>
+      <c r="S595">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="596" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>254</v>
+      </c>
+      <c r="C596" t="s">
+        <v>262</v>
+      </c>
+      <c r="D596" t="s">
+        <v>263</v>
+      </c>
+      <c r="E596">
+        <v>38</v>
+      </c>
+      <c r="F596">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G596">
+        <v>0.92</v>
+      </c>
+      <c r="H596">
+        <v>11.39</v>
+      </c>
+      <c r="I596">
+        <v>11.16</v>
+      </c>
+      <c r="J596">
+        <v>30</v>
+      </c>
+      <c r="K596">
+        <v>0.85</v>
+      </c>
+      <c r="L596">
+        <v>45.03</v>
+      </c>
+      <c r="M596">
+        <v>36.32</v>
+      </c>
+      <c r="N596">
+        <v>7.55</v>
+      </c>
+      <c r="O596">
+        <v>44.44</v>
+      </c>
+      <c r="P596">
+        <v>45</v>
+      </c>
+      <c r="Q596">
+        <v>66</v>
+      </c>
+      <c r="R596">
+        <v>59</v>
+      </c>
+      <c r="S596">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="597" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>229</v>
+      </c>
+      <c r="C597" t="s">
+        <v>262</v>
+      </c>
+      <c r="D597" t="s">
+        <v>263</v>
+      </c>
+      <c r="E597">
+        <v>38</v>
+      </c>
+      <c r="F597">
+        <v>1.24</v>
+      </c>
+      <c r="G597">
+        <v>1.34</v>
+      </c>
+      <c r="H597">
+        <v>11.34</v>
+      </c>
+      <c r="I597">
+        <v>13.45</v>
+      </c>
+      <c r="J597">
+        <v>23</v>
+      </c>
+      <c r="K597">
+        <v>0.83</v>
+      </c>
+      <c r="L597">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="M597">
+        <v>43.76</v>
+      </c>
+      <c r="N597">
+        <v>8.76</v>
+      </c>
+      <c r="O597">
+        <v>43.68</v>
+      </c>
+      <c r="P597">
+        <v>43</v>
+      </c>
+      <c r="Q597">
+        <v>69</v>
+      </c>
+      <c r="R597">
+        <v>47</v>
+      </c>
+      <c r="S597">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>260</v>
+      </c>
+      <c r="C598" t="s">
+        <v>262</v>
+      </c>
+      <c r="D598" t="s">
+        <v>263</v>
+      </c>
+      <c r="E598">
+        <v>38</v>
+      </c>
+      <c r="F598">
+        <v>0.85</v>
+      </c>
+      <c r="G598">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H598">
+        <v>10.37</v>
+      </c>
+      <c r="I598">
+        <v>11.5</v>
+      </c>
+      <c r="J598">
+        <v>27</v>
+      </c>
+      <c r="K598">
+        <v>0.83</v>
+      </c>
+      <c r="L598">
+        <v>37.08</v>
+      </c>
+      <c r="M598">
+        <v>41.21</v>
+      </c>
+      <c r="N598">
+        <v>7.69</v>
+      </c>
+      <c r="O598">
+        <v>44.6</v>
+      </c>
+      <c r="P598">
+        <v>45</v>
+      </c>
+      <c r="Q598">
+        <v>75</v>
+      </c>
+      <c r="R598">
+        <v>43</v>
+      </c>
+      <c r="S598">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>253</v>
+      </c>
+      <c r="C599" t="s">
+        <v>262</v>
+      </c>
+      <c r="D599" t="s">
+        <v>263</v>
+      </c>
+      <c r="E599">
+        <v>38</v>
+      </c>
+      <c r="F599">
+        <v>0.95</v>
+      </c>
+      <c r="G599">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H599">
+        <v>10.76</v>
+      </c>
+      <c r="I599">
+        <v>12.26</v>
+      </c>
+      <c r="J599">
+        <v>37</v>
+      </c>
+      <c r="K599">
+        <v>0.87</v>
+      </c>
+      <c r="L599">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="M599">
+        <v>53.87</v>
+      </c>
+      <c r="N599">
+        <v>10.49</v>
+      </c>
+      <c r="O599">
+        <v>40.99</v>
+      </c>
+      <c r="P599">
+        <v>36</v>
+      </c>
+      <c r="Q599">
+        <v>67</v>
+      </c>
+      <c r="R599">
+        <v>41</v>
+      </c>
+      <c r="S599">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="600" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>259</v>
+      </c>
+      <c r="C600" t="s">
+        <v>262</v>
+      </c>
+      <c r="D600" t="s">
+        <v>263</v>
+      </c>
+      <c r="E600">
+        <v>38</v>
+      </c>
+      <c r="F600">
+        <v>1.17</v>
+      </c>
+      <c r="G600">
+        <v>0.94</v>
+      </c>
+      <c r="H600">
+        <v>12.18</v>
+      </c>
+      <c r="I600">
+        <v>11.5</v>
+      </c>
+      <c r="J600">
+        <v>25</v>
+      </c>
+      <c r="K600">
+        <v>0.88</v>
+      </c>
+      <c r="L600">
+        <v>42.08</v>
+      </c>
+      <c r="M600">
+        <v>38.97</v>
+      </c>
+      <c r="N600">
+        <v>8.77</v>
+      </c>
+      <c r="O600">
+        <v>46.44</v>
+      </c>
+      <c r="P600">
+        <v>51</v>
+      </c>
+      <c r="Q600">
+        <v>73</v>
+      </c>
+      <c r="R600">
+        <v>48</v>
+      </c>
+      <c r="S600">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>223</v>
+      </c>
+      <c r="C601" t="s">
+        <v>262</v>
+      </c>
+      <c r="D601" t="s">
+        <v>263</v>
+      </c>
+      <c r="E601">
+        <v>38</v>
+      </c>
+      <c r="F601">
+        <v>0.9</v>
+      </c>
+      <c r="G601">
+        <v>1.38</v>
+      </c>
+      <c r="H601">
+        <v>8.84</v>
+      </c>
+      <c r="I601">
+        <v>13.58</v>
+      </c>
+      <c r="J601">
+        <v>29</v>
+      </c>
+      <c r="K601">
+        <v>0.89</v>
+      </c>
+      <c r="L601">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="M601">
+        <v>43.82</v>
+      </c>
+      <c r="N601">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="O601">
+        <v>41.26</v>
+      </c>
+      <c r="P601">
+        <v>38</v>
+      </c>
+      <c r="Q601">
+        <v>64</v>
+      </c>
+      <c r="R601">
+        <v>48</v>
+      </c>
+      <c r="S601">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>256</v>
+      </c>
+      <c r="C602" t="s">
+        <v>262</v>
+      </c>
+      <c r="D602" t="s">
+        <v>263</v>
+      </c>
+      <c r="E602">
+        <v>38</v>
+      </c>
+      <c r="F602">
+        <v>0.83</v>
+      </c>
+      <c r="G602">
+        <v>1.34</v>
+      </c>
+      <c r="H602">
+        <v>10</v>
+      </c>
+      <c r="I602">
+        <v>13.45</v>
+      </c>
+      <c r="J602">
+        <v>31</v>
+      </c>
+      <c r="K602">
+        <v>0.84</v>
+      </c>
+      <c r="L602">
+        <v>32.42</v>
+      </c>
+      <c r="M602">
+        <v>42.58</v>
+      </c>
+      <c r="N602">
+        <v>9.34</v>
+      </c>
+      <c r="O602">
+        <v>43.38</v>
+      </c>
+      <c r="P602">
+        <v>43</v>
+      </c>
+      <c r="Q602">
+        <v>72</v>
+      </c>
+      <c r="R602">
+        <v>42</v>
+      </c>
+      <c r="S602">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>261</v>
+      </c>
+      <c r="C603" t="s">
+        <v>262</v>
+      </c>
+      <c r="D603" t="s">
+        <v>263</v>
+      </c>
+      <c r="E603">
+        <v>38</v>
+      </c>
+      <c r="F603">
+        <v>1.54</v>
+      </c>
+      <c r="G603">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H603">
+        <v>11.95</v>
+      </c>
+      <c r="I603">
+        <v>10.97</v>
+      </c>
+      <c r="J603">
+        <v>22</v>
+      </c>
+      <c r="K603">
+        <v>0.9</v>
+      </c>
+      <c r="L603">
+        <v>48.03</v>
+      </c>
+      <c r="M603">
+        <v>35.89</v>
+      </c>
+      <c r="N603">
+        <v>7.48</v>
+      </c>
+      <c r="O603">
+        <v>44.84</v>
+      </c>
+      <c r="P603">
+        <v>47</v>
+      </c>
+      <c r="Q603">
+        <v>71</v>
+      </c>
+      <c r="R603">
+        <v>57</v>
+      </c>
+      <c r="S603">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>257</v>
+      </c>
+      <c r="C604" t="s">
+        <v>262</v>
+      </c>
+      <c r="D604" t="s">
+        <v>263</v>
+      </c>
+      <c r="E604">
+        <v>38</v>
+      </c>
+      <c r="F604">
+        <v>1.19</v>
+      </c>
+      <c r="G604">
+        <v>0.92</v>
+      </c>
+      <c r="H604">
+        <v>11.5</v>
+      </c>
+      <c r="I604">
+        <v>10.95</v>
+      </c>
+      <c r="J604">
+        <v>20</v>
+      </c>
+      <c r="K604">
+        <v>0.87</v>
+      </c>
+      <c r="L604">
+        <v>41.55</v>
+      </c>
+      <c r="M604">
+        <v>38.32</v>
+      </c>
+      <c r="N604">
+        <v>7.62</v>
+      </c>
+      <c r="O604">
+        <v>44.15</v>
+      </c>
+      <c r="P604">
+        <v>47</v>
+      </c>
+      <c r="Q604">
+        <v>69</v>
+      </c>
+      <c r="R604">
+        <v>54</v>
+      </c>
+      <c r="S604">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
